--- a/java/SpringBoot.xlsx
+++ b/java/SpringBoot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,24 @@
     <sheet name="基础" sheetId="4" r:id="rId4"/>
     <sheet name="SPEL表达式" sheetId="5" r:id="rId5"/>
     <sheet name="JSR303数据校验" sheetId="6" r:id="rId6"/>
+    <sheet name="SpringBoot Web" sheetId="7" r:id="rId7"/>
+    <sheet name="JDBC" sheetId="8" r:id="rId8"/>
+    <sheet name="mybatis" sheetId="9" r:id="rId9"/>
+    <sheet name="安全配置" sheetId="10" r:id="rId10"/>
+    <sheet name="Swagger" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="224">
+  <si>
+    <t>全栈技术</t>
+  </si>
+  <si>
+    <t>前端，java，运维，架构</t>
+  </si>
   <si>
     <t>SpringBoot</t>
   </si>
@@ -39,7 +50,28 @@
     <t>Projects 》Spring Boot 》底部的Spring Initializr.</t>
   </si>
   <si>
-    <t>idea下载SpringBoot项目</t>
+    <t>选择jar包</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>Spring Web</t>
+  </si>
+  <si>
+    <t>Thymeleaf</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>JDBC API</t>
+  </si>
+  <si>
+    <t>MYSQL Driver   --- mysql驱动</t>
+  </si>
+  <si>
+    <t>或 idea下载SpringBoot项目</t>
   </si>
   <si>
     <t>略</t>
@@ -48,7 +80,7 @@
     <t>删掉文件</t>
   </si>
   <si>
-    <t>.mvn  HELP.md   mvnw    mvnw.cmd</t>
+    <t>.mvn、 mvnw、 mvnw.cmd、 HELP.md</t>
   </si>
   <si>
     <t>双击package打包,终端运行</t>
@@ -64,6 +96,39 @@
   </si>
   <si>
     <t>service</t>
+  </si>
+  <si>
+    <t>**AutoConfiguration</t>
+  </si>
+  <si>
+    <t>底层-自动配置组件</t>
+  </si>
+  <si>
+    <t>**Properties</t>
+  </si>
+  <si>
+    <t>底层-自动配置类，可自定义</t>
+  </si>
+  <si>
+    <t>idea防止文件乱码设置</t>
+  </si>
+  <si>
+    <t>File 》Settings 》Editor 》File Encodings 》Properties Files选UTF-8和打勾</t>
+  </si>
+  <si>
+    <t>下载jar包</t>
+  </si>
+  <si>
+    <t>项目右击 》Maven 》Download Sources And Documentation</t>
+  </si>
+  <si>
+    <t>Maven</t>
+  </si>
+  <si>
+    <t>Maven官网</t>
+  </si>
+  <si>
+    <t>https://search.maven.org/</t>
   </si>
   <si>
     <t>&lt;parent&gt;</t>
@@ -128,13 +193,123 @@
 &lt;/dependency&gt;</t>
   </si>
   <si>
+    <t>jquery</t>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;
+   &lt;groupId&gt;org.webjars&lt;/groupId&gt;
+   &lt;artifactId&gt;jquery&lt;/artifactId&gt;
+   &lt;version&gt;3.4.1&lt;/version&gt;
+  &lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>web模板引擎</t>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;
+   &lt;groupId&gt;org.thymeleaf&lt;/groupId&gt;
+   &lt;artifactId&gt;thymeleaf-spring5&lt;/artifactId&gt;
+  &lt;/dependency&gt;
+  &lt;dependency&gt;
+   &lt;groupId&gt;org.thymeleaf.extras&lt;/groupId&gt;
+   &lt;artifactId&gt;thymeleaf-extras-java8time&lt;/artifactId&gt;
+&lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>lombok</t>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;
+   &lt;groupId&gt;org.projectlombok&lt;/groupId&gt;
+   &lt;artifactId&gt;lombok&lt;/artifactId&gt;
+&lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>MYSQL Driver</t>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;
+   &lt;groupId&gt;mysql&lt;/groupId&gt;
+   &lt;artifactId&gt;mysql-connector-java&lt;/artifactId&gt;
+   &lt;scope&gt;runtime&lt;/scope&gt;
+&lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;
+   &lt;groupId&gt;org.springframework.boot&lt;/groupId&gt;
+   &lt;artifactId&gt;spring-boot-starter-jdbc&lt;/artifactId&gt;
+&lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>Druid数据源</t>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;
+   &lt;groupId&gt;com.alibaba&lt;/groupId&gt;
+   &lt;artifactId&gt;druid-spring-boot-starter&lt;/artifactId&gt;
+   &lt;version&gt;1.1.17&lt;/version&gt;
+&lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>mybatis</t>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;
+   &lt;groupId&gt;org.mybatis.spring.boot&lt;/groupId&gt;
+   &lt;artifactId&gt;mybatis-spring-boot-starter&lt;/artifactId&gt;
+   &lt;version&gt;2.2.2&lt;/version&gt;
+&lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>security安全</t>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;
+   &lt;groupId&gt;org.springframework.boot&lt;/groupId&gt;
+   &lt;artifactId&gt;spring-boot-starter-security&lt;/artifactId&gt;
+&lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>Swagger</t>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;
+   &lt;groupId&gt;io.springfox&lt;/groupId&gt;
+   &lt;artifactId&gt;springfox-swagger2&lt;/artifactId&gt;
+   &lt;version&gt;2.9.2&lt;/version&gt;
+  &lt;/dependency&gt;
+  &lt;dependency&gt;
+   &lt;groupId&gt;io.springfox&lt;/groupId&gt;
+   &lt;artifactId&gt;springfox-swagger-ui&lt;/artifactId&gt;
+   &lt;version&gt;2.9.2&lt;/version&gt;
+&lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>邮件任务</t>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;
+   &lt;groupId&gt;org.springframework.boot&lt;/groupId&gt;
+   &lt;artifactId&gt;spring-boot-starter-mail&lt;/artifactId&gt;
+&lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>NoSQL---Redis</t>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;
+   &lt;groupId&gt;org.springframework.boot&lt;/groupId&gt;
+   &lt;artifactId&gt;spring-boot-starter-data-redis&lt;/artifactId&gt;
+&lt;/dependency&gt;</t>
+  </si>
+  <si>
     <t>&lt;build&gt;</t>
   </si>
   <si>
     <t>jar打包插件</t>
   </si>
   <si>
-    <t>src\main\resources\application.properties</t>
+    <t>src\main\resources\application.properties默认配置文件</t>
   </si>
   <si>
     <t>语法结构</t>
@@ -161,7 +336,48 @@
     <t>Setting--Editor--File Encodings--Properties--选UTF-8,打勾</t>
   </si>
   <si>
-    <t>src\main\resources\application.yaml</t>
+    <t>多环境配置（测试，线上）</t>
+  </si>
+  <si>
+    <t>spring.profiles.active=dev</t>
+  </si>
+  <si>
+    <t>对应文件名：application-dev.properties</t>
+  </si>
+  <si>
+    <t>设置静态资源,public、static失效</t>
+  </si>
+  <si>
+    <t>spring.mvc.static-path-pattern=/mercury/**</t>
+  </si>
+  <si>
+    <t>关闭html默认图标</t>
+  </si>
+  <si>
+    <t>spring.mvc.favicon.enabled=false</t>
+  </si>
+  <si>
+    <t>国际化语言</t>
+  </si>
+  <si>
+    <t>spring.messages.basename=il8n.login</t>
+  </si>
+  <si>
+    <t>日期格式-默认</t>
+  </si>
+  <si>
+    <t>spring.mvc.format.date=dd/MM/yyyy</t>
+  </si>
+  <si>
+    <t>日期格式</t>
+  </si>
+  <si>
+    <t>spring.mvc.format.date=yyyy-MM-dd</t>
+  </si>
+  <si>
+    <t>src\main\resources\application.yaml 路径：类目录下classpath:
+或 SpringBoot\application.yaml 路径：file:./
+或 SpringBoot\config\application.yaml 路径：file:./config</t>
   </si>
   <si>
     <t>替换文件</t>
@@ -235,6 +451,20 @@
     <t>cat_age: ${age:10}</t>
   </si>
   <si>
+    <t>多环境配置（测试，线上）
+---代表另一个文件</t>
+  </si>
+  <si>
+    <t>spring:
+  profiles:
+    active: dev
+---
+server:
+  port: 8082
+spring:
+  profiles: dev</t>
+  </si>
+  <si>
     <t>@ConfigurationProperties</t>
   </si>
   <si>
@@ -300,6 +530,9 @@
   </si>
   <si>
     <t>绑定properties配置文件的值</t>
+  </si>
+  <si>
+    <t>注解</t>
   </si>
   <si>
     <t>赋值</t>
@@ -340,6 +573,219 @@
   </si>
   <si>
     <t>https://baijiahao.baidu.com/s?id=1667085036607407293&amp;wfr=spider&amp;for=pc</t>
+  </si>
+  <si>
+    <t>webjars官网</t>
+  </si>
+  <si>
+    <t>https://www.webjars.org/</t>
+  </si>
+  <si>
+    <t>框架发展史</t>
+  </si>
+  <si>
+    <t>MVC 》Spring 》SpringBoot
+MVC：M指数据和业务  C指交接  V指HTML</t>
+  </si>
+  <si>
+    <t>处理静态资源的方式</t>
+  </si>
+  <si>
+    <t>webjars
+public、static、/**、resources</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>resources/public &lt; resources/static &lt; resources/resources</t>
+  </si>
+  <si>
+    <t>访问jquery的path路径</t>
+  </si>
+  <si>
+    <t>http://localhost:8089/webjars/jquery/3.4.1/jquery.js</t>
+  </si>
+  <si>
+    <t>resources/public/1.js</t>
+  </si>
+  <si>
+    <t>http://localhost:8089/1.js</t>
+  </si>
+  <si>
+    <t>默认H5: resources/public/index.html</t>
+  </si>
+  <si>
+    <t>http://localhost:8089/</t>
+  </si>
+  <si>
+    <t>html浏览器图标，xml要关闭html默认图标</t>
+  </si>
+  <si>
+    <t>resources/public/favicon.ico    改掉后缀格式为ico</t>
+  </si>
+  <si>
+    <t>模板引擎-Thymeleaf官网</t>
+  </si>
+  <si>
+    <t>https://www.thymeleaf.org/</t>
+  </si>
+  <si>
+    <t>Thymeleaf在Github主页</t>
+  </si>
+  <si>
+    <t>https://github.com/thymeleaf/thymeleaf</t>
+  </si>
+  <si>
+    <t>Spring官方文档（依赖POM配置）</t>
+  </si>
+  <si>
+    <t>https://docs.spring.io/spring-boot/docs/2.1.6.RELEASE/reference/htmlsingle/#using-boot-starter</t>
+  </si>
+  <si>
+    <t>controller可以访问</t>
+  </si>
+  <si>
+    <t>resources/templates/water.html</t>
+  </si>
+  <si>
+    <t>SpringMVC官方文档</t>
+  </si>
+  <si>
+    <t>https://docs.spring.io/spring-boot/docs/2.1.6.RELEASE/reference/html/boot-features-developing-web-applications.html</t>
+  </si>
+  <si>
+    <t>SpringMVC</t>
+  </si>
+  <si>
+    <t>是配置路由视图的</t>
+  </si>
+  <si>
+    <t>跳转优先级</t>
+  </si>
+  <si>
+    <t>Controller跳转  &gt;  SpringMVC视图跳转</t>
+  </si>
+  <si>
+    <t>html要thymeleaf接管</t>
+  </si>
+  <si>
+    <t>&lt;html lang="en" xmlns:th="http://www.thymeleaf.org"&gt;</t>
+  </si>
+  <si>
+    <t>路径用@（类目录）</t>
+  </si>
+  <si>
+    <t>th:***="@{/***/}"</t>
+  </si>
+  <si>
+    <t>Spring Data官网</t>
+  </si>
+  <si>
+    <t>https://spring.io/projects/spring-data</t>
+  </si>
+  <si>
+    <t>数据库jar包</t>
+  </si>
+  <si>
+    <t>https://docs.spring.io/spring-boot/docs/2.1.7.RELEASE/reference/htmlsingle/#using-boot-starter</t>
+  </si>
+  <si>
+    <t>连接数据库操作</t>
+  </si>
+  <si>
+    <t>DataBase 》+ 》Data Source 》MySQL 》填写，不写database，Apply后在Schemas选database</t>
+  </si>
+  <si>
+    <t>mybatis中文文档</t>
+  </si>
+  <si>
+    <t>https://mybatis.org/mybatis-3/zh/index.html</t>
+  </si>
+  <si>
+    <t>SpringSecurity安全配置</t>
+  </si>
+  <si>
+    <t>设计之初的安全考虑</t>
+  </si>
+  <si>
+    <t>漏洞：隐私泄露</t>
+  </si>
+  <si>
+    <t>认证，授权</t>
+  </si>
+  <si>
+    <t>功能权限：删除功能</t>
+  </si>
+  <si>
+    <t>访问权限</t>
+  </si>
+  <si>
+    <t>菜单权限</t>
+  </si>
+  <si>
+    <t>拦截器</t>
+  </si>
+  <si>
+    <t>过滤器</t>
+  </si>
+  <si>
+    <t>security文档</t>
+  </si>
+  <si>
+    <t>https://docs.spring.io/spring-security/site/docs/5.2.0.RELEASE/reference/htmlsingle/</t>
+  </si>
+  <si>
+    <t>15. Java Configuration  选15.1</t>
+  </si>
+  <si>
+    <t>Swagger官网</t>
+  </si>
+  <si>
+    <t>https://swagger.io/</t>
+  </si>
+  <si>
+    <t>最流行Api框架，Api文档与API定义同步更新</t>
+  </si>
+  <si>
+    <t>SpringBoot和Swagger版本问题
+SpringBoot降版本</t>
+  </si>
+  <si>
+    <t>报错：Failed to start bean 'documentationPluginsBootstrapper';</t>
+  </si>
+  <si>
+    <t>2.6.3  》  2.5.7</t>
+  </si>
+  <si>
+    <t>@RequestMapping</t>
+  </si>
+  <si>
+    <t>支持请求方式：get,post,put,head，delete，options,patch</t>
+  </si>
+  <si>
+    <t>Swagger作用</t>
+  </si>
+  <si>
+    <t>增加注释信息</t>
+  </si>
+  <si>
+    <t>实时更新</t>
+  </si>
+  <si>
+    <t>可以在线测试</t>
+  </si>
+  <si>
+    <t>swagger2 注解说明</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/jiangyu1013/article/details/83107255</t>
+  </si>
+  <si>
+    <t>swagger2 设置全局参数</t>
+  </si>
+  <si>
+    <t>swagger添加全局响应状态码</t>
   </si>
 </sst>
 </file>
@@ -347,10 +793,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -369,17 +815,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF002060"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -391,7 +838,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,16 +859,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,13 +931,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -498,15 +952,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,6 +967,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -533,187 +985,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,6 +1218,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -783,15 +1240,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,6 +1263,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -828,17 +1285,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -847,149 +1293,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1005,11 +1451,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1359,80 +1817,159 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B13"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="50.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>8</v>
+      <c r="A6" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3"/>
+      <c r="B7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>10</v>
+      <c r="A8" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="9" spans="1:2">
+      <c r="A9" s="3"/>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://spring.io" tooltip="https://spring.io"/>
   </hyperlinks>
@@ -1442,13 +1979,213 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="100.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20" customHeight="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3"/>
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3"/>
+      <c r="B5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3"/>
+      <c r="B6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3"/>
+      <c r="B7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3"/>
+      <c r="B10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A10"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" display="https://docs.spring.io/spring-security/site/docs/5.2.0.RELEASE/reference/htmlsingle/"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3"/>
+      <c r="B12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A11:A13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://swagger.io/" tooltip="https://swagger.io/"/>
+    <hyperlink ref="B15" r:id="rId2" display="https://blog.csdn.net/jiangyu1013/article/details/83107255"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B9"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1457,71 +2194,179 @@
     <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="20" customHeight="1" spans="1:2">
+      <c r="A1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="10"/>
+    </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" ht="57.6" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" ht="72" spans="1:2">
-      <c r="A5" t="s">
-        <v>21</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" ht="57.6" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" ht="86.4" spans="1:2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" ht="72" spans="1:2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" ht="72" spans="1:2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" ht="86.4" spans="1:2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" ht="57.6" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" ht="72" spans="1:2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" ht="57.6" spans="1:2">
       <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
+        <v>47</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" ht="72" spans="1:2">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" ht="115.2" spans="1:2">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" ht="57.6" spans="1:2">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" ht="72" spans="1:2">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" ht="57.6" spans="1:2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" ht="72" spans="1:2">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" ht="72" spans="1:2">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" ht="57.6" spans="1:2">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" ht="144" spans="1:2">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" ht="57.6" spans="1:2">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" ht="57.6" spans="1:2">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://search.maven.org/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1531,274 +2376,343 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="60.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="30.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="4"/>
+      <c r="A1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" ht="30" customHeight="1" spans="1:2">
-      <c r="A6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>32</v>
+      <c r="A8" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
+      <c r="A9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>46</v>
+      <c r="A10" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" ht="28.8" spans="1:2">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" ht="28.8" spans="1:2">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" ht="57.6" spans="1:2">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" ht="50" customHeight="1" spans="1:2">
+      <c r="A16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>95</v>
+      </c>
+      <c r="B17" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="30" ht="30" customHeight="1" spans="1:2">
-      <c r="A30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" t="s">
-        <v>79</v>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" ht="28.8" spans="1:2">
+      <c r="A21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" ht="28.8" spans="1:2">
+      <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" ht="57.6" spans="1:2">
+      <c r="A25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" ht="150" customHeight="1" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="40" ht="30" customHeight="1" spans="1:2">
+      <c r="A40" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B32" r:id="rId1" display="https://www.bootschool.net/"/>
-    <hyperlink ref="B9" r:id="rId2" display="https://www.cnblogs.com/ooo0/p/11166314.html"/>
+    <hyperlink ref="B42" r:id="rId1" display="https://www.bootschool.net/"/>
+    <hyperlink ref="B19" r:id="rId2" display="https://www.cnblogs.com/ooo0/p/11166314.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1823,28 +2737,28 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3"/>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1859,10 +2773,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1871,47 +2785,56 @@
     <col min="2" max="2" width="60.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="20" customHeight="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
     <row r="2" ht="57.6" spans="1:2">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:2">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1934,10 +2857,10 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1947,4 +2870,252 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" ht="28.8" spans="1:2">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:2">
+      <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" display="http://localhost:8089/webjars/jquery/3.4.1/jquery.js" tooltip="http://localhost:8089/webjars/jquery/3.4.1/jquery.js"/>
+    <hyperlink ref="B7" r:id="rId2" display="http://localhost:8089/1.js" tooltip="http://localhost:8089/1.js"/>
+    <hyperlink ref="B1" r:id="rId3" display="https://www.webjars.org/" tooltip="https://www.webjars.org/"/>
+    <hyperlink ref="B8" r:id="rId4" display="http://localhost:8089/"/>
+    <hyperlink ref="B12" r:id="rId5" display="https://www.thymeleaf.org/" tooltip="https://www.thymeleaf.org/"/>
+    <hyperlink ref="B13" r:id="rId6" display="https://github.com/thymeleaf/thymeleaf"/>
+    <hyperlink ref="B14" r:id="rId7" display="https://docs.spring.io/spring-boot/docs/2.1.6.RELEASE/reference/htmlsingle/#using-boot-starter"/>
+    <hyperlink ref="B19" r:id="rId8" display="https://docs.spring.io/spring-boot/docs/2.1.6.RELEASE/reference/html/boot-features-developing-web-applications.html"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://spring.io/projects/spring-data" tooltip="https://spring.io/projects/spring-data"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://docs.spring.io/spring-boot/docs/2.1.7.RELEASE/reference/htmlsingle/#using-boot-starter" tooltip="https://docs.spring.io/spring-boot/docs/2.1.7.RELEASE/reference/htmlsingle/#using-boot-starter"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="60.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://mybatis.org/mybatis-3/zh/index.html"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/java/SpringBoot.xlsx
+++ b/java/SpringBoot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689" firstSheet="2" activeTab="10"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="mybatis" sheetId="9" r:id="rId9"/>
     <sheet name="安全配置" sheetId="10" r:id="rId10"/>
     <sheet name="Swagger" sheetId="11" r:id="rId11"/>
+    <sheet name="上线部署" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="246">
   <si>
     <t>全栈技术</t>
   </si>
@@ -38,15 +39,12 @@
     <t>微服务架构，内嵌Tomcat</t>
   </si>
   <si>
-    <t>Spring官网</t>
+    <t>Spring官网下载SpringBoot项目</t>
   </si>
   <si>
     <t>https://spring.io</t>
   </si>
   <si>
-    <t>官网下载SpringBoot项目</t>
-  </si>
-  <si>
     <t>Projects 》Spring Boot 》底部的Spring Initializr.</t>
   </si>
   <si>
@@ -92,7 +90,7 @@
     <t>pojo</t>
   </si>
   <si>
-    <t>实体类</t>
+    <t>实体类，这里文件名要与Mysql表名一致</t>
   </si>
   <si>
     <t>service</t>
@@ -120,6 +118,12 @@
   </si>
   <si>
     <t>项目右击 》Maven 》Download Sources And Documentation</t>
+  </si>
+  <si>
+    <t>连接数据库操作</t>
+  </si>
+  <si>
+    <t>看左边的JDBC</t>
   </si>
   <si>
     <t>Maven</t>
@@ -532,6 +536,15 @@
     <t>绑定properties配置文件的值</t>
   </si>
   <si>
+    <t>Spring boot 父子工程</t>
+  </si>
+  <si>
+    <t>Springboot三部曲之ResponseData&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_33863087/article/details/89540234</t>
+  </si>
+  <si>
     <t>注解</t>
   </si>
   <si>
@@ -679,6 +692,9 @@
     <t>th:***="@{/***/}"</t>
   </si>
   <si>
+    <t>JDBC操作Mysql</t>
+  </si>
+  <si>
     <t>Spring Data官网</t>
   </si>
   <si>
@@ -691,16 +707,22 @@
     <t>https://docs.spring.io/spring-boot/docs/2.1.7.RELEASE/reference/htmlsingle/#using-boot-starter</t>
   </si>
   <si>
-    <t>连接数据库操作</t>
-  </si>
-  <si>
-    <t>DataBase 》+ 》Data Source 》MySQL 》填写，不写database，Apply后在Schemas选database</t>
+    <t>DataBase 》+ 》Data Source 》MySQL 》填写用户与密码，不写database，Apply后在Schemas，点Test Connection，选database</t>
+  </si>
+  <si>
+    <t>Mybatis操作Mysql</t>
   </si>
   <si>
     <t>mybatis中文文档</t>
   </si>
   <si>
     <t>https://mybatis.org/mybatis-3/zh/index.html</t>
+  </si>
+  <si>
+    <t>pojo文件名要与Mysql表名一致</t>
+  </si>
+  <si>
+    <t>否则报错：Cause: java.sql.SQLSyntaxErrorException: Table 'db_news.***' doesn't exist</t>
   </si>
   <si>
     <t>SpringSecurity安全配置</t>
@@ -786,6 +808,51 @@
   </si>
   <si>
     <t>swagger添加全局响应状态码</t>
+  </si>
+  <si>
+    <t>JAVA项目上线发布步骤流程</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/daemonzd47/p/13736755.html</t>
+  </si>
+  <si>
+    <t>PC阿里云</t>
+  </si>
+  <si>
+    <t>https://ecs-buy.aliyun.com</t>
+  </si>
+  <si>
+    <t>淘宝账号登录</t>
+  </si>
+  <si>
+    <t>注册阿里云账号</t>
+  </si>
+  <si>
+    <t>账号</t>
+  </si>
+  <si>
+    <t>Rafael666</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>Lu123789</t>
+  </si>
+  <si>
+    <t>手机号</t>
+  </si>
+  <si>
+    <t>实名认证</t>
+  </si>
+  <si>
+    <t>支付宝认证</t>
+  </si>
+  <si>
+    <t>收费</t>
+  </si>
+  <si>
+    <t>按每月算，持续1年</t>
   </si>
 </sst>
 </file>
@@ -793,9 +860,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -831,44 +898,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -884,9 +921,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -894,6 +952,21 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -938,21 +1011,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -991,7 +1058,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,13 +1124,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,67 +1196,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,37 +1208,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,25 +1226,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,6 +1255,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1199,6 +1281,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1218,17 +1309,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1240,21 +1320,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1279,9 +1344,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1293,10 +1360,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1305,16 +1372,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1326,121 +1393,127 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1817,10 +1890,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1846,127 +1919,134 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5"/>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3"/>
-      <c r="B7" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3"/>
-      <c r="B9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
         <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
         <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
         <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
         <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
         <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
         <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
   </mergeCells>
@@ -1995,63 +2075,63 @@
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="4"/>
+      <c r="A1" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>199</v>
+      <c r="A3" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3"/>
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3"/>
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3"/>
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>205</v>
+      <c r="A9" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3"/>
+      <c r="A10" s="5"/>
       <c r="B10" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2073,8 +2153,8 @@
   <sheetPr/>
   <dimension ref="A2:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2085,84 +2165,84 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>211</v>
+      <c r="A4" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B8" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
-        <v>216</v>
+      <c r="A11" s="5" t="s">
+        <v>223</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3"/>
+      <c r="A12" s="5"/>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3"/>
+      <c r="A13" s="5"/>
       <c r="B13" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2172,7 +2252,101 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://swagger.io/" tooltip="https://swagger.io/"/>
-    <hyperlink ref="B15" r:id="rId2" display="https://blog.csdn.net/jiangyu1013/article/details/83107255"/>
+    <hyperlink ref="B15" r:id="rId2" display="https://blog.csdn.net/jiangyu1013/article/details/83107255" tooltip="https://blog.csdn.net/jiangyu1013/article/details/83107255"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="60.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="30.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" s="3">
+        <v>17817836856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://ecs-buy.aliyun.com" tooltip="https://ecs-buy.aliyun.com"/>
+    <hyperlink ref="B1" r:id="rId2" display="https://www.cnblogs.com/daemonzd47/p/13736755.html"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2184,7 +2358,7 @@
   <sheetPr/>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -2195,169 +2369,169 @@
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:2">
-      <c r="A1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="10"/>
+      <c r="A1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" ht="57.6" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>40</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" ht="72" spans="1:2">
       <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2" t="s">
         <v>42</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" ht="86.4" spans="1:2">
       <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" ht="72" spans="1:2">
       <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="2" t="s">
         <v>46</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" ht="57.6" spans="1:2">
       <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" ht="72" spans="1:2">
       <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="2" t="s">
         <v>50</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" ht="115.2" spans="1:2">
       <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="2" t="s">
         <v>52</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" ht="57.6" spans="1:2">
       <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="2" t="s">
         <v>54</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" ht="72" spans="1:2">
       <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="2" t="s">
         <v>56</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" ht="57.6" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" ht="72" spans="1:2">
       <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="2" t="s">
         <v>59</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16" ht="72" spans="1:2">
       <c r="A16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="2" t="s">
         <v>61</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="17" ht="57.6" spans="1:2">
       <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="2" t="s">
         <v>63</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="18" ht="144" spans="1:2">
       <c r="A18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="2" t="s">
         <v>65</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="19" ht="57.6" spans="1:2">
       <c r="A19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="2" t="s">
         <v>67</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="20" ht="57.6" spans="1:2">
       <c r="A20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="2" t="s">
         <v>69</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2378,7 +2552,7 @@
   <sheetPr/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -2390,317 +2564,317 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="6"/>
+      <c r="A1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
-        <v>81</v>
+      <c r="A6" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3"/>
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
-        <v>84</v>
+      <c r="A8" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>86</v>
+      <c r="A9" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
-        <v>88</v>
+      <c r="A10" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
-        <v>90</v>
+      <c r="A11" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>92</v>
+      <c r="A12" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="3"/>
+      <c r="A13" s="5"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="3"/>
+      <c r="A14" s="5"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="3"/>
+      <c r="A15" s="5"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:2">
-      <c r="A16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="6"/>
+      <c r="A16" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="8"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="5" t="s">
         <v>99</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" ht="28.8" spans="1:2">
       <c r="A21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="2" t="s">
         <v>103</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="22" ht="28.8" spans="1:2">
       <c r="A22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="2" t="s">
         <v>105</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="2" t="s">
         <v>107</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="2" t="s">
         <v>109</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="25" ht="57.6" spans="1:2">
       <c r="A25" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" s="2" t="s">
         <v>112</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="2" t="s">
         <v>114</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="B28" s="4" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="29" ht="150" customHeight="1" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="4" t="s">
         <v>118</v>
       </c>
+      <c r="B29" s="4" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="8" t="s">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11" t="s">
         <v>120</v>
       </c>
+      <c r="C30" s="10" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="11" t="s">
         <v>123</v>
       </c>
+      <c r="C31" s="10" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="B32" s="11" t="s">
         <v>126</v>
       </c>
+      <c r="C32" s="10" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="C33" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" s="8" t="s">
+      <c r="A34" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>126</v>
       </c>
+      <c r="C34" s="10" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="8" t="s">
+      <c r="A35" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>126</v>
       </c>
+      <c r="C35" s="10" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="2"/>
+      <c r="B36" s="4"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="2"/>
+      <c r="B37" s="4"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="2"/>
+      <c r="B38" s="4"/>
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:2">
-      <c r="A40" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" s="6"/>
+      <c r="A40" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="8"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2723,48 +2897,67 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B5"/>
+  <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="50.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>136</v>
+      <c r="A2" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2" t="s">
-        <v>138</v>
+      <c r="A3" s="5"/>
+      <c r="B3" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3"/>
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A5"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" display="https://blog.csdn.net/weixin_33863087/article/details/89540234"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2786,49 +2979,49 @@
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="4"/>
+      <c r="A1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" ht="57.6" spans="1:2">
       <c r="A2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:2">
       <c r="A6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2857,10 +3050,10 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2889,138 +3082,138 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:2">
       <c r="A2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B24" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B25" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3042,10 +3235,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -3054,31 +3247,40 @@
     <col min="2" max="2" width="120.777777777778" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>189</v>
+        <v>193</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://spring.io/projects/spring-data" tooltip="https://spring.io/projects/spring-data"/>
     <hyperlink ref="B3" r:id="rId2" display="https://docs.spring.io/spring-boot/docs/2.1.7.RELEASE/reference/htmlsingle/#using-boot-starter" tooltip="https://docs.spring.io/spring-boot/docs/2.1.7.RELEASE/reference/htmlsingle/#using-boot-starter"/>
@@ -3091,29 +3293,46 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="60.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://mybatis.org/mybatis-3/zh/index.html"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://mybatis.org/mybatis-3/zh/index.html" tooltip="https://mybatis.org/mybatis-3/zh/index.html"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/java/SpringBoot.xlsx
+++ b/java/SpringBoot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689" activeTab="8"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="247">
   <si>
     <t>全栈技术</t>
   </si>
@@ -48,6 +48,12 @@
     <t>Projects 》Spring Boot 》底部的Spring Initializr.</t>
   </si>
   <si>
+    <t>或 idea下载SpringBoot项目</t>
+  </si>
+  <si>
+    <t>略</t>
+  </si>
+  <si>
     <t>选择jar包</t>
   </si>
   <si>
@@ -69,43 +75,22 @@
     <t>MYSQL Driver   --- mysql驱动</t>
   </si>
   <si>
-    <t>或 idea下载SpringBoot项目</t>
-  </si>
-  <si>
-    <t>略</t>
-  </si>
-  <si>
     <t>删掉文件</t>
   </si>
   <si>
     <t>.mvn、 mvnw、 mvnw.cmd、 HELP.md</t>
   </si>
   <si>
-    <t>双击package打包,终端运行</t>
+    <t>双击package打包,终端运行---略</t>
   </si>
   <si>
     <t>java -jar ./***.jar</t>
   </si>
   <si>
-    <t>pojo</t>
-  </si>
-  <si>
-    <t>实体类，这里文件名要与Mysql表名一致</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>**AutoConfiguration</t>
-  </si>
-  <si>
-    <t>底层-自动配置组件</t>
-  </si>
-  <si>
-    <t>**Properties</t>
-  </si>
-  <si>
-    <t>底层-自动配置类，可自定义</t>
+    <t>直接的：下拉我SpringBoot项目代码</t>
+  </si>
+  <si>
+    <t>用idea打开项目，连接数据库操作，点三角形运行就ok</t>
   </si>
   <si>
     <t>idea防止文件乱码设置</t>
@@ -123,7 +108,7 @@
     <t>连接数据库操作</t>
   </si>
   <si>
-    <t>看左边的JDBC</t>
+    <t>DataBase 》+ 》Data Source 》MySQL 》填写用户与密码，不写database，Apply后在Schemas，点Test Connection，选database</t>
   </si>
   <si>
     <t>Maven</t>
@@ -545,6 +530,27 @@
     <t>https://blog.csdn.net/weixin_33863087/article/details/89540234</t>
   </si>
   <si>
+    <t>pojo</t>
+  </si>
+  <si>
+    <t>实体类，这里文件名要与Mysql表名一致</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>**AutoConfiguration</t>
+  </si>
+  <si>
+    <t>底层-自动配置组件</t>
+  </si>
+  <si>
+    <t>**Properties</t>
+  </si>
+  <si>
+    <t>底层-自动配置类，可自定义</t>
+  </si>
+  <si>
     <t>注解</t>
   </si>
   <si>
@@ -705,9 +711,6 @@
   </si>
   <si>
     <t>https://docs.spring.io/spring-boot/docs/2.1.7.RELEASE/reference/htmlsingle/#using-boot-starter</t>
-  </si>
-  <si>
-    <t>DataBase 》+ 》Data Source 》MySQL 》填写用户与密码，不写database，Apply后在Schemas，点Test Connection，选database</t>
   </si>
   <si>
     <t>Mybatis操作Mysql</t>
@@ -860,12 +863,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -898,9 +901,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -911,9 +914,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -922,13 +960,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -948,30 +979,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -987,7 +996,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -995,7 +1004,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1010,16 +1019,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1058,7 +1068,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,7 +1080,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,13 +1110,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,7 +1134,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,13 +1182,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,67 +1194,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1214,6 +1212,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1221,6 +1225,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,17 +1265,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1281,15 +1296,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1342,13 +1348,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1363,7 +1373,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1372,16 +1382,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1393,116 +1403,116 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1541,6 +1551,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1890,16 +1906,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1919,7 +1935,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1933,122 +1949,104 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="B6" s="8"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
+      <c r="A10" s="5"/>
       <c r="B10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="A17" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="14"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="B23" t="s">
         <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://spring.io" tooltip="https://spring.io"/>
@@ -2076,62 +2074,62 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5"/>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5"/>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5"/>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5"/>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2165,84 +2163,84 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5"/>
       <c r="B12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5"/>
       <c r="B13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2277,48 +2275,48 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B7" s="3">
         <v>17817836856</v>
@@ -2326,18 +2324,18 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2370,168 +2368,168 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:2">
       <c r="A1" s="12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" ht="57.6" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" ht="72" spans="1:2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" ht="86.4" spans="1:2">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" ht="72" spans="1:2">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" ht="57.6" spans="1:2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" ht="72" spans="1:2">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" ht="115.2" spans="1:2">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" ht="57.6" spans="1:2">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" ht="72" spans="1:2">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" ht="57.6" spans="1:2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" ht="72" spans="1:2">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" ht="72" spans="1:2">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="57.6" spans="1:2">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" ht="144" spans="1:2">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" ht="57.6" spans="1:2">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" ht="57.6" spans="1:2">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2565,94 +2563,94 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5"/>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -2666,176 +2664,176 @@
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:2">
       <c r="A16" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B16" s="8"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" ht="28.8" spans="1:2">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" ht="28.8" spans="1:2">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" ht="57.6" spans="1:2">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" ht="150" customHeight="1" spans="1:2">
       <c r="A29" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="10"/>
       <c r="B30" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -2849,32 +2847,32 @@
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:2">
       <c r="A40" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B40" s="8"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2897,13 +2895,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B8"/>
+  <dimension ref="A2:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
@@ -2911,44 +2909,73 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" s="5"/>
       <c r="B3" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5"/>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B17" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2980,48 +3007,48 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" ht="57.6" spans="1:2">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:2">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3050,10 +3077,10 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3082,138 +3109,138 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:2">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B20" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B25" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3238,7 +3265,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -3249,32 +3276,29 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3295,7 +3319,7 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3307,24 +3331,24 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/java/SpringBoot.xlsx
+++ b/java/SpringBoot.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
     <sheet name="pom.xml文件" sheetId="2" r:id="rId2"/>
     <sheet name="全局配置文件" sheetId="3" r:id="rId3"/>
     <sheet name="基础" sheetId="4" r:id="rId4"/>
-    <sheet name="SPEL表达式" sheetId="5" r:id="rId5"/>
+    <sheet name="注解" sheetId="5" r:id="rId5"/>
     <sheet name="JSR303数据校验" sheetId="6" r:id="rId6"/>
     <sheet name="SpringBoot Web" sheetId="7" r:id="rId7"/>
     <sheet name="JDBC" sheetId="8" r:id="rId8"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="262">
   <si>
     <t>全栈技术</t>
   </si>
@@ -505,6 +505,12 @@
     <t>banner.text</t>
   </si>
   <si>
+    <t>SpringBoot教学</t>
+  </si>
+  <si>
+    <t>https://www.lidihuo.com/springboot/springboot-intro.html</t>
+  </si>
+  <si>
     <t>给属性赋值的几种方式</t>
   </si>
   <si>
@@ -530,6 +536,12 @@
     <t>https://blog.csdn.net/weixin_33863087/article/details/89540234</t>
   </si>
   <si>
+    <t>config</t>
+  </si>
+  <si>
+    <t>配置类</t>
+  </si>
+  <si>
     <t>pojo</t>
   </si>
   <si>
@@ -539,6 +551,9 @@
     <t>service</t>
   </si>
   <si>
+    <t>声明类，类组件</t>
+  </si>
+  <si>
     <t>**AutoConfiguration</t>
   </si>
   <si>
@@ -549,6 +564,12 @@
   </si>
   <si>
     <t>底层-自动配置类，可自定义</t>
+  </si>
+  <si>
+    <t>github好项目</t>
+  </si>
+  <si>
+    <t>https://github.com/Yin-Hongwei/music-website</t>
   </si>
   <si>
     <t>注解</t>
@@ -586,6 +607,30 @@
   <si>
     <t>@Autowired
 private Dog dog;</t>
+  </si>
+  <si>
+    <t>重写方法</t>
+  </si>
+  <si>
+    <t>@Override</t>
+  </si>
+  <si>
+    <t>配置到Spring里</t>
+  </si>
+  <si>
+    <t>@Configuration</t>
+  </si>
+  <si>
+    <t>扫描文件 mybatis的mapper类</t>
+  </si>
+  <si>
+    <t>@Mapper</t>
+  </si>
+  <si>
+    <t>跨域</t>
+  </si>
+  <si>
+    <t>@CrossOrigin</t>
   </si>
   <si>
     <t>Spring Boot 使用 JSR303 实现参数验证</t>
@@ -863,10 +908,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -894,13 +939,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF002060"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -908,14 +946,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF002060"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -929,7 +975,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -937,6 +983,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -958,38 +1019,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1003,17 +1042,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1027,9 +1065,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1068,7 +1113,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,7 +1149,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,31 +1203,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1128,7 +1215,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1146,31 +1251,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,61 +1275,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1261,41 +1306,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1333,7 +1343,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1344,6 +1365,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1370,10 +1415,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1382,16 +1427,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1403,112 +1448,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1537,25 +1582,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1908,7 +1953,7 @@
   <sheetPr/>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -1935,7 +1980,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1957,10 +2002,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
@@ -2007,7 +2052,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
@@ -2015,7 +2060,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B19" t="s">
@@ -2023,7 +2068,7 @@
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="14"/>
+      <c r="A20" s="8"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
@@ -2034,7 +2079,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B23" t="s">
@@ -2074,62 +2119,62 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5"/>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5"/>
       <c r="B6" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5"/>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5"/>
       <c r="B10" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2163,10 +2208,10 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2174,62 +2219,62 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="B11" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5"/>
       <c r="B12" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5"/>
       <c r="B13" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -2237,7 +2282,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -2275,48 +2320,48 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C2" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="B7" s="3">
         <v>17817836856</v>
@@ -2324,18 +2369,18 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="B9" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B10" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2356,8 +2401,8 @@
   <sheetPr/>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2367,10 +2412,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -2550,7 +2595,7 @@
   <sheetPr/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -2562,10 +2607,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -2663,10 +2708,10 @@
       <c r="A15" s="5"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
@@ -2773,66 +2818,66 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="11" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="11" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="11" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="11" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="11" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2846,10 +2891,10 @@
       <c r="B38" s="4"/>
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:2">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B40" s="8"/>
+      <c r="B40" s="9"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
@@ -2895,10 +2940,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2907,35 +2952,43 @@
     <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" s="5"/>
       <c r="B3" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5"/>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -2943,39 +2996,58 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>146</v>
+      </c>
+      <c r="B13" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2984,6 +3056,8 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" display="https://blog.csdn.net/weixin_33863087/article/details/89540234"/>
+    <hyperlink ref="B1" r:id="rId2" display="https://www.lidihuo.com/springboot/springboot-intro.html" tooltip="https://www.lidihuo.com/springboot/springboot-intro.html"/>
+    <hyperlink ref="B20" r:id="rId3" display="https://github.com/Yin-Hongwei/music-website"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2993,13 +3067,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="60.7777777777778" customWidth="1"/>
@@ -3007,48 +3081,80 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" ht="57.6" spans="1:2">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:2">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>157</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3077,10 +3183,10 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3109,138 +3215,138 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:2">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="B24" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3276,24 +3382,24 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3331,24 +3437,24 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/java/SpringBoot.xlsx
+++ b/java/SpringBoot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="安全配置" sheetId="10" r:id="rId10"/>
     <sheet name="Swagger" sheetId="11" r:id="rId11"/>
     <sheet name="上线部署" sheetId="12" r:id="rId12"/>
+    <sheet name="Redis" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="274">
   <si>
     <t>全栈技术</t>
   </si>
@@ -554,6 +555,9 @@
     <t>声明类，类组件</t>
   </si>
   <si>
+    <t>看源码先找以下两个类</t>
+  </si>
+  <si>
     <t>**AutoConfiguration</t>
   </si>
   <si>
@@ -602,13 +606,19 @@
     <t>@ConfigurationProperties(prefix = "person")</t>
   </si>
   <si>
-    <t>写入</t>
+    <t>写入（spring里的类）</t>
   </si>
   <si>
     <t>@Autowired
 private Dog dog;</t>
   </si>
   <si>
+    <t>导入（javax.annotation.Resource里的类）</t>
+  </si>
+  <si>
+    <t>@Resource    导入service里的类</t>
+  </si>
+  <si>
     <t>重写方法</t>
   </si>
   <si>
@@ -901,6 +911,33 @@
   </si>
   <si>
     <t>按每月算，持续1年</t>
+  </si>
+  <si>
+    <t>Redis的安装</t>
+  </si>
+  <si>
+    <t>https://github.com/microsoftarchive/redis/releases</t>
+  </si>
+  <si>
+    <t>打开命令窗口</t>
+  </si>
+  <si>
+    <t>C:\Program Files\Redis 目录点开redis-cli.exe</t>
+  </si>
+  <si>
+    <t>获取所有数据</t>
+  </si>
+  <si>
+    <t>keys *</t>
+  </si>
+  <si>
+    <t>token关联</t>
+  </si>
+  <si>
+    <t>WebMvcConfigurer</t>
+  </si>
+  <si>
+    <t>HandlerInterceptor  http拦截器</t>
   </si>
 </sst>
 </file>
@@ -908,12 +945,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -946,22 +983,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF002060"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -975,14 +1025,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1003,16 +1046,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1020,6 +1064,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1035,15 +1087,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1057,11 +1110,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1072,15 +1124,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1090,6 +1141,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.35"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,19 +1176,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,13 +1272,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,109 +1284,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,7 +1308,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1343,26 +1400,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1393,6 +1430,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1407,6 +1455,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1415,10 +1472,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1427,141 +1484,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1573,9 +1633,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1585,20 +1642,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1980,7 +2046,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1988,13 +2054,13 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
@@ -2002,13 +2068,13 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
@@ -2016,13 +2082,13 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
@@ -2030,7 +2096,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -2119,62 +2185,62 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
-        <v>222</v>
+      <c r="A3" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
-        <v>228</v>
+      <c r="A9" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2208,10 +2274,10 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2219,62 +2285,62 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>234</v>
+      <c r="A4" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
-        <v>239</v>
+      <c r="A11" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="B11" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5"/>
+      <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -2282,7 +2348,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -2320,67 +2386,67 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" s="2"/>
+      <c r="A4" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B6" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>257</v>
-      </c>
-      <c r="B7" s="3">
+        <v>260</v>
+      </c>
+      <c r="B7" s="4">
         <v>17817836856</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B9" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B10" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2396,13 +2462,78 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:A9"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://github.com/microsoftarchive/redis/releases"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2412,10 +2543,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -2442,10 +2573,10 @@
       </c>
     </row>
     <row r="5" ht="57.6" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2453,15 +2584,15 @@
       <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" ht="86.4" spans="1:2">
-      <c r="A7" t="s">
+      <c r="A7" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2469,7 +2600,7 @@
       <c r="A8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2477,7 +2608,7 @@
       <c r="A9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2485,7 +2616,7 @@
       <c r="A10" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2493,7 +2624,7 @@
       <c r="A11" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2501,7 +2632,7 @@
       <c r="A12" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2509,7 +2640,7 @@
       <c r="A13" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2517,7 +2648,7 @@
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2525,7 +2656,7 @@
       <c r="A15" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2533,7 +2664,7 @@
       <c r="A16" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2541,7 +2672,7 @@
       <c r="A17" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2549,7 +2680,7 @@
       <c r="A18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2557,7 +2688,7 @@
       <c r="A19" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2565,7 +2696,7 @@
       <c r="A20" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2607,10 +2738,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -2645,7 +2776,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B6" t="s">
@@ -2653,13 +2784,13 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B8" t="s">
@@ -2667,7 +2798,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B9" t="s">
@@ -2675,7 +2806,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B10" t="s">
@@ -2683,7 +2814,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B11" t="s">
@@ -2691,7 +2822,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B12" t="s">
@@ -2699,19 +2830,19 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="5"/>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="5"/>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="5"/>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
@@ -2749,7 +2880,7 @@
       <c r="A21" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2757,7 +2888,7 @@
       <c r="A22" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2765,7 +2896,7 @@
       <c r="A23" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2773,7 +2904,7 @@
       <c r="A24" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2781,7 +2912,7 @@
       <c r="A25" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2789,7 +2920,7 @@
       <c r="A26" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2797,7 +2928,7 @@
       <c r="A27" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2805,96 +2936,96 @@
       <c r="A28" t="s">
         <v>111</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="29" ht="150" customHeight="1" spans="1:2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12" t="s">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="13" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="13" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="13" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="13" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="13" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="13" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="4"/>
+      <c r="B36" s="5"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="4"/>
+      <c r="B37" s="5"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="4"/>
+      <c r="B38" s="5"/>
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:2">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B40" s="9"/>
+      <c r="B40" s="11"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
@@ -2942,8 +3073,8 @@
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2961,7 +3092,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B2" t="s">
@@ -2969,19 +3100,19 @@
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>138</v>
       </c>
@@ -3026,32 +3157,39 @@
         <v>147</v>
       </c>
     </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="10"/>
+    </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B20" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="B20" s="7" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A2:A5"/>
   </mergeCells>
   <hyperlinks>
@@ -3067,10 +3205,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3081,80 +3219,88 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" ht="57.6" spans="1:2">
       <c r="A2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>156</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:2">
       <c r="A6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B6" s="4" t="s">
         <v>164</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" t="s">
         <v>166</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3183,10 +3329,10 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3215,138 +3361,138 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:2">
       <c r="A2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3381,25 +3527,25 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B1" s="2"/>
+      <c r="A1" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3436,25 +3582,25 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B1" s="2"/>
+      <c r="A1" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/java/SpringBoot.xlsx
+++ b/java/SpringBoot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689" firstSheet="3" activeTab="4"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="277">
   <si>
     <t>全栈技术</t>
   </si>
@@ -576,6 +576,15 @@
     <t>https://github.com/Yin-Hongwei/music-website</t>
   </si>
   <si>
+    <t>postman的使用</t>
+  </si>
+  <si>
+    <t>前端是data的：post --- Body --- raw("application/json") --- JSON</t>
+  </si>
+  <si>
+    <t>前端是params的：get --- Params</t>
+  </si>
+  <si>
     <t>注解</t>
   </si>
   <si>
@@ -945,9 +954,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1003,84 +1012,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1096,6 +1030,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1103,8 +1044,67 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1117,15 +1117,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1170,7 +1179,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,79 +1329,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,79 +1341,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,6 +1376,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1378,21 +1402,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1430,28 +1439,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1464,6 +1462,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1472,149 +1481,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1641,9 +1650,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2046,7 +2052,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -2068,10 +2074,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="10"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
@@ -2185,62 +2191,62 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2274,10 +2280,10 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2285,62 +2291,62 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B11" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -2348,7 +2354,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -2386,48 +2392,48 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B6" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B7" s="4">
         <v>17817836856</v>
@@ -2435,18 +2441,18 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B9" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B10" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2479,40 +2485,40 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B6" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B8" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2543,10 +2549,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -2589,7 +2595,7 @@
       </c>
     </row>
     <row r="7" ht="86.4" spans="1:2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -2738,10 +2744,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -2839,10 +2845,10 @@
       <c r="A15" s="2"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="10"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
@@ -2949,66 +2955,66 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3022,10 +3028,10 @@
       <c r="B38" s="5"/>
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:2">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B40" s="11"/>
+      <c r="B40" s="10"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
@@ -3071,10 +3077,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3161,7 +3167,7 @@
       <c r="A16" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
@@ -3187,10 +3193,25 @@
         <v>154</v>
       </c>
     </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2"/>
+      <c r="B24" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" display="https://blog.csdn.net/weixin_33863087/article/details/89540234"/>
@@ -3207,7 +3228,7 @@
   <sheetPr/>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3219,88 +3240,88 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" ht="57.6" spans="1:2">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:2">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3329,10 +3350,10 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3361,138 +3382,138 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:2">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B16" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B25" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3528,24 +3549,24 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3583,24 +3604,24 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/java/SpringBoot.xlsx
+++ b/java/SpringBoot.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="283">
   <si>
     <t>全栈技术</t>
   </si>
@@ -570,19 +570,37 @@
     <t>底层-自动配置类，可自定义</t>
   </si>
   <si>
-    <t>github好项目</t>
+    <t>postman的使用</t>
+  </si>
+  <si>
+    <t>前端是data的：post --- Body --- raw("application/json") --- JSON</t>
+  </si>
+  <si>
+    <t>前端是params的：get --- Params</t>
+  </si>
+  <si>
+    <t>github好项目 --- springboot vue</t>
+  </si>
+  <si>
+    <t>音乐项目</t>
   </si>
   <si>
     <t>https://github.com/Yin-Hongwei/music-website</t>
   </si>
   <si>
-    <t>postman的使用</t>
-  </si>
-  <si>
-    <t>前端是data的：post --- Body --- raw("application/json") --- JSON</t>
-  </si>
-  <si>
-    <t>前端是params的：get --- Params</t>
+    <t>https://github.com/Heeexy/SpringBoot-Shiro-Vue</t>
+  </si>
+  <si>
+    <t>后台权限管理系统</t>
+  </si>
+  <si>
+    <t>https://github.com/Haigehit/springboot-vue-shiro</t>
+  </si>
+  <si>
+    <t>电商系统</t>
+  </si>
+  <si>
+    <t>https://github.com/macrozheng/mall</t>
   </si>
   <si>
     <t>注解</t>
@@ -1014,7 +1032,90 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1030,29 +1131,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1066,81 +1152,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1156,6 +1174,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,7 +1203,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1191,7 +1245,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1203,7 +1257,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1215,97 +1323,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,31 +1341,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,36 +1396,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1440,6 +1434,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1456,15 +1465,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1473,6 +1473,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1481,149 +1505,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1657,16 +1681,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2052,7 +2079,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -2074,10 +2101,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
@@ -2191,62 +2218,62 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2280,10 +2307,10 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2291,62 +2318,62 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B8" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B11" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -2354,7 +2381,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -2392,48 +2419,48 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B6" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B7" s="4">
         <v>17817836856</v>
@@ -2441,18 +2468,18 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B9" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B10" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2485,40 +2512,40 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B8" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -2549,10 +2576,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -2595,7 +2622,7 @@
       </c>
     </row>
     <row r="7" ht="86.4" spans="1:2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -2744,10 +2771,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -2845,10 +2872,10 @@
       <c r="A15" s="2"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
@@ -2955,66 +2982,66 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13" t="s">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="13" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="13" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="13" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="13" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="13" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="13" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3028,10 +3055,10 @@
       <c r="B38" s="5"/>
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:2">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B40" s="10"/>
+      <c r="B40" s="11"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
@@ -3077,10 +3104,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3185,38 +3212,72 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B22" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" t="s">
         <v>155</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2"/>
-      <c r="B24" t="s">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>157</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" display="https://blog.csdn.net/weixin_33863087/article/details/89540234"/>
     <hyperlink ref="B1" r:id="rId2" display="https://www.lidihuo.com/springboot/springboot-intro.html" tooltip="https://www.lidihuo.com/springboot/springboot-intro.html"/>
-    <hyperlink ref="B20" r:id="rId3" display="https://github.com/Yin-Hongwei/music-website"/>
+    <hyperlink ref="B26" r:id="rId3" display="https://github.com/Yin-Hongwei/music-website" tooltip="https://github.com/Yin-Hongwei/music-website"/>
+    <hyperlink ref="B27" r:id="rId4" display="https://github.com/Heeexy/SpringBoot-Shiro-Vue"/>
+    <hyperlink ref="B29" r:id="rId5" display="https://github.com/Haigehit/springboot-vue-shiro"/>
+    <hyperlink ref="B31" r:id="rId6" display="https://github.com/macrozheng/mall"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3240,88 +3301,88 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" ht="57.6" spans="1:2">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:2">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3350,10 +3411,10 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3382,138 +3443,138 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:2">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B16" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B25" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3549,24 +3610,24 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3593,7 +3654,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -3604,24 +3665,24 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/java/SpringBoot.xlsx
+++ b/java/SpringBoot.xlsx
@@ -4,29 +4,29 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
-    <sheet name="pom.xml文件" sheetId="2" r:id="rId2"/>
-    <sheet name="全局配置文件" sheetId="3" r:id="rId3"/>
-    <sheet name="基础" sheetId="4" r:id="rId4"/>
-    <sheet name="注解" sheetId="5" r:id="rId5"/>
-    <sheet name="JSR303数据校验" sheetId="6" r:id="rId6"/>
-    <sheet name="SpringBoot Web" sheetId="7" r:id="rId7"/>
-    <sheet name="JDBC" sheetId="8" r:id="rId8"/>
-    <sheet name="mybatis" sheetId="9" r:id="rId9"/>
-    <sheet name="安全配置" sheetId="10" r:id="rId10"/>
-    <sheet name="Swagger" sheetId="11" r:id="rId11"/>
-    <sheet name="上线部署" sheetId="12" r:id="rId12"/>
-    <sheet name="Redis" sheetId="13" r:id="rId13"/>
+    <sheet name="全局配置文件" sheetId="3" r:id="rId2"/>
+    <sheet name="基础" sheetId="4" r:id="rId3"/>
+    <sheet name="注解" sheetId="5" r:id="rId4"/>
+    <sheet name="JSR303数据校验" sheetId="6" r:id="rId5"/>
+    <sheet name="SpringBoot Web" sheetId="7" r:id="rId6"/>
+    <sheet name="JDBC" sheetId="8" r:id="rId7"/>
+    <sheet name="mybatis" sheetId="9" r:id="rId8"/>
+    <sheet name="安全配置" sheetId="10" r:id="rId9"/>
+    <sheet name="Swagger" sheetId="11" r:id="rId10"/>
+    <sheet name="上线部署" sheetId="12" r:id="rId11"/>
+    <sheet name="Redis" sheetId="13" r:id="rId12"/>
+    <sheet name="错误日志" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="280">
   <si>
     <t>全栈技术</t>
   </si>
@@ -37,43 +37,74 @@
     <t>SpringBoot</t>
   </si>
   <si>
-    <t>微服务架构，内嵌Tomcat</t>
-  </si>
-  <si>
-    <t>Spring官网下载SpringBoot项目</t>
+    <t>微服务架构，内嵌Tomcat运行项目</t>
+  </si>
+  <si>
+    <t>下载Spring Initializr项目方式一：</t>
+  </si>
+  <si>
+    <t>Spring官网</t>
   </si>
   <si>
     <t>https://spring.io</t>
   </si>
   <si>
+    <t>Spring官网下载Spring Initializr项目</t>
+  </si>
+  <si>
     <t>Projects 》Spring Boot 》底部的Spring Initializr.</t>
   </si>
   <si>
-    <t>或 idea下载SpringBoot项目</t>
-  </si>
-  <si>
-    <t>略</t>
+    <t>Java Version选8</t>
+  </si>
+  <si>
+    <t>不然idea运行报错------java: 错误: 不支持发行版本 17</t>
   </si>
   <si>
     <t>选择jar包</t>
   </si>
   <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <t>Spring Web</t>
-  </si>
-  <si>
-    <t>Thymeleaf</t>
-  </si>
-  <si>
-    <t>SQL</t>
-  </si>
-  <si>
-    <t>JDBC API</t>
-  </si>
-  <si>
-    <t>MYSQL Driver   --- mysql驱动</t>
+    <t>Web 》Spring Web       --- starter-web必备基础jar包</t>
+  </si>
+  <si>
+    <t>Template 》Thymeleaf        --- web前端模板引擎</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SQL 》JDBC API         --- 连接数据库，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要连接再安装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+安装了运行报错，是因为没有datasource连接数据库
+Failed to configure a DataSource: 'url' attribute is not specified and no embedded datasource could be configured.</t>
+    </r>
+  </si>
+  <si>
+    <t>SQL 》MYSQL Driver     --- mysql驱动</t>
   </si>
   <si>
     <t>删掉文件</t>
@@ -82,224 +113,151 @@
     <t>.mvn、 mvnw、 mvnw.cmd、 HELP.md</t>
   </si>
   <si>
-    <t>双击package打包,终端运行---略</t>
-  </si>
-  <si>
-    <t>java -jar ./***.jar</t>
-  </si>
-  <si>
-    <t>直接的：下拉我SpringBoot项目代码</t>
-  </si>
-  <si>
-    <t>用idea打开项目，连接数据库操作，点三角形运行就ok</t>
-  </si>
-  <si>
-    <t>idea防止文件乱码设置</t>
-  </si>
-  <si>
-    <t>File 》Settings 》Editor 》File Encodings 》Properties Files选UTF-8和打勾</t>
+    <t>下载Spring Initializr项目方式二：</t>
+  </si>
+  <si>
+    <t>idea新建Spring Initializr项目</t>
+  </si>
+  <si>
+    <t>File 》New 》Project 》Spring Initializr</t>
+  </si>
+  <si>
+    <t>idea操作</t>
+  </si>
+  <si>
+    <t>idea防止properties文件乱码设置</t>
+  </si>
+  <si>
+    <r>
+      <t>File 》Settings 》Editor 》File Encodings 》Properties Files选UTF-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和打勾</t>
+    </r>
   </si>
   <si>
     <t>下载jar包</t>
   </si>
   <si>
-    <t>项目右击 》Maven 》Download Sources And Documentation</t>
-  </si>
-  <si>
     <t>连接数据库操作</t>
   </si>
   <si>
-    <t>DataBase 》+ 》Data Source 》MySQL 》填写用户与密码，不写database，Apply后在Schemas，点Test Connection，选database</t>
-  </si>
-  <si>
-    <t>Maven</t>
-  </si>
-  <si>
-    <t>Maven官网</t>
-  </si>
-  <si>
-    <t>https://search.maven.org/</t>
-  </si>
-  <si>
-    <t>&lt;parent&gt;</t>
-  </si>
-  <si>
-    <t>父项目</t>
-  </si>
-  <si>
-    <t>&lt;dependencies&gt;</t>
-  </si>
-  <si>
-    <t>依赖</t>
-  </si>
-  <si>
-    <t>web依赖：
-tomcat，dispatcherServlet,xml...</t>
-  </si>
-  <si>
-    <t>&lt;dependency&gt;
-   &lt;groupId&gt;org.springframework.boot&lt;/groupId&gt;
-   &lt;artifactId&gt;spring-boot-starter-web&lt;/artifactId&gt;
-&lt;/dependency&gt;</t>
-  </si>
-  <si>
-    <t>单元测试：</t>
-  </si>
-  <si>
-    <t>&lt;dependency&gt;
-   &lt;groupId&gt;org.springframework.boot&lt;/groupId&gt;
-   &lt;artifactId&gt;spring-boot-starter-test&lt;/artifactId&gt;
-   &lt;scope&gt;test&lt;/scope&gt;
-&lt;/dependency&gt;</t>
-  </si>
-  <si>
-    <t>热更新</t>
-  </si>
-  <si>
-    <t>&lt;dependency&gt;
-   &lt;groupId&gt;org.springframework.boot&lt;/groupId&gt;
-   &lt;artifactId&gt;spring-boot-devtools&lt;/artifactId&gt;
-   &lt;optional&gt;true&lt;/optional&gt;
-   &lt;scope&gt;true&lt;/scope&gt;
-&lt;/dependency&gt;</t>
-  </si>
-  <si>
-    <t>生产提示</t>
-  </si>
-  <si>
-    <t>&lt;dependency&gt;
-   &lt;groupId&gt;org.springframework.boot&lt;/groupId&gt;
-   &lt;artifactId&gt;spring-boot-configuration-processor&lt;/artifactId&gt;
-   &lt;optional&gt;true&lt;/optional&gt;
-&lt;/dependency&gt;</t>
-  </si>
-  <si>
-    <t>JSR303数据校验</t>
-  </si>
-  <si>
-    <t>&lt;dependency&gt;
-   &lt;groupId&gt;org.springframework.boot&lt;/groupId&gt;
-   &lt;artifactId&gt;spring-boot-starter-validation&lt;/artifactId&gt;
-&lt;/dependency&gt;</t>
-  </si>
-  <si>
-    <t>jquery</t>
-  </si>
-  <si>
-    <t>&lt;dependency&gt;
-   &lt;groupId&gt;org.webjars&lt;/groupId&gt;
-   &lt;artifactId&gt;jquery&lt;/artifactId&gt;
-   &lt;version&gt;3.4.1&lt;/version&gt;
-  &lt;/dependency&gt;</t>
-  </si>
-  <si>
-    <t>web模板引擎</t>
-  </si>
-  <si>
-    <t>&lt;dependency&gt;
-   &lt;groupId&gt;org.thymeleaf&lt;/groupId&gt;
-   &lt;artifactId&gt;thymeleaf-spring5&lt;/artifactId&gt;
-  &lt;/dependency&gt;
-  &lt;dependency&gt;
-   &lt;groupId&gt;org.thymeleaf.extras&lt;/groupId&gt;
-   &lt;artifactId&gt;thymeleaf-extras-java8time&lt;/artifactId&gt;
-&lt;/dependency&gt;</t>
-  </si>
-  <si>
-    <t>lombok</t>
-  </si>
-  <si>
-    <t>&lt;dependency&gt;
-   &lt;groupId&gt;org.projectlombok&lt;/groupId&gt;
-   &lt;artifactId&gt;lombok&lt;/artifactId&gt;
-&lt;/dependency&gt;</t>
-  </si>
-  <si>
-    <t>MYSQL Driver</t>
-  </si>
-  <si>
-    <t>&lt;dependency&gt;
-   &lt;groupId&gt;mysql&lt;/groupId&gt;
-   &lt;artifactId&gt;mysql-connector-java&lt;/artifactId&gt;
-   &lt;scope&gt;runtime&lt;/scope&gt;
-&lt;/dependency&gt;</t>
-  </si>
-  <si>
-    <t>&lt;dependency&gt;
-   &lt;groupId&gt;org.springframework.boot&lt;/groupId&gt;
-   &lt;artifactId&gt;spring-boot-starter-jdbc&lt;/artifactId&gt;
-&lt;/dependency&gt;</t>
-  </si>
-  <si>
-    <t>Druid数据源</t>
-  </si>
-  <si>
-    <t>&lt;dependency&gt;
-   &lt;groupId&gt;com.alibaba&lt;/groupId&gt;
-   &lt;artifactId&gt;druid-spring-boot-starter&lt;/artifactId&gt;
-   &lt;version&gt;1.1.17&lt;/version&gt;
-&lt;/dependency&gt;</t>
-  </si>
-  <si>
-    <t>mybatis</t>
-  </si>
-  <si>
-    <t>&lt;dependency&gt;
-   &lt;groupId&gt;org.mybatis.spring.boot&lt;/groupId&gt;
-   &lt;artifactId&gt;mybatis-spring-boot-starter&lt;/artifactId&gt;
-   &lt;version&gt;2.2.2&lt;/version&gt;
-&lt;/dependency&gt;</t>
-  </si>
-  <si>
-    <t>security安全</t>
-  </si>
-  <si>
-    <t>&lt;dependency&gt;
-   &lt;groupId&gt;org.springframework.boot&lt;/groupId&gt;
-   &lt;artifactId&gt;spring-boot-starter-security&lt;/artifactId&gt;
-&lt;/dependency&gt;</t>
-  </si>
-  <si>
-    <t>Swagger</t>
-  </si>
-  <si>
-    <t>&lt;dependency&gt;
-   &lt;groupId&gt;io.springfox&lt;/groupId&gt;
-   &lt;artifactId&gt;springfox-swagger2&lt;/artifactId&gt;
-   &lt;version&gt;2.9.2&lt;/version&gt;
-  &lt;/dependency&gt;
-  &lt;dependency&gt;
-   &lt;groupId&gt;io.springfox&lt;/groupId&gt;
-   &lt;artifactId&gt;springfox-swagger-ui&lt;/artifactId&gt;
-   &lt;version&gt;2.9.2&lt;/version&gt;
-&lt;/dependency&gt;</t>
-  </si>
-  <si>
-    <t>邮件任务</t>
-  </si>
-  <si>
-    <t>&lt;dependency&gt;
-   &lt;groupId&gt;org.springframework.boot&lt;/groupId&gt;
-   &lt;artifactId&gt;spring-boot-starter-mail&lt;/artifactId&gt;
-&lt;/dependency&gt;</t>
-  </si>
-  <si>
-    <t>NoSQL---Redis</t>
-  </si>
-  <si>
-    <t>&lt;dependency&gt;
-   &lt;groupId&gt;org.springframework.boot&lt;/groupId&gt;
-   &lt;artifactId&gt;spring-boot-starter-data-redis&lt;/artifactId&gt;
-&lt;/dependency&gt;</t>
-  </si>
-  <si>
-    <t>&lt;build&gt;</t>
-  </si>
-  <si>
-    <t>jar打包插件</t>
-  </si>
-  <si>
-    <t>src\main\resources\application.properties默认配置文件</t>
+    <t>热部署，idea勾选自动部署</t>
+  </si>
+  <si>
+    <t>File 》Settings</t>
+  </si>
+  <si>
+    <t>ctrl+shift+alt+/ 选择registy，将compiler.automake.allow.when.app.running勾选。</t>
+  </si>
+  <si>
+    <t>SpringBoot子父项目</t>
+  </si>
+  <si>
+    <t>新建父Spring Initializr项目</t>
+  </si>
+  <si>
+    <t>删掉src文件</t>
+  </si>
+  <si>
+    <t>新建子Spring Initializr项目</t>
+  </si>
+  <si>
+    <t>父项目右键 》New 》Module</t>
+  </si>
+  <si>
+    <t>继承</t>
+  </si>
+  <si>
+    <t>父pom.xml复制到子pom.xml
+关系：spring-boot-starter-parent 《 父 《 子</t>
+  </si>
+  <si>
+    <t>打包项目</t>
+  </si>
+  <si>
+    <t>打包</t>
+  </si>
+  <si>
+    <t>idea右边Maven 》 Lifecycle 》双击package</t>
+  </si>
+  <si>
+    <t>idea打开target文件夹目录</t>
+  </si>
+  <si>
+    <t>target右击 》Show in Explorer</t>
+  </si>
+  <si>
+    <t>target文件夹打开cmd</t>
+  </si>
+  <si>
+    <t>文件夹路径上输入cmd，Enter</t>
+  </si>
+  <si>
+    <t>cmd运行包</t>
+  </si>
+  <si>
+    <t>java -jar ./demo-0.0.1-SNAPSHOT.jar</t>
+  </si>
+  <si>
+    <t>cmd参数，带到main方法里，优先级最高，不会互补</t>
+  </si>
+  <si>
+    <t>java -jar ./demo-0.0.1-SNAPSHOT.jar --server.port=8087</t>
+  </si>
+  <si>
+    <t>java -jar ./demo-0.0.1-SNAPSHOT.jar --spring.config.location=D:/application.properties</t>
+  </si>
+  <si>
+    <t>操作系统环境变量,可以cmd运行包省带参数：</t>
+  </si>
+  <si>
+    <t>方式一：cmd</t>
+  </si>
+  <si>
+    <t>set spring.config.location=D:/application.properties</t>
+  </si>
+  <si>
+    <t>方式二：idea添加环境变量:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>src\main\resources\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>application.properties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>默认配置文件</t>
+    </r>
   </si>
   <si>
     <t>语法结构</t>
@@ -365,9 +323,38 @@
     <t>spring.mvc.format.date=yyyy-MM-dd</t>
   </si>
   <si>
-    <t>src\main\resources\application.yaml 路径：类目录下classpath:
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>src\main\resources\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>application.yaml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 路径：类目录下classpath:
 或 SpringBoot\application.yaml 路径：file:./
 或 SpringBoot\config\application.yaml 路径：file:./config</t>
+    </r>
   </si>
   <si>
     <t>替换文件</t>
@@ -482,6 +469,9 @@
     <t>SPEL</t>
   </si>
   <si>
+    <t>JSR303数据校验</t>
+  </si>
+  <si>
     <t>复杂类型封装</t>
   </si>
   <si>
@@ -531,6 +521,9 @@
     <t>Spring boot 父子工程</t>
   </si>
   <si>
+    <t>略</t>
+  </si>
+  <si>
     <t>Springboot三部曲之ResponseData&lt;T&gt;</t>
   </si>
   <si>
@@ -601,6 +594,18 @@
   </si>
   <si>
     <t>https://github.com/macrozheng/mall</t>
+  </si>
+  <si>
+    <t>jar包下载</t>
+  </si>
+  <si>
+    <t>maven中心仓库</t>
+  </si>
+  <si>
+    <t>https://mvnrepository.com/</t>
+  </si>
+  <si>
+    <t>官网下载</t>
   </si>
   <si>
     <t>注解</t>
@@ -670,6 +675,12 @@
     <t>@CrossOrigin</t>
   </si>
   <si>
+    <t>环境优先级</t>
+  </si>
+  <si>
+    <t>@Profile("dev")</t>
+  </si>
+  <si>
     <t>Spring Boot 使用 JSR303 实现参数验证</t>
   </si>
   <si>
@@ -852,6 +863,9 @@
     <t>https://swagger.io/</t>
   </si>
   <si>
+    <t>Swagger</t>
+  </si>
+  <si>
     <t>最流行Api框架，Api文档与API定义同步更新</t>
   </si>
   <si>
@@ -965,6 +979,18 @@
   </si>
   <si>
     <t>HandlerInterceptor  http拦截器</t>
+  </si>
+  <si>
+    <t>搜projectlombok</t>
+  </si>
+  <si>
+    <t>https://projectlombok.org/</t>
+  </si>
+  <si>
+    <t>lombok</t>
+  </si>
+  <si>
+    <t>https://mvnrepository.com/artifact/org.projectlombok/lombok</t>
   </si>
 </sst>
 </file>
@@ -972,12 +998,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1023,24 +1049,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1054,7 +1072,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1070,29 +1149,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1106,53 +1170,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1197,7 +1216,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1209,13 +1312,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,7 +1330,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1245,49 +1366,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,7 +1378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1311,67 +1390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1400,11 +1419,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1433,32 +1488,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1473,30 +1516,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1505,10 +1524,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1517,16 +1536,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1538,116 +1557,116 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1681,10 +1700,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1693,10 +1715,10 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1761,6 +1783,467 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1397000</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="canshu"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30480" y="15956280"/>
+          <a:ext cx="4848860" cy="795020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123190</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3171190</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="var01"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123190" y="17465040"/>
+          <a:ext cx="3048000" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3444240</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4495165</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="var02"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3444240" y="17442180"/>
+          <a:ext cx="4533265" cy="1424940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4687570</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>107315</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6" descr="var03"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8169910" y="17457420"/>
+          <a:ext cx="3633470" cy="1120775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3101340</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1944370</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5" descr="devtools"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3101340" y="10576560"/>
+          <a:ext cx="2325370" cy="1588770"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2863215</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10" descr="bushu"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="220980" y="10767060"/>
+          <a:ext cx="2642235" cy="663575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2430780</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2651760</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12" descr="link02"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2430780" y="8343900"/>
+          <a:ext cx="3703320" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1870075</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14" descr="link01"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="53340" y="8343900"/>
+          <a:ext cx="1816735" cy="1579880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3139440</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6297295</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>130810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15" descr="link03"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6621780" y="8336280"/>
+          <a:ext cx="3157855" cy="1670050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2912110</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16" descr="code"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="144780" y="4320540"/>
+          <a:ext cx="2767330" cy="1557020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2572385</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17" descr="maven"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="6256020"/>
+          <a:ext cx="1734185" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2724150</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18" descr="zifu"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="13235940"/>
+          <a:ext cx="6092190" cy="1280160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2050,15 +2533,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="50.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="120.777777777778" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2078,59 +2561,59 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="17" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B4" s="12"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="11" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="11"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" ht="43.2" spans="1:2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2"/>
-      <c r="B10" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2142,155 +2625,259 @@
         <v>17</v>
       </c>
     </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="12"/>
+    </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="8"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="17"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="8"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="8" t="s">
+      <c r="B19" s="11"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="8"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="8"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="8"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="8"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="8"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="8"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="8"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="8"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="8"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="8"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="8"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="8" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="8"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="18"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="18"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="18"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="18"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="18"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="18"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="18"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="18"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="18"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B54" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="18"/>
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" s="11"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" ht="28.8" spans="1:2">
+      <c r="A69" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B78" s="12"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2"/>
+      <c r="B84" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A83:A84"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://spring.io" tooltip="https://spring.io"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://spring.io"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="100.777777777778" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2"/>
-      <c r="B6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2"/>
-      <c r="B7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2"/>
-      <c r="B10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A10"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" display="https://docs.spring.io/spring-security/site/docs/5.2.0.RELEASE/reference/htmlsingle/"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:B17"/>
@@ -2307,84 +2894,84 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B11" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2401,7 +2988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C10"/>
@@ -2419,48 +3006,48 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B7" s="4">
         <v>17817836856</v>
@@ -2468,18 +3055,18 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B9" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B10" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2495,7 +3082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:B9"/>
@@ -2512,40 +3099,40 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B4" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B8" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2560,207 +3147,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="35.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:2">
-      <c r="A1" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="15"/>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>278</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" ht="57.6" spans="1:2">
-      <c r="A5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" ht="72" spans="1:2">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" ht="86.4" spans="1:2">
-      <c r="A7" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" ht="72" spans="1:2">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" ht="57.6" spans="1:2">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" ht="72" spans="1:2">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" ht="115.2" spans="1:2">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" ht="57.6" spans="1:2">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" ht="72" spans="1:2">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" ht="57.6" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" ht="72" spans="1:2">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" ht="72" spans="1:2">
-      <c r="A16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" ht="57.6" spans="1:2">
-      <c r="A17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" ht="144" spans="1:2">
-      <c r="A18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" ht="57.6" spans="1:2">
-      <c r="A19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" ht="57.6" spans="1:2">
-      <c r="A20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" t="s">
-        <v>67</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://search.maven.org/"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://mvnrepository.com/artifact/org.projectlombok/lombok"/>
+    <hyperlink ref="B1" r:id="rId2" display="https://projectlombok.org/"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2772,94 +3206,94 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -2872,177 +3306,177 @@
       <c r="A15" s="2"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:2">
-      <c r="A16" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="11"/>
+      <c r="A16" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="12"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" ht="28.8" spans="1:2">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" ht="28.8" spans="1:2">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" ht="57.6" spans="1:2">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" ht="150" customHeight="1" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>116</v>
+      <c r="A30" s="14"/>
+      <c r="B30" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>119</v>
+      <c r="A31" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>122</v>
+      <c r="A32" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>121</v>
+      <c r="A33" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>122</v>
+      <c r="A34" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>122</v>
+      <c r="A35" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -3055,33 +3489,33 @@
       <c r="B38" s="5"/>
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:2">
-      <c r="A40" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B40" s="11"/>
+      <c r="A40" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="12"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3101,13 +3535,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3118,98 +3552,98 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="9" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B16" s="9"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="2:2">
@@ -3217,57 +3651,77 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="10" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>163</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A22:A23"/>
   </mergeCells>
@@ -3278,19 +3732,20 @@
     <hyperlink ref="B27" r:id="rId4" display="https://github.com/Heeexy/SpringBoot-Shiro-Vue"/>
     <hyperlink ref="B29" r:id="rId5" display="https://github.com/Haigehit/springboot-vue-shiro"/>
     <hyperlink ref="B31" r:id="rId6" display="https://github.com/macrozheng/mall"/>
+    <hyperlink ref="B35" r:id="rId7" display="https://mvnrepository.com/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3301,88 +3756,96 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" ht="57.6" spans="1:2">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:2">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3394,7 +3857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:B2"/>
@@ -3411,10 +3874,10 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3426,12 +3889,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -3443,138 +3906,138 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:2">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B16" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B25" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3593,7 +4056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B5"/>
@@ -3610,29 +4073,29 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3648,7 +4111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B4"/>
@@ -3665,24 +4128,24 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3695,4 +4158,93 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="100.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20" customHeight="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2"/>
+      <c r="B4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A10"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" display="https://docs.spring.io/spring-security/site/docs/5.2.0.RELEASE/reference/htmlsingle/"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/java/SpringBoot.xlsx
+++ b/java/SpringBoot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689"/>
+    <workbookView windowWidth="22368" windowHeight="8820" tabRatio="689" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="285">
   <si>
     <t>全栈技术</t>
   </si>
@@ -129,6 +129,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>File 》Settings 》Editor 》File Encodings 》Properties Files选UTF-8</t>
     </r>
     <r>
@@ -563,7 +570,7 @@
     <t>底层-自动配置类，可自定义</t>
   </si>
   <si>
-    <t>postman的使用</t>
+    <t>postman外国版-英文</t>
   </si>
   <si>
     <t>前端是data的：post --- Body --- raw("application/json") --- JSON</t>
@@ -572,6 +579,12 @@
     <t>前端是params的：get --- Params</t>
   </si>
   <si>
+    <t>apipost中国版-中文</t>
+  </si>
+  <si>
+    <t>https://www.apipost.cn/</t>
+  </si>
+  <si>
     <t>github好项目 --- springboot vue</t>
   </si>
   <si>
@@ -594,6 +607,15 @@
   </si>
   <si>
     <t>https://github.com/macrozheng/mall</t>
+  </si>
+  <si>
+    <t>图灵商城</t>
+  </si>
+  <si>
+    <t>https://github.com/jiadabin/tuling-single-mall</t>
+  </si>
+  <si>
+    <t>https://github.com/AitKen-maoer/tuling_mall_web_admin</t>
   </si>
   <si>
     <t>jar包下载</t>
@@ -1049,16 +1071,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1078,16 +1107,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1115,6 +1144,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1132,33 +1169,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1170,8 +1184,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1216,7 +1238,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1228,73 +1316,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,25 +1334,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,7 +1352,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,43 +1412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1434,16 +1456,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1473,35 +1495,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1516,6 +1514,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1524,10 +1546,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1536,133 +1558,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2535,7 +2557,7 @@
   <sheetPr/>
   <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
@@ -2894,73 +2916,73 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B8" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B11" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B16" t="s">
         <v>125</v>
@@ -2968,7 +2990,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B17" t="s">
         <v>125</v>
@@ -3006,48 +3028,48 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B6" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B7" s="4">
         <v>17817836856</v>
@@ -3055,18 +3077,18 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B9" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B10" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -3099,40 +3121,40 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B8" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3164,18 +3186,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -3538,10 +3560,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3663,76 +3685,109 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="10" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>142</v>
       </c>
-      <c r="B25" s="10"/>
+      <c r="B24" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>143</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="A26" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="27" spans="2:2">
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>145</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
         <v>146</v>
       </c>
-      <c r="B29" s="1" t="s">
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
         <v>148</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>149</v>
       </c>
     </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="1"/>
+    </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B34" s="3"/>
+      <c r="A34" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>151</v>
-      </c>
+      <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A37:B37"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A34:A35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" display="https://blog.csdn.net/weixin_33863087/article/details/89540234"/>
     <hyperlink ref="B1" r:id="rId2" display="https://www.lidihuo.com/springboot/springboot-intro.html" tooltip="https://www.lidihuo.com/springboot/springboot-intro.html"/>
-    <hyperlink ref="B26" r:id="rId3" display="https://github.com/Yin-Hongwei/music-website" tooltip="https://github.com/Yin-Hongwei/music-website"/>
-    <hyperlink ref="B27" r:id="rId4" display="https://github.com/Heeexy/SpringBoot-Shiro-Vue"/>
-    <hyperlink ref="B29" r:id="rId5" display="https://github.com/Haigehit/springboot-vue-shiro"/>
-    <hyperlink ref="B31" r:id="rId6" display="https://github.com/macrozheng/mall"/>
-    <hyperlink ref="B35" r:id="rId7" display="https://mvnrepository.com/"/>
+    <hyperlink ref="B27" r:id="rId3" display="https://github.com/Yin-Hongwei/music-website" tooltip="https://github.com/Yin-Hongwei/music-website"/>
+    <hyperlink ref="B28" r:id="rId4" display="https://github.com/Heeexy/SpringBoot-Shiro-Vue"/>
+    <hyperlink ref="B30" r:id="rId5" display="https://github.com/Haigehit/springboot-vue-shiro"/>
+    <hyperlink ref="B32" r:id="rId6" display="https://github.com/macrozheng/mall"/>
+    <hyperlink ref="B38" r:id="rId7" display="https://mvnrepository.com/"/>
+    <hyperlink ref="B24" r:id="rId8" display="https://www.apipost.cn/"/>
+    <hyperlink ref="B34" r:id="rId9" display="https://github.com/jiadabin/tuling-single-mall"/>
+    <hyperlink ref="B35" r:id="rId10" display="https://github.com/AitKen-maoer/tuling_mall_web_admin"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3756,96 +3811,96 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" ht="57.6" spans="1:2">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:2">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3874,10 +3929,10 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3906,138 +3961,138 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:2">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B24" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -4073,24 +4128,24 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4128,24 +4183,24 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4177,62 +4232,62 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/java/SpringBoot.xlsx
+++ b/java/SpringBoot.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="287">
   <si>
     <t>全栈技术</t>
   </si>
@@ -573,7 +573,11 @@
     <t>postman外国版-英文</t>
   </si>
   <si>
-    <t>前端是data的：post --- Body --- raw("application/json") --- JSON</t>
+    <t>前端是data的：post --- Body --- 选raw --- 选JSON
+{
+    "username": "erha",
+    "password": "123456"
+}</t>
   </si>
   <si>
     <t>前端是params的：get --- Params</t>
@@ -606,7 +610,21 @@
     <t>电商系统</t>
   </si>
   <si>
-    <t>https://github.com/macrozheng/mall</t>
+    <r>
+      <t xml:space="preserve">https://github.com/macrozheng/mall
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>账号：admin
+密码：macro123</t>
+    </r>
   </si>
   <si>
     <t>图灵商城</t>
@@ -841,6 +859,12 @@
   </si>
   <si>
     <t>否则报错：Cause: java.sql.SQLSyntaxErrorException: Table 'db_news.***' doesn't exist</t>
+  </si>
+  <si>
+    <t>动态 SQL</t>
+  </si>
+  <si>
+    <t>https://mybatis.org/mybatis-3/zh/dynamic-sql.html</t>
   </si>
   <si>
     <t>SpringSecurity安全配置</t>
@@ -1022,10 +1046,10 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1079,43 +1103,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1124,6 +1111,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1178,7 +1172,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1194,6 +1196,35 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1238,19 +1269,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,97 +1311,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1364,13 +1323,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1388,6 +1341,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1400,13 +1419,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1457,21 +1488,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1504,13 +1520,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1538,6 +1558,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1546,10 +1577,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1558,112 +1589,118 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1672,23 +1709,17 @@
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1721,6 +1752,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2584,10 +2618,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="13"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
@@ -2629,7 +2663,7 @@
     </row>
     <row r="10" ht="43.2" spans="1:2">
       <c r="A10" s="2"/>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2648,10 +2682,10 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="13"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
@@ -2673,22 +2707,22 @@
       <c r="A16" s="8"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="17"/>
+      <c r="A17" s="18"/>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="8"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="12"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2736,34 +2770,34 @@
       <c r="A44" s="8"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="18"/>
+      <c r="A45" s="19"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="18"/>
+      <c r="A46" s="19"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="18"/>
+      <c r="A47" s="19"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="18"/>
+      <c r="A48" s="19"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="18"/>
+      <c r="A49" s="19"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="18"/>
+      <c r="A50" s="19"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="18"/>
+      <c r="A51" s="19"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="18"/>
+      <c r="A52" s="19"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="18"/>
+      <c r="A53" s="19"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B54" t="s">
@@ -2771,16 +2805,16 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="18"/>
+      <c r="A55" s="19"/>
       <c r="B55" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B66" s="11"/>
+      <c r="B66" s="12"/>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
@@ -2807,10 +2841,10 @@
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B78" s="12"/>
+      <c r="B78" s="13"/>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
@@ -2916,73 +2950,73 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B16" t="s">
         <v>125</v>
@@ -2990,7 +3024,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B17" t="s">
         <v>125</v>
@@ -3028,48 +3062,48 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B6" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B7" s="4">
         <v>17817836856</v>
@@ -3077,18 +3111,18 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -3121,40 +3155,40 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B8" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -3186,18 +3220,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -3227,10 +3261,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -3328,10 +3362,10 @@
       <c r="A15" s="2"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="13"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
@@ -3438,66 +3472,66 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="15" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="15" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="15" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="15" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="15" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3511,10 +3545,10 @@
       <c r="B38" s="5"/>
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:2">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B40" s="12"/>
+      <c r="B40" s="13"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
@@ -3562,8 +3596,8 @@
   <sheetPr/>
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3671,11 +3705,11 @@
     <row r="19" spans="2:2">
       <c r="B19" s="7"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" ht="72" spans="1:2">
       <c r="A22" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3720,11 +3754,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" ht="43.2" spans="1:2">
       <c r="A32" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="11" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3783,7 +3817,7 @@
     <hyperlink ref="B27" r:id="rId3" display="https://github.com/Yin-Hongwei/music-website" tooltip="https://github.com/Yin-Hongwei/music-website"/>
     <hyperlink ref="B28" r:id="rId4" display="https://github.com/Heeexy/SpringBoot-Shiro-Vue"/>
     <hyperlink ref="B30" r:id="rId5" display="https://github.com/Haigehit/springboot-vue-shiro"/>
-    <hyperlink ref="B32" r:id="rId6" display="https://github.com/macrozheng/mall"/>
+    <hyperlink ref="B32" r:id="rId6" display="https://github.com/macrozheng/mall&#10;账号：admin&#10;密码：macro123"/>
     <hyperlink ref="B38" r:id="rId7" display="https://mvnrepository.com/"/>
     <hyperlink ref="B24" r:id="rId8" display="https://www.apipost.cn/"/>
     <hyperlink ref="B34" r:id="rId9" display="https://github.com/jiadabin/tuling-single-mall"/>
@@ -4169,13 +4203,13 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="120.777777777778" customWidth="1"/>
@@ -4203,12 +4237,21 @@
         <v>227</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://mybatis.org/mybatis-3/zh/index.html" tooltip="https://mybatis.org/mybatis-3/zh/index.html"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://mybatis.org/mybatis-3/zh/dynamic-sql.html" tooltip="https://mybatis.org/mybatis-3/zh/dynamic-sql.html"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4232,62 +4275,62 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/java/SpringBoot.xlsx
+++ b/java/SpringBoot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820" tabRatio="689" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="8820" tabRatio="689"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="288">
   <si>
     <t>全栈技术</t>
   </si>
@@ -235,6 +235,9 @@
     <t>方式二：idea添加环境变量:</t>
   </si>
   <si>
+    <t>idea中文简体版</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -611,6 +614,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">https://github.com/macrozheng/mall
 </t>
     </r>
@@ -2299,6 +2310,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1323975</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="tempsnip"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620" y="19210020"/>
+          <a:ext cx="4798695" cy="1440180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2589,10 +2638,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2909,6 +2958,11 @@
     <row r="92" spans="1:1">
       <c r="A92" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2950,84 +3004,84 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3062,48 +3116,48 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B7" s="4">
         <v>17817836856</v>
@@ -3111,18 +3165,18 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3155,40 +3209,40 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -3220,18 +3274,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3262,94 +3316,94 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -3363,176 +3417,176 @@
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:2">
       <c r="A16" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B16" s="13"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" ht="28.8" spans="1:2">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" ht="28.8" spans="1:2">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" ht="57.6" spans="1:2">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" ht="150" customHeight="1" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="C33" s="15" t="s">
         <v>106</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -3546,32 +3600,32 @@
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:2">
       <c r="A40" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B40" s="13"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3596,7 +3650,7 @@
   <sheetPr/>
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -3608,98 +3662,98 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B16" s="9"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="2:2">
@@ -3707,59 +3761,59 @@
     </row>
     <row r="22" ht="72" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" ht="43.2" spans="1:2">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="2:2">
@@ -3767,16 +3821,16 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3785,21 +3839,21 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3845,96 +3899,96 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" ht="57.6" spans="1:2">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:2">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3963,10 +4017,10 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3995,138 +4049,138 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:2">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4162,24 +4216,24 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4217,32 +4271,32 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4275,62 +4329,62 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/java/SpringBoot.xlsx
+++ b/java/SpringBoot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820" tabRatio="689"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="281">
   <si>
     <t>全栈技术</t>
   </si>
@@ -163,28 +163,6 @@
   </si>
   <si>
     <t>ctrl+shift+alt+/ 选择registy，将compiler.automake.allow.when.app.running勾选。</t>
-  </si>
-  <si>
-    <t>SpringBoot子父项目</t>
-  </si>
-  <si>
-    <t>新建父Spring Initializr项目</t>
-  </si>
-  <si>
-    <t>删掉src文件</t>
-  </si>
-  <si>
-    <t>新建子Spring Initializr项目</t>
-  </si>
-  <si>
-    <t>父项目右键 》New 》Module</t>
-  </si>
-  <si>
-    <t>继承</t>
-  </si>
-  <si>
-    <t>父pom.xml复制到子pom.xml
-关系：spring-boot-starter-parent 《 父 《 子</t>
   </si>
   <si>
     <t>打包项目</t>
@@ -1858,13 +1836,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1397000</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>109220</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1882,7 +1860,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30480" y="15956280"/>
+          <a:off x="30480" y="13761720"/>
           <a:ext cx="4848860" cy="795020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1896,13 +1874,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>123190</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3171190</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1920,7 +1898,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="123190" y="17465040"/>
+          <a:off x="123190" y="15270480"/>
           <a:ext cx="3048000" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1934,13 +1912,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3444240</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4495165</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1958,7 +1936,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3444240" y="17442180"/>
+          <a:off x="3444240" y="15247620"/>
           <a:ext cx="4533265" cy="1424940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1972,13 +1950,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4687570</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>107315</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1996,7 +1974,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8169910" y="17457420"/>
+          <a:off x="8169910" y="15262860"/>
           <a:ext cx="3633470" cy="1120775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2275,19 +2253,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2724150</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:colOff>1323975</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="图片 18" descr="zifu"/>
+        <xdr:cNvPr id="2" name="图片 1" descr="tempsnip"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2300,45 +2278,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="114300" y="13235940"/>
-          <a:ext cx="6092190" cy="1280160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1323975</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="tempsnip"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7620" y="19210020"/>
+          <a:off x="7620" y="17015460"/>
           <a:ext cx="4798695" cy="1440180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2638,10 +2578,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2859,123 +2799,92 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="12" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B66" s="12"/>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>30</v>
-      </c>
-      <c r="B67" t="s">
-        <v>31</v>
-      </c>
+      <c r="B67" s="13"/>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
         <v>32</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="69" ht="28.8" spans="1:2">
-      <c r="A69" t="s">
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
         <v>34</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B70" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="13" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
         <v>36</v>
       </c>
-      <c r="B78" s="13"/>
+      <c r="B71" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2"/>
+      <c r="B73" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>37</v>
-      </c>
-      <c r="B79" t="s">
-        <v>38</v>
-      </c>
+      <c r="A79" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" s="2"/>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B80" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>41</v>
-      </c>
-      <c r="B81" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>43</v>
-      </c>
-      <c r="B82" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="2" t="s">
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
         <v>45</v>
       </c>
-      <c r="B83" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="2"/>
-      <c r="B84" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B90" s="2"/>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>49</v>
-      </c>
-      <c r="B91" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
-        <v>52</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A79:B79"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A72:A73"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId2" display="https://spring.io"/>
@@ -3004,84 +2913,84 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B8" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B11" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3116,48 +3025,48 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B6" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B7" s="4">
         <v>17817836856</v>
@@ -3165,18 +3074,18 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B9" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B10" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3209,40 +3118,40 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B6" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B8" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3274,18 +3183,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3316,94 +3225,94 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -3417,176 +3326,176 @@
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:2">
       <c r="A16" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B16" s="13"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" ht="28.8" spans="1:2">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" ht="28.8" spans="1:2">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" ht="57.6" spans="1:2">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="150" customHeight="1" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="15" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="15" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="15" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="15" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="15" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -3600,32 +3509,32 @@
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:2">
       <c r="A40" s="13" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B40" s="13"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3662,98 +3571,98 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="9" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B16" s="9"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="2:2">
@@ -3761,59 +3670,59 @@
     </row>
     <row r="22" ht="72" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="10" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" ht="43.2" spans="1:2">
       <c r="A32" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="2:2">
@@ -3821,16 +3730,16 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3839,21 +3748,21 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3899,96 +3808,96 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" ht="57.6" spans="1:2">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:2">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -4017,10 +3926,10 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4049,138 +3958,138 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:2">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B25" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -4216,24 +4125,24 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4271,32 +4180,32 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -4329,62 +4238,62 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/java/SpringBoot.xlsx
+++ b/java/SpringBoot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="283">
   <si>
     <t>全栈技术</t>
   </si>
@@ -150,7 +150,7 @@
     </r>
   </si>
   <si>
-    <t>下载jar包</t>
+    <t>修改了pom.xml,更新jar包</t>
   </si>
   <si>
     <t>连接数据库操作</t>
@@ -628,7 +628,8 @@
     <t>jar包下载</t>
   </si>
   <si>
-    <t>maven中心仓库</t>
+    <t>maven中心仓库
+  搜索名artifactId</t>
   </si>
   <si>
     <t>https://mvnrepository.com/</t>
@@ -649,10 +650,16 @@
 private String age;</t>
   </si>
   <si>
-    <t>注册组件</t>
+    <t>一个个注册组件</t>
   </si>
   <si>
     <t>@Component</t>
+  </si>
+  <si>
+    <t>全局注册组件</t>
+  </si>
+  <si>
+    <t>@ComponentScan("com.core")</t>
   </si>
   <si>
     <t>顶部：加载指定的properties配置文件</t>
@@ -1708,7 +1715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1741,6 +1748,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2215,44 +2228,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2572385</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="图片 17" descr="maven"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="838200" y="6256020"/>
-          <a:ext cx="1734185" cy="1752600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>91</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
@@ -2271,7 +2246,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2280,6 +2255,44 @@
         <a:xfrm>
           <a:off x="7620" y="17015460"/>
           <a:ext cx="4798695" cy="1440180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3002280</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7" descr="ee"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30480" y="6248400"/>
+          <a:ext cx="2971800" cy="1600200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2580,8 +2593,8 @@
   <sheetPr/>
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2607,10 +2620,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="15"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
@@ -2652,7 +2665,7 @@
     </row>
     <row r="10" ht="43.2" spans="1:2">
       <c r="A10" s="2"/>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2671,10 +2684,10 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="15"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
@@ -2696,22 +2709,22 @@
       <c r="A16" s="8"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="18"/>
+      <c r="A17" s="20"/>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="8"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="14"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="20" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2759,34 +2772,34 @@
       <c r="A44" s="8"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="19"/>
+      <c r="A45" s="21"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="19"/>
+      <c r="A46" s="21"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="19"/>
+      <c r="A47" s="21"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="19"/>
+      <c r="A48" s="21"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="19"/>
+      <c r="A49" s="21"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="19"/>
+      <c r="A50" s="21"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="19"/>
+      <c r="A51" s="21"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="19"/>
+      <c r="A52" s="21"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="19"/>
+      <c r="A53" s="21"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B54" t="s">
@@ -2794,16 +2807,16 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="19"/>
+      <c r="A55" s="21"/>
       <c r="B55" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B67" s="13"/>
+      <c r="B67" s="15"/>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
@@ -2913,73 +2926,73 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B11" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B16" t="s">
         <v>119</v>
@@ -2987,7 +3000,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B17" t="s">
         <v>119</v>
@@ -3025,48 +3038,48 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B7" s="4">
         <v>17817836856</v>
@@ -3074,18 +3087,18 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B10" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3118,40 +3131,40 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B8" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -3183,18 +3196,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -3212,7 +3225,7 @@
   <sheetPr/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -3224,10 +3237,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -3325,10 +3338,10 @@
       <c r="A15" s="2"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="13"/>
+      <c r="B16" s="15"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
@@ -3435,66 +3448,66 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="17" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="17" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="17" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="17" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="17" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="17" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3508,10 +3521,10 @@
       <c r="B38" s="5"/>
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:2">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="13"/>
+      <c r="B40" s="15"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
@@ -3559,8 +3572,8 @@
   <sheetPr/>
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3752,11 +3765,11 @@
       </c>
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+    <row r="38" ht="28.8" spans="1:2">
+      <c r="A38" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="13" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3781,7 +3794,7 @@
     <hyperlink ref="B28" r:id="rId4" display="https://github.com/Heeexy/SpringBoot-Shiro-Vue"/>
     <hyperlink ref="B30" r:id="rId5" display="https://github.com/Haigehit/springboot-vue-shiro"/>
     <hyperlink ref="B32" r:id="rId6" display="https://github.com/macrozheng/mall&#10;账号：admin&#10;密码：macro123"/>
-    <hyperlink ref="B38" r:id="rId7" display="https://mvnrepository.com/"/>
+    <hyperlink ref="B38" r:id="rId7" display="https://mvnrepository.com/" tooltip="https://mvnrepository.com/"/>
     <hyperlink ref="B24" r:id="rId8" display="https://www.apipost.cn/"/>
     <hyperlink ref="B34" r:id="rId9" display="https://github.com/jiadabin/tuling-single-mall"/>
     <hyperlink ref="B35" r:id="rId10" display="https://github.com/AitKen-maoer/tuling_mall_web_admin"/>
@@ -3794,10 +3807,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3844,15 +3857,15 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" ht="28.8" spans="1:2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" ht="28.8" spans="1:2">
       <c r="A7" t="s">
         <v>164</v>
       </c>
@@ -3864,7 +3877,7 @@
       <c r="A8" t="s">
         <v>166</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3898,6 +3911,14 @@
       </c>
       <c r="B12" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3926,10 +3947,10 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3958,138 +3979,138 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:2">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B16" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -4125,24 +4146,24 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4180,32 +4201,32 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4238,62 +4259,62 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/java/SpringBoot.xlsx
+++ b/java/SpringBoot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -12,32 +12,23 @@
     <sheet name="基础" sheetId="4" r:id="rId3"/>
     <sheet name="注解" sheetId="5" r:id="rId4"/>
     <sheet name="JSR303数据校验" sheetId="6" r:id="rId5"/>
-    <sheet name="SpringBoot Web" sheetId="7" r:id="rId6"/>
-    <sheet name="JDBC" sheetId="8" r:id="rId7"/>
-    <sheet name="mybatis" sheetId="9" r:id="rId8"/>
-    <sheet name="安全配置" sheetId="10" r:id="rId9"/>
-    <sheet name="Swagger" sheetId="11" r:id="rId10"/>
-    <sheet name="上线部署" sheetId="12" r:id="rId11"/>
-    <sheet name="Redis" sheetId="13" r:id="rId12"/>
-    <sheet name="错误日志" sheetId="14" r:id="rId13"/>
+    <sheet name="JDBC" sheetId="8" r:id="rId6"/>
+    <sheet name="mybatis" sheetId="9" r:id="rId7"/>
+    <sheet name="上线部署" sheetId="12" r:id="rId8"/>
+    <sheet name="Redis" sheetId="13" r:id="rId9"/>
+    <sheet name="错误日志" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="220">
   <si>
     <t>全栈技术</t>
   </si>
   <si>
     <t>前端，java，运维，架构</t>
-  </si>
-  <si>
-    <t>SpringBoot</t>
-  </si>
-  <si>
-    <t>微服务架构，内嵌Tomcat运行项目</t>
   </si>
   <si>
     <t>下载Spring Initializr项目方式一：</t>
@@ -266,7 +257,7 @@
     <t>server.servlet.context-path=/home</t>
   </si>
   <si>
-    <t>设置格式</t>
+    <t>设置格式，文件就不会乱码了</t>
   </si>
   <si>
     <t>Setting--Editor--File Encodings--Properties--选UTF-8,打勾</t>
@@ -339,9 +330,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 路径：类目录下classpath:
-或 SpringBoot\application.yaml 路径：file:./
-或 SpringBoot\config\application.yaml 路径：file:./config</t>
+      <t xml:space="preserve"> 路径：</t>
     </r>
   </si>
   <si>
@@ -463,7 +452,7 @@
     <t>复杂类型封装</t>
   </si>
   <si>
-    <t>src\main\resources\banner.text</t>
+    <t>运行图设置src\main\resources\banner.text</t>
   </si>
   <si>
     <t>搜索</t>
@@ -533,7 +522,7 @@
     <t>service</t>
   </si>
   <si>
-    <t>声明类，类组件</t>
+    <t>业务层 声明类，类组件</t>
   </si>
   <si>
     <t>看源码先找以下两个类</t>
@@ -723,110 +712,6 @@
     <t>https://baijiahao.baidu.com/s?id=1667085036607407293&amp;wfr=spider&amp;for=pc</t>
   </si>
   <si>
-    <t>webjars官网</t>
-  </si>
-  <si>
-    <t>https://www.webjars.org/</t>
-  </si>
-  <si>
-    <t>框架发展史</t>
-  </si>
-  <si>
-    <t>MVC 》Spring 》SpringBoot
-MVC：M指数据和业务  C指交接  V指HTML</t>
-  </si>
-  <si>
-    <t>处理静态资源的方式</t>
-  </si>
-  <si>
-    <t>webjars
-public、static、/**、resources</t>
-  </si>
-  <si>
-    <t>优先级</t>
-  </si>
-  <si>
-    <t>resources/public &lt; resources/static &lt; resources/resources</t>
-  </si>
-  <si>
-    <t>访问jquery的path路径</t>
-  </si>
-  <si>
-    <t>http://localhost:8089/webjars/jquery/3.4.1/jquery.js</t>
-  </si>
-  <si>
-    <t>resources/public/1.js</t>
-  </si>
-  <si>
-    <t>http://localhost:8089/1.js</t>
-  </si>
-  <si>
-    <t>默认H5: resources/public/index.html</t>
-  </si>
-  <si>
-    <t>http://localhost:8089/</t>
-  </si>
-  <si>
-    <t>html浏览器图标，xml要关闭html默认图标</t>
-  </si>
-  <si>
-    <t>resources/public/favicon.ico    改掉后缀格式为ico</t>
-  </si>
-  <si>
-    <t>模板引擎-Thymeleaf官网</t>
-  </si>
-  <si>
-    <t>https://www.thymeleaf.org/</t>
-  </si>
-  <si>
-    <t>Thymeleaf在Github主页</t>
-  </si>
-  <si>
-    <t>https://github.com/thymeleaf/thymeleaf</t>
-  </si>
-  <si>
-    <t>Spring官方文档（依赖POM配置）</t>
-  </si>
-  <si>
-    <t>https://docs.spring.io/spring-boot/docs/2.1.6.RELEASE/reference/htmlsingle/#using-boot-starter</t>
-  </si>
-  <si>
-    <t>controller可以访问</t>
-  </si>
-  <si>
-    <t>resources/templates/water.html</t>
-  </si>
-  <si>
-    <t>SpringMVC官方文档</t>
-  </si>
-  <si>
-    <t>https://docs.spring.io/spring-boot/docs/2.1.6.RELEASE/reference/html/boot-features-developing-web-applications.html</t>
-  </si>
-  <si>
-    <t>SpringMVC</t>
-  </si>
-  <si>
-    <t>是配置路由视图的</t>
-  </si>
-  <si>
-    <t>跳转优先级</t>
-  </si>
-  <si>
-    <t>Controller跳转  &gt;  SpringMVC视图跳转</t>
-  </si>
-  <si>
-    <t>html要thymeleaf接管</t>
-  </si>
-  <si>
-    <t>&lt;html lang="en" xmlns:th="http://www.thymeleaf.org"&gt;</t>
-  </si>
-  <si>
-    <t>路径用@（类目录）</t>
-  </si>
-  <si>
-    <t>th:***="@{/***/}"</t>
-  </si>
-  <si>
     <t>JDBC操作Mysql</t>
   </si>
   <si>
@@ -863,94 +748,6 @@
     <t>https://mybatis.org/mybatis-3/zh/dynamic-sql.html</t>
   </si>
   <si>
-    <t>SpringSecurity安全配置</t>
-  </si>
-  <si>
-    <t>设计之初的安全考虑</t>
-  </si>
-  <si>
-    <t>漏洞：隐私泄露</t>
-  </si>
-  <si>
-    <t>认证，授权</t>
-  </si>
-  <si>
-    <t>功能权限：删除功能</t>
-  </si>
-  <si>
-    <t>访问权限</t>
-  </si>
-  <si>
-    <t>菜单权限</t>
-  </si>
-  <si>
-    <t>拦截器</t>
-  </si>
-  <si>
-    <t>过滤器</t>
-  </si>
-  <si>
-    <t>security文档</t>
-  </si>
-  <si>
-    <t>https://docs.spring.io/spring-security/site/docs/5.2.0.RELEASE/reference/htmlsingle/</t>
-  </si>
-  <si>
-    <t>15. Java Configuration  选15.1</t>
-  </si>
-  <si>
-    <t>Swagger官网</t>
-  </si>
-  <si>
-    <t>https://swagger.io/</t>
-  </si>
-  <si>
-    <t>Swagger</t>
-  </si>
-  <si>
-    <t>最流行Api框架，Api文档与API定义同步更新</t>
-  </si>
-  <si>
-    <t>SpringBoot和Swagger版本问题
-SpringBoot降版本</t>
-  </si>
-  <si>
-    <t>报错：Failed to start bean 'documentationPluginsBootstrapper';</t>
-  </si>
-  <si>
-    <t>2.6.3  》  2.5.7</t>
-  </si>
-  <si>
-    <t>@RequestMapping</t>
-  </si>
-  <si>
-    <t>支持请求方式：get,post,put,head，delete，options,patch</t>
-  </si>
-  <si>
-    <t>Swagger作用</t>
-  </si>
-  <si>
-    <t>增加注释信息</t>
-  </si>
-  <si>
-    <t>实时更新</t>
-  </si>
-  <si>
-    <t>可以在线测试</t>
-  </si>
-  <si>
-    <t>swagger2 注解说明</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/jiangyu1013/article/details/83107255</t>
-  </si>
-  <si>
-    <t>swagger2 设置全局参数</t>
-  </si>
-  <si>
-    <t>swagger添加全局响应状态码</t>
-  </si>
-  <si>
     <t>JAVA项目上线发布步骤流程</t>
   </si>
   <si>
@@ -1012,6 +809,12 @@
   </si>
   <si>
     <t>keys *</t>
+  </si>
+  <si>
+    <t>获取value值</t>
+  </si>
+  <si>
+    <t>get key</t>
   </si>
   <si>
     <t>token关联</t>
@@ -1715,7 +1518,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1731,15 +1534,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1752,10 +1555,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1849,13 +1649,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1397000</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>109220</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1873,7 +1673,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30480" y="13761720"/>
+          <a:off x="30480" y="13578840"/>
           <a:ext cx="4848860" cy="795020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1887,13 +1687,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>123190</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3171190</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1911,7 +1711,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="123190" y="15270480"/>
+          <a:off x="123190" y="15087600"/>
           <a:ext cx="3048000" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1925,13 +1725,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3444240</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4495165</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1949,7 +1749,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3444240" y="15247620"/>
+          <a:off x="3444240" y="15064740"/>
           <a:ext cx="4533265" cy="1424940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1963,13 +1763,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4687570</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>107315</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1987,7 +1787,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8169910" y="15262860"/>
+          <a:off x="8169910" y="15079980"/>
           <a:ext cx="3633470" cy="1120775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2001,13 +1801,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3101340</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1944370</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2025,7 +1825,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3101340" y="10576560"/>
+          <a:off x="3101340" y="10393680"/>
           <a:ext cx="2325370" cy="1588770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2039,13 +1839,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2863215</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>92075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2063,7 +1863,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="220980" y="10767060"/>
+          <a:off x="220980" y="10584180"/>
           <a:ext cx="2642235" cy="663575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2077,13 +1877,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2430780</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2651760</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2101,7 +1901,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="8343900"/>
+          <a:off x="2430780" y="8161020"/>
           <a:ext cx="3703320" cy="1600200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2115,13 +1915,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1870075</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>48260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2139,7 +1939,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="53340" y="8343900"/>
+          <a:off x="53340" y="8161020"/>
           <a:ext cx="1816735" cy="1579880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2153,13 +1953,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3139440</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>6297295</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2177,7 +1977,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6621780" y="8336280"/>
+          <a:off x="6621780" y="8153400"/>
           <a:ext cx="3157855" cy="1670050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2191,13 +1991,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2912110</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2215,7 +2015,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="144780" y="4320540"/>
+          <a:off x="144780" y="4137660"/>
           <a:ext cx="2767330" cy="1557020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2229,13 +2029,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1323975</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2253,7 +2053,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="17015460"/>
+          <a:off x="7620" y="16832580"/>
           <a:ext cx="4798695" cy="1440180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2267,13 +2067,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3002280</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2291,7 +2091,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30480" y="6248400"/>
+          <a:off x="30480" y="6065520"/>
           <a:ext cx="2971800" cy="1600200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2591,10 +2391,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2611,25 +2411,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="14"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="15" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="15"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2642,7 +2442,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
@@ -2650,91 +2450,86 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" ht="43.2" spans="1:2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2"/>
-      <c r="B9" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" ht="43.2" spans="1:2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="19" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="A12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="14"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="15" t="s">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="15"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="8"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="19"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="8"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B18" s="13"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="8"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="20"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="8"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="14" t="s">
+      <c r="B20" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="14"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="8" t="s">
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="8"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="8"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>24</v>
-      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="8"/>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="8"/>
@@ -2761,62 +2556,67 @@
       <c r="A41" s="8"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="8"/>
+      <c r="A42" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="8"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="20"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="20"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="20"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="20"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="20"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="20"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="20"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="20"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="20"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="8"/>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="21"/>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="21"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="21"/>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="21"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="21"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="21"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="21"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="21"/>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="21"/>
-    </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="20"/>
+      <c r="B54" t="s">
         <v>26</v>
       </c>
-      <c r="B54" t="s">
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="21"/>
-      <c r="B55" t="s">
+      <c r="B66" s="14"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="15" t="s">
+      <c r="B67" t="s">
         <v>29</v>
       </c>
-      <c r="B67" s="15"/>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
@@ -2843,7 +2643,7 @@
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" t="s">
+      <c r="A71" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B71" t="s">
@@ -2851,56 +2651,48 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="2"/>
+      <c r="B72" t="s">
         <v>38</v>
       </c>
-      <c r="B72" t="s">
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2"/>
-      <c r="B73" t="s">
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="2" t="s">
+      <c r="B79" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="2"/>
-    </row>
-    <row r="80" spans="1:2">
+    </row>
+    <row r="80" spans="1:1">
       <c r="A80" t="s">
         <v>42</v>
       </c>
-      <c r="B80" t="s">
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A71:A72"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId2" display="https://spring.io"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://spring.io" tooltip="https://spring.io"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2910,276 +2702,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:B17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="5"/>
-      <c r="B5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>245</v>
-      </c>
-      <c r="B8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2"/>
-      <c r="B12" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2"/>
-      <c r="B13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>251</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>253</v>
-      </c>
-      <c r="B16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>254</v>
-      </c>
-      <c r="B17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A11:A13"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://swagger.io/" tooltip="https://swagger.io/"/>
-    <hyperlink ref="B15" r:id="rId2" display="https://blog.csdn.net/jiangyu1013/article/details/83107255" tooltip="https://blog.csdn.net/jiangyu1013/article/details/83107255"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="60.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="30.7777777777778" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>265</v>
-      </c>
-      <c r="B7" s="4">
-        <v>17817836856</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>266</v>
-      </c>
-      <c r="B9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:B4"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://ecs-buy.aliyun.com" tooltip="https://ecs-buy.aliyun.com"/>
-    <hyperlink ref="B1" r:id="rId2" display="https://www.cnblogs.com/daemonzd47/p/13736755.html"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B8" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2"/>
-      <c r="B9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A8:A9"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://github.com/microsoftarchive/redis/releases"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B2"/>
@@ -3196,18 +2718,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>279</v>
+        <v>216</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>280</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>218</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>282</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3225,8 +2747,8 @@
   <sheetPr/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -3237,95 +2759,95 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A1" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="15"/>
+      <c r="A1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="8" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -3338,216 +2860,216 @@
       <c r="A15" s="2"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:2">
-      <c r="A16" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="15"/>
+      <c r="A16" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" ht="28.8" spans="1:2">
       <c r="A21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="22" ht="28.8" spans="1:2">
       <c r="A22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="25" ht="57.6" spans="1:2">
       <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" ht="150" customHeight="1" spans="1:2">
+      <c r="A29" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B29" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" ht="150" customHeight="1" spans="1:2">
-      <c r="A29" s="5" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="C30" s="16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="B31" s="17" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="17" t="s">
+      <c r="C31" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B31" s="18" t="s">
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="B32" s="17" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="18" t="s">
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="B33" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="16" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="17" t="s">
+      <c r="B34" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="17" t="s">
+      <c r="B35" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="7"/>
+    </row>
+    <row r="40" ht="30" customHeight="1" spans="1:2">
+      <c r="A40" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="5"/>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="5"/>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="5"/>
-    </row>
-    <row r="40" ht="30" customHeight="1" spans="1:2">
-      <c r="A40" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="15"/>
+      <c r="B40" s="14"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3572,8 +3094,8 @@
   <sheetPr/>
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3584,158 +3106,158 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" s="2"/>
-      <c r="B3" s="5" t="s">
-        <v>115</v>
+      <c r="B3" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B16" s="9"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="7"/>
+      <c r="B19" s="5"/>
     </row>
     <row r="22" ht="72" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" ht="43.2" spans="1:2">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="2:2">
@@ -3743,16 +3265,16 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3761,21 +3283,21 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B37" s="3"/>
     </row>
     <row r="38" ht="28.8" spans="1:2">
       <c r="A38" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>151</v>
+        <v>148</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3821,104 +3343,104 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" ht="57.6" spans="1:2">
       <c r="A2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:2">
       <c r="A7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3936,7 +3458,7 @@
   <dimension ref="A2:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -3947,15 +3469,15 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://baijiahao.baidu.com/s?id=1667085036607407293&amp;wfr=spider&amp;for=pc"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://baijiahao.baidu.com/s?id=1667085036607407293&amp;wfr=spider&amp;for=pc" tooltip="https://baijiahao.baidu.com/s?id=1667085036607407293&amp;wfr=spider&amp;for=pc"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3963,173 +3485,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" ht="28.8" spans="1:2">
-      <c r="A2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" ht="28.8" spans="1:2">
-      <c r="A3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>194</v>
-      </c>
-      <c r="B10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>198</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>200</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>202</v>
-      </c>
-      <c r="B16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>204</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>206</v>
-      </c>
-      <c r="B20" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>208</v>
-      </c>
-      <c r="B21" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>210</v>
-      </c>
-      <c r="B24" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>212</v>
-      </c>
-      <c r="B25" t="s">
-        <v>213</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="http://localhost:8089/webjars/jquery/3.4.1/jquery.js" tooltip="http://localhost:8089/webjars/jquery/3.4.1/jquery.js"/>
-    <hyperlink ref="B7" r:id="rId2" display="http://localhost:8089/1.js" tooltip="http://localhost:8089/1.js"/>
-    <hyperlink ref="B1" r:id="rId3" display="https://www.webjars.org/" tooltip="https://www.webjars.org/"/>
-    <hyperlink ref="B8" r:id="rId4" display="http://localhost:8089/"/>
-    <hyperlink ref="B12" r:id="rId5" display="https://www.thymeleaf.org/" tooltip="https://www.thymeleaf.org/"/>
-    <hyperlink ref="B13" r:id="rId6" display="https://github.com/thymeleaf/thymeleaf"/>
-    <hyperlink ref="B14" r:id="rId7" display="https://docs.spring.io/spring-boot/docs/2.1.6.RELEASE/reference/htmlsingle/#using-boot-starter"/>
-    <hyperlink ref="B19" r:id="rId8" display="https://docs.spring.io/spring-boot/docs/2.1.6.RELEASE/reference/html/boot-features-developing-web-applications.html"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B5"/>
@@ -4146,29 +3501,29 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>216</v>
+        <v>179</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -4184,7 +3539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B6"/>
@@ -4201,32 +3556,32 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4242,89 +3597,170 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="60.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="30.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="4">
+        <v>17817836856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://ecs-buy.aliyun.com" tooltip="https://ecs-buy.aliyun.com"/>
+    <hyperlink ref="B1" r:id="rId2" display="https://www.cnblogs.com/daemonzd47/p/13736755.html"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A2:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="100.777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B1" s="6"/>
-    </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B3" t="s">
-        <v>230</v>
+        <v>205</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2"/>
+      <c r="A4" t="s">
+        <v>207</v>
+      </c>
       <c r="B4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2"/>
+      <c r="A6" t="s">
+        <v>209</v>
+      </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2"/>
+      <c r="A7" t="s">
+        <v>211</v>
+      </c>
       <c r="B7" t="s">
-        <v>234</v>
-      </c>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>236</v>
+        <v>213</v>
+      </c>
+      <c r="B9" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:A7"/>
+  <mergeCells count="1">
     <mergeCell ref="A9:A10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" display="https://docs.spring.io/spring-security/site/docs/5.2.0.RELEASE/reference/htmlsingle/"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://github.com/microsoftarchive/redis/releases"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/java/SpringBoot.xlsx
+++ b/java/SpringBoot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689" firstSheet="1" activeTab="8"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="221">
   <si>
     <t>全栈技术</t>
   </si>
@@ -171,22 +171,25 @@
     <t>target右击 》Show in Explorer</t>
   </si>
   <si>
-    <t>target文件夹打开cmd</t>
+    <t>target文件夹打开终端</t>
   </si>
   <si>
     <t>文件夹路径上输入cmd，Enter</t>
   </si>
   <si>
-    <t>cmd运行包</t>
+    <t>cmd运行打包后的springboot项目</t>
   </si>
   <si>
     <t>java -jar ./demo-0.0.1-SNAPSHOT.jar</t>
   </si>
   <si>
+    <t>cmd运行并改端口号</t>
+  </si>
+  <si>
+    <t>java -jar ./demo-0.0.1-SNAPSHOT.jar --server.port=8087</t>
+  </si>
+  <si>
     <t>cmd参数，带到main方法里，优先级最高，不会互补</t>
-  </si>
-  <si>
-    <t>java -jar ./demo-0.0.1-SNAPSHOT.jar --server.port=8087</t>
   </si>
   <si>
     <t>java -jar ./demo-0.0.1-SNAPSHOT.jar --spring.config.location=D:/application.properties</t>
@@ -2393,8 +2396,8 @@
   <sheetPr/>
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2635,10 +2638,10 @@
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" t="s">
+      <c r="A70" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2646,42 +2649,44 @@
       <c r="A71" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="2"/>
+      <c r="A72" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="B72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B78" s="2"/>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A18:B18"/>
@@ -2689,7 +2694,6 @@
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A71:A72"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId2" display="https://spring.io" tooltip="https://spring.io"/>
@@ -2718,18 +2722,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2747,7 +2751,7 @@
   <sheetPr/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
@@ -2760,94 +2764,94 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -2861,176 +2865,176 @@
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:2">
       <c r="A16" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" ht="28.8" spans="1:2">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" ht="28.8" spans="1:2">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" ht="57.6" spans="1:2">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" ht="150" customHeight="1" spans="1:2">
       <c r="A29" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="16"/>
       <c r="B30" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>98</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -3044,32 +3048,32 @@
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:2">
       <c r="A40" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B40" s="14"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3106,98 +3110,98 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" s="2"/>
       <c r="B3" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B16" s="9"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="2:2">
@@ -3205,59 +3209,59 @@
     </row>
     <row r="22" ht="72" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" ht="43.2" spans="1:2">
       <c r="A32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="2:2">
@@ -3265,16 +3269,16 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3283,21 +3287,21 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B37" s="3"/>
     </row>
     <row r="38" ht="28.8" spans="1:2">
       <c r="A38" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3343,104 +3347,104 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" ht="57.6" spans="1:2">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:2">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3469,10 +3473,10 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3501,24 +3505,24 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3556,32 +3560,32 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3615,48 +3619,48 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B7" s="4">
         <v>17817836856</v>
@@ -3664,18 +3668,18 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3696,7 +3700,7 @@
   <sheetPr/>
   <dimension ref="A2:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -3708,34 +3712,34 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -3743,16 +3747,16 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/java/SpringBoot.xlsx
+++ b/java/SpringBoot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="230">
   <si>
     <t>全栈技术</t>
   </si>
@@ -519,7 +519,7 @@
     <t>pojo</t>
   </si>
   <si>
-    <t>实体类，这里文件名要与Mysql表名一致</t>
+    <t>数据层 实体类，这里文件名要与Mysql表名一致</t>
   </si>
   <si>
     <t>service</t>
@@ -820,6 +820,21 @@
     <t>get key</t>
   </si>
   <si>
+    <t>测试连接成功</t>
+  </si>
+  <si>
+    <t>ping</t>
+  </si>
+  <si>
+    <t>语句key-value值</t>
+  </si>
+  <si>
+    <t>set name apple</t>
+  </si>
+  <si>
+    <t>get apple</t>
+  </si>
+  <si>
     <t>token关联</t>
   </si>
   <si>
@@ -827,6 +842,18 @@
   </si>
   <si>
     <t>HandlerInterceptor  http拦截器</t>
+  </si>
+  <si>
+    <t>Redis官网(英文)</t>
+  </si>
+  <si>
+    <t>https://redis.io</t>
+  </si>
+  <si>
+    <t>Redis官网(中文)</t>
+  </si>
+  <si>
+    <t>http://www.redis.cn</t>
   </si>
   <si>
     <t>搜projectlombok</t>
@@ -2396,7 +2423,7 @@
   <sheetPr/>
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+    <sheetView topLeftCell="A59" workbookViewId="0">
       <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
@@ -2722,18 +2749,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2751,7 +2778,7 @@
   <sheetPr/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
@@ -3099,7 +3126,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3698,10 +3725,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B10"/>
+  <dimension ref="A2:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3726,45 +3753,86 @@
         <v>209</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" t="s">
+        <v>211</v>
+      </c>
+    </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>214</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2"/>
-      <c r="B10" t="s">
-        <v>216</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2"/>
+      <c r="B13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A9:A10"/>
+  <mergeCells count="2">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://github.com/microsoftarchive/redis/releases"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://github.com/microsoftarchive/redis/releases" tooltip="https://github.com/microsoftarchive/redis/releases"/>
+    <hyperlink ref="B15" r:id="rId2" display="https://redis.io" tooltip="https://redis.io"/>
+    <hyperlink ref="B16" r:id="rId3" display="http://www.redis.cn" tooltip="http://www.redis.cn"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/java/SpringBoot.xlsx
+++ b/java/SpringBoot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689" activeTab="8"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -180,19 +180,19 @@
     <t>cmd运行打包后的springboot项目</t>
   </si>
   <si>
-    <t>java -jar ./demo-0.0.1-SNAPSHOT.jar</t>
+    <t>java -jar ./包名.jar</t>
   </si>
   <si>
     <t>cmd运行并改端口号</t>
   </si>
   <si>
-    <t>java -jar ./demo-0.0.1-SNAPSHOT.jar --server.port=8087</t>
+    <t>java -jar ./包名.jar --server.port=8087</t>
   </si>
   <si>
     <t>cmd参数，带到main方法里，优先级最高，不会互补</t>
   </si>
   <si>
-    <t>java -jar ./demo-0.0.1-SNAPSHOT.jar --spring.config.location=D:/application.properties</t>
+    <t>java -jar ./包名.jar --spring.config.location=D:/application.properties</t>
   </si>
   <si>
     <t>操作系统环境变量,可以cmd运行包省带参数：</t>
@@ -2423,8 +2423,8 @@
   <sheetPr/>
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2641,7 +2641,7 @@
       <c r="B66" s="14"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" t="s">
+      <c r="A67" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B67" t="s">
@@ -3727,8 +3727,8 @@
   <sheetPr/>
   <dimension ref="A2:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>

--- a/java/SpringBoot.xlsx
+++ b/java/SpringBoot.xlsx
@@ -2423,8 +2423,8 @@
   <sheetPr/>
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>

--- a/java/SpringBoot.xlsx
+++ b/java/SpringBoot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -895,18 +895,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1436,7 +1436,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1555,6 +1555,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1564,7 +1567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1573,19 +1576,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1609,7 +1609,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2423,7 +2423,7 @@
   <sheetPr/>
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+    <sheetView topLeftCell="A83" workbookViewId="0">
       <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
@@ -2472,7 +2472,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
@@ -2480,19 +2480,19 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" ht="43.2" spans="1:2">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -2528,13 +2528,13 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="8"/>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="19"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="8"/>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="13" t="s">
@@ -2543,7 +2543,7 @@
       <c r="B18" s="13"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -2551,7 +2551,7 @@
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="8"/>
+      <c r="A21" s="2"/>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
@@ -2559,39 +2559,39 @@
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="8"/>
+      <c r="A33" s="2"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="8"/>
+      <c r="A34" s="2"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="8"/>
+      <c r="A35" s="2"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="8"/>
+      <c r="A36" s="2"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="8"/>
+      <c r="A37" s="2"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="8"/>
+      <c r="A38" s="2"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="8"/>
+      <c r="A39" s="2"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="8"/>
+      <c r="A40" s="2"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="8"/>
+      <c r="A41" s="2"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="8"/>
+      <c r="A43" s="2"/>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="20"/>
@@ -2641,7 +2641,7 @@
       <c r="B66" s="14"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B67" t="s">
@@ -2665,23 +2665,23 @@
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B72" t="s">
@@ -2689,10 +2689,10 @@
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B78" s="2"/>
+      <c r="B78" s="3"/>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
@@ -2820,15 +2820,15 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B6" t="s">
@@ -2836,13 +2836,13 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B8" t="s">
@@ -2850,7 +2850,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B9" t="s">
@@ -2858,7 +2858,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B10" t="s">
@@ -2866,7 +2866,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B11" t="s">
@@ -2874,7 +2874,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B12" t="s">
@@ -2882,13 +2882,13 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:2">
       <c r="A16" s="15" t="s">
@@ -2916,7 +2916,7 @@
       <c r="A19" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2932,7 +2932,7 @@
       <c r="A21" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2940,7 +2940,7 @@
       <c r="A22" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
       <c r="A23" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
       <c r="A24" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2964,7 +2964,7 @@
       <c r="A25" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2972,7 +2972,7 @@
       <c r="A26" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2980,7 +2980,7 @@
       <c r="A27" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2988,15 +2988,15 @@
       <c r="A28" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="29" ht="150" customHeight="1" spans="1:2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3065,13 +3065,13 @@
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="7"/>
+      <c r="B36" s="8"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="7"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="7"/>
+      <c r="B38" s="8"/>
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:2">
       <c r="A40" s="14" t="s">
@@ -3125,8 +3125,8 @@
   <sheetPr/>
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3136,7 +3136,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3144,7 +3144,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B2" t="s">
@@ -3152,19 +3152,19 @@
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>116</v>
       </c>
@@ -3232,18 +3232,18 @@
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="5"/>
+      <c r="B19" s="6"/>
     </row>
     <row r="22" ht="72" spans="1:2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>134</v>
       </c>
@@ -3295,7 +3295,7 @@
       <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -3303,20 +3303,20 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="2"/>
+      <c r="A35" s="3"/>
       <c r="B35" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="2"/>
+      <c r="A36" s="3"/>
       <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="4"/>
     </row>
     <row r="38" ht="28.8" spans="1:2">
       <c r="A38" s="12" t="s">
@@ -3363,7 +3363,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3373,16 +3373,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" ht="57.6" spans="1:2">
       <c r="A2" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3422,7 +3422,7 @@
       <c r="A7" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3430,7 +3430,7 @@
       <c r="A8" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3531,16 +3531,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3586,10 +3586,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -3664,10 +3664,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
@@ -3689,7 +3689,7 @@
       <c r="A7" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>17817836856</v>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
   <sheetPr/>
   <dimension ref="A2:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -3746,7 +3746,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B4" t="s">
@@ -3778,7 +3778,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>216</v>
       </c>
       <c r="B8" t="s">
@@ -3786,16 +3786,16 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>219</v>
       </c>
       <c r="B12" t="s">
@@ -3803,7 +3803,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>221</v>
       </c>

--- a/java/SpringBoot.xlsx
+++ b/java/SpringBoot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689" activeTab="8"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="234">
   <si>
     <t>全栈技术</t>
   </si>
@@ -615,6 +615,43 @@
   </si>
   <si>
     <t>https://github.com/AitKen-maoer/tuling_mall_web_admin</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">github搜索好项目
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.搜索名字
+2.stars点赞大于4000
+3.pushed最近更新时间
+4.语言java
+5.forks分支大于10000</t>
+    </r>
+  </si>
+  <si>
+    <t>in:name: springboot stars:&gt;4000 pushed:&gt;2020-01-01 language:java forks:&gt;10000</t>
+  </si>
+  <si>
+    <t>jeecgboot</t>
+  </si>
+  <si>
+    <t>https://github.com/jeecgboot/jeecg-boot
+http://doc.jeecg.com/2043868</t>
   </si>
   <si>
     <t>jar包下载</t>
@@ -918,16 +955,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF002060"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF002060"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1406,7 +1443,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1418,7 +1455,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1481,7 +1518,7 @@
     <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1499,22 +1536,22 @@
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1523,16 +1560,16 @@
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1541,14 +1578,14 @@
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1588,6 +1625,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1597,13 +1640,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2442,10 +2482,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="16"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
@@ -2487,7 +2527,7 @@
     </row>
     <row r="9" ht="43.2" spans="1:2">
       <c r="A9" s="3"/>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="14" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2506,10 +2546,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="16"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
@@ -2531,22 +2571,22 @@
       <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="15"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="20" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2594,34 +2634,34 @@
       <c r="A43" s="2"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="20"/>
+      <c r="A44" s="21"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="20"/>
+      <c r="A45" s="21"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="20"/>
+      <c r="A46" s="21"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="20"/>
+      <c r="A47" s="21"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="20"/>
+      <c r="A48" s="21"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="20"/>
+      <c r="A49" s="21"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="20"/>
+      <c r="A50" s="21"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="20"/>
+      <c r="A51" s="21"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="20"/>
+      <c r="A52" s="21"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B53" t="s">
@@ -2629,16 +2669,16 @@
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="20"/>
+      <c r="A54" s="21"/>
       <c r="B54" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B66" s="14"/>
+      <c r="B66" s="16"/>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
@@ -2749,18 +2789,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2778,7 +2818,7 @@
   <sheetPr/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
@@ -2790,10 +2830,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -2891,10 +2931,10 @@
       <c r="A15" s="3"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="16"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
@@ -3001,66 +3041,66 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="18" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="18" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="18" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="18" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="18" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3074,10 +3114,10 @@
       <c r="B38" s="8"/>
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:2">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="14"/>
+      <c r="B40" s="16"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
@@ -3123,10 +3163,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3304,38 +3344,50 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="3"/>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="4" t="s">
+    <row r="36" ht="86.4" spans="1:2">
+      <c r="A36" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" ht="28.8" spans="1:2">
-      <c r="A38" s="12" t="s">
+      <c r="B36" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B38" s="11" t="s">
+    </row>
+    <row r="37" ht="28.8" spans="1:2">
+      <c r="A37" s="14" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+      <c r="B37" s="11" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" ht="28.8" spans="1:2">
+      <c r="A39" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A34:A35"/>
@@ -3347,10 +3399,11 @@
     <hyperlink ref="B28" r:id="rId4" display="https://github.com/Heeexy/SpringBoot-Shiro-Vue"/>
     <hyperlink ref="B30" r:id="rId5" display="https://github.com/Haigehit/springboot-vue-shiro"/>
     <hyperlink ref="B32" r:id="rId6" display="https://github.com/macrozheng/mall&#10;账号：admin&#10;密码：macro123"/>
-    <hyperlink ref="B38" r:id="rId7" display="https://mvnrepository.com/" tooltip="https://mvnrepository.com/"/>
+    <hyperlink ref="B39" r:id="rId7" display="https://mvnrepository.com/" tooltip="https://mvnrepository.com/"/>
     <hyperlink ref="B24" r:id="rId8" display="https://www.apipost.cn/"/>
     <hyperlink ref="B34" r:id="rId9" display="https://github.com/jiadabin/tuling-single-mall"/>
     <hyperlink ref="B35" r:id="rId10" display="https://github.com/AitKen-maoer/tuling_mall_web_admin"/>
+    <hyperlink ref="B37" r:id="rId11" display="https://github.com/jeecgboot/jeecg-boot&#10;http://doc.jeecg.com/2043868" tooltip="http://doc.jeecg.com/2043868"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3374,104 +3427,104 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B1" s="7"/>
     </row>
     <row r="2" ht="57.6" spans="1:2">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:2">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3500,10 +3553,10 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3532,24 +3585,24 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3587,32 +3640,32 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3646,48 +3699,48 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B7" s="5">
         <v>17817836856</v>
@@ -3695,18 +3748,18 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B10" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -3727,8 +3780,8 @@
   <sheetPr/>
   <dimension ref="A2:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3739,56 +3792,56 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -3796,32 +3849,32 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/java/SpringBoot.xlsx
+++ b/java/SpringBoot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="JDBC" sheetId="8" r:id="rId6"/>
     <sheet name="mybatis" sheetId="9" r:id="rId7"/>
     <sheet name="上线部署" sheetId="12" r:id="rId8"/>
-    <sheet name="Redis" sheetId="13" r:id="rId9"/>
+    <sheet name="本地Redis" sheetId="13" r:id="rId9"/>
     <sheet name="错误日志" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="231">
   <si>
     <t>全栈技术</t>
   </si>
@@ -870,15 +870,6 @@
   </si>
   <si>
     <t>get apple</t>
-  </si>
-  <si>
-    <t>token关联</t>
-  </si>
-  <si>
-    <t>WebMvcConfigurer</t>
-  </si>
-  <si>
-    <t>HandlerInterceptor  http拦截器</t>
   </si>
   <si>
     <t>Redis官网(英文)</t>
@@ -2789,18 +2780,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3165,7 +3156,7 @@
   <sheetPr/>
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -3778,10 +3769,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B16"/>
+  <dimension ref="A2:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3847,45 +3838,30 @@
     <row r="11" spans="1:1">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>223</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3"/>
-      <c r="B13" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="B14" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>229</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://github.com/microsoftarchive/redis/releases" tooltip="https://github.com/microsoftarchive/redis/releases"/>
-    <hyperlink ref="B15" r:id="rId2" display="https://redis.io" tooltip="https://redis.io"/>
-    <hyperlink ref="B16" r:id="rId3" display="http://www.redis.cn" tooltip="http://www.redis.cn"/>
+    <hyperlink ref="B13" r:id="rId2" display="https://redis.io" tooltip="https://redis.io"/>
+    <hyperlink ref="B14" r:id="rId3" display="http://www.redis.cn" tooltip="http://www.redis.cn"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/java/SpringBoot.xlsx
+++ b/java/SpringBoot.xlsx
@@ -4,26 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689" activeTab="8"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
     <sheet name="全局配置文件" sheetId="3" r:id="rId2"/>
     <sheet name="基础" sheetId="4" r:id="rId3"/>
-    <sheet name="注解" sheetId="5" r:id="rId4"/>
+    <sheet name="SpringBoot 注解" sheetId="5" r:id="rId4"/>
     <sheet name="JSR303数据校验" sheetId="6" r:id="rId5"/>
     <sheet name="JDBC" sheetId="8" r:id="rId6"/>
     <sheet name="mybatis" sheetId="9" r:id="rId7"/>
     <sheet name="上线部署" sheetId="12" r:id="rId8"/>
     <sheet name="本地Redis" sheetId="13" r:id="rId9"/>
     <sheet name="错误日志" sheetId="14" r:id="rId10"/>
+    <sheet name="lombok" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="305">
   <si>
     <t>全栈技术</t>
   </si>
@@ -192,7 +193,8 @@
     <t>cmd参数，带到main方法里，优先级最高，不会互补</t>
   </si>
   <si>
-    <t>java -jar ./包名.jar --spring.config.location=D:/application.properties</t>
+    <t>java -jar ./包名.jar --spring.config.location=D:/application.properties
+java -jar ./包名.jar --spring.profiles.active=dev</t>
   </si>
   <si>
     <t>操作系统环境变量,可以cmd运行包省带参数：</t>
@@ -516,10 +518,10 @@
     <t>配置类</t>
   </si>
   <si>
-    <t>pojo</t>
-  </si>
-  <si>
-    <t>数据层 实体类，这里文件名要与Mysql表名一致</t>
+    <t>pojo/model</t>
+  </si>
+  <si>
+    <t>数据层/实体类  这里文件名要与Mysql表名一致</t>
   </si>
   <si>
     <t>service</t>
@@ -667,125 +669,400 @@
     <t>官网下载</t>
   </si>
   <si>
+    <t>Core Spring框架注解</t>
+  </si>
+  <si>
+    <t>@Required</t>
+  </si>
+  <si>
+    <t>注在属性上
+它适用于 bean 设置方法
+属性填充带注解的Bean，否则它将引发异常 BeanInitilizationException</t>
+  </si>
+  <si>
+    <t>@Autowired
+@Qualifier("authorityRuleNacosProvider")
+@Component("authorityRuleNacosProvider")   注在类上
+// 或
+@Bean(name = "securityManager")   注在方法上，不写name就默认方法名
+@Qualifier("securityManager") DefaultWebSecurityManager new_name
+注形参上</t>
+  </si>
+  <si>
+    <t>注在属性上
+提供基于注解的自动装配
+spring容器通过匹配数据类型自动连接bean
+出现重复的类名或方法名会报异常，需要@Qualifier指定</t>
+  </si>
+  <si>
+    <t>@Configuration</t>
+  </si>
+  <si>
+    <t>注在类上
+由Spring Containers用作bean定义的源</t>
+  </si>
+  <si>
+    <t>@ComponentScan(basePackages = "com.lidihuo")
+@Configuration</t>
+  </si>
+  <si>
+    <t>注在类上
+扫描软件包中的bean
+它与注解@Configuration一起使用</t>
+  </si>
+  <si>
+    <t>@Bean</t>
+  </si>
+  <si>
+    <t>注在方法上
+它是XML 标记的替代方法
+由Spring Container管理的bean的方法</t>
+  </si>
+  <si>
+    <t>@Value("${jeecg.path.upload}")</t>
+  </si>
+  <si>
+    <t>注在属性上
+通过yaml配置文件注入属性</t>
+  </si>
+  <si>
+    <t>@PropertySource(value = "classpath:cat.properties")</t>
+  </si>
+  <si>
+    <t>注在类上
+读取.yml配置文件</t>
+  </si>
+  <si>
+    <t>@ConfigurationProperties(prefix = "person")</t>
+  </si>
+  <si>
+    <t>注在类上
+将yaml配置文件中配置的每一个属性值，映射到这个组件中</t>
+  </si>
+  <si>
+    <t>@Profile("dev")
+spring:
+  profiles: dev</t>
+  </si>
+  <si>
+    <t>注在类或方法上
+约定生效的环境
+多种环境配置：线上环境prod(product)、开发环境dev(development)、测试环境test</t>
+  </si>
+  <si>
+    <t>@Lazy</t>
+  </si>
+  <si>
+    <t>注在属性上
+启动的时候不会创建bean对象，当使用的时候才会创建</t>
+  </si>
+  <si>
+    <t>Spring Framework构造型注解</t>
+  </si>
+  <si>
+    <t>@Component</t>
+  </si>
+  <si>
+    <t>注在类上
+用于将Java类标记为Bean
+Spring框架将其拾取并在应用程序上下文中将其配置为 Spring Bean</t>
+  </si>
+  <si>
+    <t>@Controller
+@RequestMapping("books")</t>
+  </si>
+  <si>
+    <t>注在类上
+将一个类标记为Web请求处理程序。它通常用于服务网页。
+默认情况下，它返回一个字符串，该字符串指示要重定向的路由。
+它通常与 @RequestMapping 注解一起使用</t>
+  </si>
+  <si>
+    <t>@Service</t>
+  </si>
+  <si>
+    <t>注在类上
+告诉Spring该类包含 业务逻辑</t>
+  </si>
+  <si>
+    <t>@Repository</t>
+  </si>
+  <si>
+    <t>注在类上
+该存储库执行与数据库有关的所有操作</t>
+  </si>
+  <si>
+    <t>Spring Boot注解</t>
+  </si>
+  <si>
+    <t>@SpringBootApplication</t>
+  </si>
+  <si>
+    <t>注在Springboot启动类上
+它是三个注解 @ EnableAutoConfiguration，@ ComponentScan，和 @Configuration 的组合</t>
+  </si>
+  <si>
+    <t>Spring MVC和REST注解</t>
+  </si>
+  <si>
+    <t>@RequestMapping("/test")
+@RequestMapping(value = "/importExcel", method = RequestMethod.POST)</t>
+  </si>
+  <si>
+    <t>注在类或方法上
+用于映射网络请求
+没指定method，就默认所有方式</t>
+  </si>
+  <si>
+    <t>@GetMapping("/getMessage")</t>
+  </si>
+  <si>
+    <t>注在方法上
+将 HTTP GET 请求映射到特定的处理程序方法</t>
+  </si>
+  <si>
+    <t>@PostMapping("/immediateSaveAll")</t>
+  </si>
+  <si>
+    <t>注在方法上
+将 HTTP POST 请求映射到特定的处理程序方法</t>
+  </si>
+  <si>
+    <t>@RequestBody JSONObject rowData</t>
+  </si>
+  <si>
+    <t>注在方法形参上
+用于将HTTP请求与方法参数中的对象绑定
+Spring框架会将传入的HTTP请求主体绑定到该参数</t>
+  </si>
+  <si>
+    <t>@ResponseBody</t>
+  </si>
+  <si>
+    <t>注在方法上
+它将方法返回值绑定到响应主体。
+它告诉Spring Boot Framework将返回的对象序列化为JSON和XML格式。</t>
+  </si>
+  <si>
+    <t>@GetMapping("/show/{id}")
+@PathVariable("id") String id</t>
+  </si>
+  <si>
+    <t>注在方法形参上
+用于从URI中提取值   /shop/delete/12</t>
+  </si>
+  <si>
+    <t>@RequestParam String name
+@RequestParam(name = "pageNo", defaultValue = "1") Integer pageNo</t>
+  </si>
+  <si>
+    <t>注在方法形参上
+用于从URL提取查询参数    /shop/list?name=ali</t>
+  </si>
+  <si>
+    <t>@RequestHeader String token</t>
+  </si>
+  <si>
+    <t>注在方法形参上
+用于获取有关HTTP请求标头的详细信息
+等价于 (HttpServletRequest request) {String token = request.getHeader("token")}</t>
+  </si>
+  <si>
+    <t>@RestController</t>
+  </si>
+  <si>
+    <t>注在类上
+@Controller 和 @ResponseBody 注解的组合</t>
+  </si>
+  <si>
+    <t>@CrossOrigin</t>
+  </si>
+  <si>
+    <t>注在类或方法上
+跨域(CORS)支持</t>
+  </si>
+  <si>
+    <t>Java 注解</t>
+  </si>
+  <si>
+    <t>@Override</t>
+  </si>
+  <si>
+    <t>注在方法上
+用来指定方法重写的</t>
+  </si>
+  <si>
+    <t>@Resource(name = "apple")
+private RedisUtilsService redisUtilsService;
+@Service("apple")
+public class RedisUtilsServiceImpl implements RedisUtilsService {
+@Service("banana")
+public class yaServiceImpl implements RedisUtilsService {</t>
+  </si>
+  <si>
+    <t>注在属性上
+自动注入
+出现重复的类名会报异常，需要name注定谁</t>
+  </si>
+  <si>
+    <t>@JsonProperty(value = "fullName")
+private String name;
+@JsonProperty(access = JsonProperty.Access.WRITE_ONLY)
+private String password;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">注在属性上
+映射的属性的名字  字段别名
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>敏感数据不允许传递给前端</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  WRITE_ONLY仅做反序列化操作
+序列化后 {"fullName":"zhangsan"}</t>
+    </r>
+  </si>
+  <si>
+    <t>@JsonIgnore</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">注在属性上
+快照属性字段
+返回的json数据没有该字段
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>敏感数据不允许传递给前端</t>
+    </r>
+  </si>
+  <si>
+    <t>@JsonFormat(pattern = "yyyy-MM-dd", locale = "zh")
+private Date birth;</t>
+  </si>
+  <si>
+    <t>注在属性上
+日期格式化</t>
+  </si>
+  <si>
+    <t>@JsonInclude(JsonInclude.Include.NON_NULL)</t>
+  </si>
+  <si>
+    <t>注在属性上
+null时，不包含这属性</t>
+  </si>
+  <si>
+    <t>Spring Boot 使用 JSR303 实现参数验证</t>
+  </si>
+  <si>
+    <t>https://baijiahao.baidu.com/s?id=1667085036607407293&amp;wfr=spider&amp;for=pc</t>
+  </si>
+  <si>
+    <t>JDBC操作Mysql</t>
+  </si>
+  <si>
+    <t>Spring Data官网</t>
+  </si>
+  <si>
+    <t>https://spring.io/projects/spring-data</t>
+  </si>
+  <si>
+    <t>数据库jar包</t>
+  </si>
+  <si>
+    <t>https://docs.spring.io/spring-boot/docs/2.1.7.RELEASE/reference/htmlsingle/#using-boot-starter</t>
+  </si>
+  <si>
+    <t>Mybatis操作Mysql</t>
+  </si>
+  <si>
+    <t>mybatis中文文档</t>
+  </si>
+  <si>
+    <t>https://mybatis.org/mybatis-3/zh/index.html</t>
+  </si>
+  <si>
+    <t>pojo文件名要与Mysql表名一致</t>
+  </si>
+  <si>
+    <t>否则报错：Cause: java.sql.SQLSyntaxErrorException: Table 'db_news.***' doesn't exist</t>
+  </si>
+  <si>
+    <t>动态 SQL</t>
+  </si>
+  <si>
+    <t>https://mybatis.org/mybatis-3/zh/dynamic-sql.html</t>
+  </si>
+  <si>
+    <t>&lt;choose&gt;
+            &lt;when test="parentId != null and parentId != ''"&gt;
+                AND parent_id =  #{parentId,jdbcType=VARCHAR}
+            &lt;/when&gt;
+            &lt;otherwise&gt;
+                AND parent_id is null or parent_id=''
+            &lt;/otherwise&gt;
+        &lt;/choose&gt;</t>
+  </si>
+  <si>
+    <t>(case when has_child = '1' then 0 else 1 end) as isLeaf,</t>
+  </si>
+  <si>
+    <t>&lt;if test="orgCode != null"&gt;
+   &lt;bind name="bindOrgCode" value="orgCode+'%'"/&gt;
+  &lt;/if&gt;
+  sys_user.del_flag = 0 AND sys_depart.org_code LIKE #{bindOrgCode}</t>
+  </si>
+  <si>
+    <t>WHERE (EXISTS(</t>
+  </si>
+  <si>
     <t>注解</t>
   </si>
   <si>
-    <t>赋值</t>
-  </si>
-  <si>
-    <t>@Value("${name}")
-private String name;
-@Value("#{11*2}")
-private String age;</t>
-  </si>
-  <si>
-    <t>一个个注册组件</t>
-  </si>
-  <si>
-    <t>@Component</t>
-  </si>
-  <si>
-    <t>全局注册组件</t>
-  </si>
-  <si>
-    <t>@ComponentScan("com.core")</t>
-  </si>
-  <si>
-    <t>顶部：加载指定的properties配置文件</t>
-  </si>
-  <si>
-    <t>@PropertySource(value = "classpath:cat.properties")</t>
-  </si>
-  <si>
-    <t>顶部：配置文件yaml值,映射到Person组件</t>
-  </si>
-  <si>
-    <t>@ConfigurationProperties(prefix = "person")</t>
-  </si>
-  <si>
-    <t>写入（spring里的类）</t>
-  </si>
-  <si>
-    <t>@Autowired
-private Dog dog;</t>
-  </si>
-  <si>
-    <t>导入（javax.annotation.Resource里的类）</t>
-  </si>
-  <si>
-    <t>@Resource    导入service里的类</t>
-  </si>
-  <si>
-    <t>重写方法</t>
-  </si>
-  <si>
-    <t>@Override</t>
-  </si>
-  <si>
-    <t>配置到Spring里</t>
-  </si>
-  <si>
-    <t>@Configuration</t>
-  </si>
-  <si>
-    <t>扫描文件 mybatis的mapper类</t>
-  </si>
-  <si>
     <t>@Mapper</t>
   </si>
   <si>
-    <t>跨域</t>
-  </si>
-  <si>
-    <t>@CrossOrigin</t>
-  </si>
-  <si>
-    <t>环境优先级</t>
-  </si>
-  <si>
-    <t>@Profile("dev")</t>
-  </si>
-  <si>
-    <t>Spring Boot 使用 JSR303 实现参数验证</t>
-  </si>
-  <si>
-    <t>https://baijiahao.baidu.com/s?id=1667085036607407293&amp;wfr=spider&amp;for=pc</t>
-  </si>
-  <si>
-    <t>JDBC操作Mysql</t>
-  </si>
-  <si>
-    <t>Spring Data官网</t>
-  </si>
-  <si>
-    <t>https://spring.io/projects/spring-data</t>
-  </si>
-  <si>
-    <t>数据库jar包</t>
-  </si>
-  <si>
-    <t>https://docs.spring.io/spring-boot/docs/2.1.7.RELEASE/reference/htmlsingle/#using-boot-starter</t>
-  </si>
-  <si>
-    <t>Mybatis操作Mysql</t>
-  </si>
-  <si>
-    <t>mybatis中文文档</t>
-  </si>
-  <si>
-    <t>https://mybatis.org/mybatis-3/zh/index.html</t>
-  </si>
-  <si>
-    <t>pojo文件名要与Mysql表名一致</t>
-  </si>
-  <si>
-    <t>否则报错：Cause: java.sql.SQLSyntaxErrorException: Table 'db_news.***' doesn't exist</t>
-  </si>
-  <si>
-    <t>动态 SQL</t>
-  </si>
-  <si>
-    <t>https://mybatis.org/mybatis-3/zh/dynamic-sql.html</t>
+    <t>注在实体类上
+用于告诉sprigng框架此接口的实现类由Mybatis负责创建，并将其实现类对象存储到spring容器中</t>
+  </si>
+  <si>
+    <t>@MapperScan(value={"org.jeecg.modules.**.mapper*"})</t>
+  </si>
+  <si>
+    <t>注在Springboot启动类上</t>
+  </si>
+  <si>
+    <t>@Select("select id from sys_depart where org_code=#{orgCode}")</t>
+  </si>
+  <si>
+    <t>注在实体类方法上
+写sql语句，xml文件不用写了</t>
+  </si>
+  <si>
+    <t>@Delete("delete from sys_user_role where role_id = #{roleId}")</t>
   </si>
   <si>
     <t>JAVA项目上线发布步骤流程</t>
@@ -894,6 +1171,72 @@
   </si>
   <si>
     <t>https://mvnrepository.com/artifact/org.projectlombok/lombok</t>
+  </si>
+  <si>
+    <t>lombok工具类库</t>
+  </si>
+  <si>
+    <t>可以用简单的注解形式来简化代码，提高开发效率</t>
+  </si>
+  <si>
+    <t>pom.xml</t>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;
+   &lt;groupId&gt;org.projectlombok&lt;/groupId&gt;
+   &lt;artifactId&gt;lombok&lt;/artifactId&gt;
+   &lt;version&gt;1.18.20&lt;/version&gt;
+   &lt;scope&gt;provided&lt;/scope&gt;
+  &lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>@EqualsAndHashCode</t>
+  </si>
+  <si>
+    <t>注在类上，提供对应的 equals 和 hashCode 方法</t>
+  </si>
+  <si>
+    <t>@Accessors(chain = true)</t>
+  </si>
+  <si>
+    <t>注在类上，链式编程
+https://blog.51cto.com/u_15344989/5010077</t>
+  </si>
+  <si>
+    <t>@Data</t>
+  </si>
+  <si>
+    <t>注在类上，提供类的get、set、equals、hashCode、canEqual、toString方法</t>
+  </si>
+  <si>
+    <t>@AllArgsConstructor</t>
+  </si>
+  <si>
+    <t>注在类上，提供类的全参构造</t>
+  </si>
+  <si>
+    <t>@NoArgsConstructor</t>
+  </si>
+  <si>
+    <t>注在类上，提供类的无参构造</t>
+  </si>
+  <si>
+    <t>@Setter</t>
+  </si>
+  <si>
+    <t>注在属性上，提供 set 方法</t>
+  </si>
+  <si>
+    <t>@Getter</t>
+  </si>
+  <si>
+    <t>注在属性上，提供 get 方法</t>
+  </si>
+  <si>
+    <t>@Log4j/@Slf4j</t>
+  </si>
+  <si>
+    <t>注在类上，提供对应的 Logger 对象，变量名为 log</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1430,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1096,7 +1439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="3" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,6 +1536,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1512,7 +1861,7 @@
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1521,19 +1870,16 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1545,40 +1891,49 @@
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
@@ -1598,10 +1953,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1734,7 +2089,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30480" y="13578840"/>
+          <a:off x="30480" y="13761720"/>
           <a:ext cx="4848860" cy="795020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1772,7 +2127,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="123190" y="15087600"/>
+          <a:off x="123190" y="15270480"/>
           <a:ext cx="3048000" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1810,7 +2165,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3444240" y="15064740"/>
+          <a:off x="3444240" y="15247620"/>
           <a:ext cx="4533265" cy="1424940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1848,7 +2203,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8169910" y="15079980"/>
+          <a:off x="8169910" y="15262860"/>
           <a:ext cx="3633470" cy="1120775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2114,7 +2469,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="16832580"/>
+          <a:off x="7620" y="17015460"/>
           <a:ext cx="4798695" cy="1440180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2454,8 +2809,8 @@
   <sheetPr/>
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2473,16 +2828,16 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="18"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2503,7 +2858,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
@@ -2511,19 +2866,19 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3"/>
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" ht="43.2" spans="1:2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3"/>
+      <c r="A10" s="5"/>
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -2537,10 +2892,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="18"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
@@ -2559,30 +2914,30 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2"/>
+      <c r="A15" s="4"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="20"/>
+      <c r="A16" s="22"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
+      <c r="A17" s="4"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="17"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
+      <c r="A21" s="4"/>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
@@ -2590,69 +2945,69 @@
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="2"/>
+      <c r="A33" s="4"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="2"/>
+      <c r="A34" s="4"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="2"/>
+      <c r="A35" s="4"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="2"/>
+      <c r="A36" s="4"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="2"/>
+      <c r="A37" s="4"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="2"/>
+      <c r="A38" s="4"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="2"/>
+      <c r="A39" s="4"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="2"/>
+      <c r="A40" s="4"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="2"/>
+      <c r="A41" s="4"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="2"/>
+      <c r="A43" s="4"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="21"/>
+      <c r="A44" s="23"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="21"/>
+      <c r="A45" s="23"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="21"/>
+      <c r="A46" s="23"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="21"/>
+      <c r="A47" s="23"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="21"/>
+      <c r="A48" s="23"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="21"/>
+      <c r="A49" s="23"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="21"/>
+      <c r="A50" s="23"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="21"/>
+      <c r="A51" s="23"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="21"/>
+      <c r="A52" s="23"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B53" t="s">
@@ -2660,19 +3015,19 @@
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="21"/>
+      <c r="A54" s="23"/>
       <c r="B54" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B66" s="16"/>
+      <c r="B66" s="18"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B67" t="s">
@@ -2696,34 +3051,34 @@
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="3" t="s">
+    <row r="72" ht="28.8" spans="1:2">
+      <c r="A72" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B78" s="3"/>
+      <c r="B78" s="5"/>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
@@ -2780,18 +3135,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>228</v>
+        <v>281</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>230</v>
+        <v>283</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2804,12 +3159,122 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" ht="86.4" spans="1:2">
+      <c r="A4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" ht="28.8" spans="1:2">
+      <c r="A10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>303</v>
+      </c>
+      <c r="B16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
@@ -2821,10 +3286,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -2851,15 +3316,15 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B6" t="s">
@@ -2867,13 +3332,13 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3"/>
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B8" t="s">
@@ -2881,7 +3346,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B9" t="s">
@@ -2889,7 +3354,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B10" t="s">
@@ -2897,7 +3362,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B11" t="s">
@@ -2905,7 +3370,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B12" t="s">
@@ -2913,19 +3378,19 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="3"/>
+      <c r="A13" s="5"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="3"/>
+      <c r="A14" s="5"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="3"/>
+      <c r="A15" s="5"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="18"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
@@ -2947,7 +3412,7 @@
       <c r="A19" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2963,7 +3428,7 @@
       <c r="A21" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2971,7 +3436,7 @@
       <c r="A22" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2979,7 +3444,7 @@
       <c r="A23" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2987,7 +3452,7 @@
       <c r="A24" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2995,7 +3460,7 @@
       <c r="A25" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3003,7 +3468,7 @@
       <c r="A26" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="1" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3011,7 +3476,7 @@
       <c r="A27" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3019,96 +3484,96 @@
       <c r="A28" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="29" ht="150" customHeight="1" spans="1:2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19" t="s">
+      <c r="A30" s="20"/>
+      <c r="B30" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="20" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="20" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="20" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="20" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="20" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="8"/>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="8"/>
+      <c r="B37" s="1"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="8"/>
+      <c r="B38" s="1"/>
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:2">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="16"/>
+      <c r="B40" s="18"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
@@ -3122,7 +3587,7 @@
       <c r="A42" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="3" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3156,8 +3621,8 @@
   <sheetPr/>
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3167,15 +3632,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B2" t="s">
@@ -3183,19 +3648,19 @@
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3"/>
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>116</v>
       </c>
@@ -3212,7 +3677,7 @@
       <c r="A8" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3241,10 +3706,10 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
@@ -3263,18 +3728,18 @@
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="6"/>
+      <c r="B19" s="8"/>
     </row>
     <row r="22" ht="72" spans="1:2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3"/>
+      <c r="A23" s="5"/>
       <c r="B23" t="s">
         <v>134</v>
       </c>
@@ -3283,26 +3748,26 @@
       <c r="A24" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="10"/>
+      <c r="B26" s="12"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>138</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3310,7 +3775,7 @@
       <c r="A30" t="s">
         <v>141</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3318,54 +3783,54 @@
       <c r="A32" t="s">
         <v>143</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="13" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="1"/>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="5"/>
+      <c r="B35" s="8" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="36" ht="86.4" spans="1:2">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="15" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="37" ht="28.8" spans="1:2">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="13" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B38" s="4"/>
+      <c r="B38" s="6"/>
     </row>
     <row r="39" ht="28.8" spans="1:2">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="13" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3404,61 +3869,61 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="60.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="70.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" ht="57.6" spans="1:2">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" ht="43.2" spans="1:2">
       <c r="A2" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="3" ht="100.8" spans="1:2">
+      <c r="A3" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" ht="28.8" spans="1:2">
       <c r="A4" t="s">
         <v>161</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="5" ht="43.2" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" ht="43.2" spans="1:2">
       <c r="A6" t="s">
         <v>165</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3466,61 +3931,241 @@
       <c r="A7" t="s">
         <v>167</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" ht="28.8" spans="1:2">
       <c r="A8" t="s">
         <v>169</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" ht="28.8" spans="1:2">
       <c r="A9" t="s">
         <v>171</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="10" ht="43.2" spans="1:2">
+      <c r="A10" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row r="11" ht="28.8" spans="1:2">
+      <c r="A11" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" ht="43.2" spans="1:2">
+      <c r="A13" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="B13" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" ht="57.6" spans="1:2">
+      <c r="A14" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" ht="28.8" spans="1:2">
+      <c r="A15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" ht="28.8" spans="1:2">
+      <c r="A16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" ht="28.8" spans="1:2">
+      <c r="A18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" ht="43.2" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" ht="28.8" spans="1:2">
+      <c r="A21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" ht="28.8" spans="1:2">
+      <c r="A22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" ht="43.2" spans="1:2">
+      <c r="A23" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" ht="43.2" spans="1:2">
+      <c r="A24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" ht="28.8" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" ht="28.8" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" ht="43.2" spans="1:2">
+      <c r="A27" t="s">
+        <v>204</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" ht="28.8" spans="1:2">
+      <c r="A28" t="s">
+        <v>206</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" ht="28.8" spans="1:2">
+      <c r="A29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" ht="28.8" spans="1:2">
+      <c r="A31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" ht="100.8" spans="1:2">
+      <c r="A32" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" ht="72" spans="1:2">
+      <c r="A33" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" ht="57.6" spans="1:2">
+      <c r="A34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" ht="28.8" spans="1:2">
+      <c r="A35" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" ht="28.8" spans="1:2">
+      <c r="A36" t="s">
+        <v>221</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>222</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A30:B30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3544,10 +4189,10 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>182</v>
+        <v>223</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3575,25 +4220,25 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="4"/>
+      <c r="A1" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>185</v>
+        <v>226</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>187</v>
+        <v>228</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3617,51 +4262,110 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="70.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="120.777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="4"/>
+      <c r="A1" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>190</v>
+        <v>231</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>194</v>
+        <v>235</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" ht="115.2" spans="2:2">
+      <c r="B9" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" ht="57.6" spans="2:2">
+      <c r="B11" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" ht="28.8" spans="1:2">
+      <c r="A14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" ht="28.8" spans="1:2">
+      <c r="A16" t="s">
+        <v>246</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" ht="28.8" spans="1:2">
+      <c r="A17" t="s">
+        <v>248</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://mybatis.org/mybatis-3/zh/index.html" tooltip="https://mybatis.org/mybatis-3/zh/index.html"/>
@@ -3690,67 +4394,67 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>196</v>
+        <v>249</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>198</v>
+        <v>251</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" s="4"/>
+      <c r="A4" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B7" s="5">
+        <v>259</v>
+      </c>
+      <c r="B7" s="7">
         <v>17817836856</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="B9" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="B10" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3771,7 +4475,7 @@
   <sheetPr/>
   <dimension ref="A2:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -3783,75 +4487,75 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>211</v>
+        <v>264</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>212</v>
+      <c r="A4" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="B7" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
-        <v>220</v>
+      <c r="A8" s="5" t="s">
+        <v>274</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3"/>
+      <c r="A9" s="5"/>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="3"/>
+      <c r="A11" s="5"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>223</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>224</v>
+        <v>277</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>225</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>226</v>
+        <v>279</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/java/SpringBoot.xlsx
+++ b/java/SpringBoot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="321">
   <si>
     <t>全栈技术</t>
   </si>
@@ -512,6 +512,12 @@
     <t>https://blog.csdn.net/weixin_33863087/article/details/89540234</t>
   </si>
   <si>
+    <t>controller</t>
+  </si>
+  <si>
+    <t>控制类</t>
+  </si>
+  <si>
     <t>config</t>
   </si>
   <si>
@@ -792,6 +798,13 @@
 该存储库执行与数据库有关的所有操作</t>
   </si>
   <si>
+    <t>@Transactional(rollbackFor = Exception.class)</t>
+  </si>
+  <si>
+    <t>注在service层方法上
+事务控制</t>
+  </si>
+  <si>
     <t>Spring Boot注解</t>
   </si>
   <si>
@@ -912,7 +925,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">注在属性上
+      <t xml:space="preserve">注在实体类-属性上
 映射的属性的名字  字段别名
 </t>
     </r>
@@ -943,7 +956,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">注在属性上
+      <t xml:space="preserve">注在实体类-属性上
 快照属性字段
 返回的json数据没有该字段
 </t>
@@ -964,21 +977,90 @@
 private Date birth;</t>
   </si>
   <si>
+    <t>注在实体类-属性上
+日期格式化</t>
+  </si>
+  <si>
+    <t>@JsonInclude(JsonInclude.Include.NON_NULL)</t>
+  </si>
+  <si>
+    <t>注在实体类-属性上
+null时，不包含这属性</t>
+  </si>
+  <si>
+    <t>@Documented
+@Retention(RetentionPolicy.RUNTIME)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">是 java 在生成文档，注解显示在文档中
+注解不仅被保存到class文件中，jvm加载class文件之后，仍然存在
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自定义注解用</t>
+    </r>
+  </si>
+  <si>
+    <t>Spring Boot 使用 JSR303 实现参数验证</t>
+  </si>
+  <si>
+    <t>pom.xml</t>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;
+   &lt;groupId&gt;org.springframework.boot&lt;/groupId&gt;
+   &lt;artifactId&gt;spring-boot-starter-validation&lt;/artifactId&gt;
+  &lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>@Validated</t>
+  </si>
+  <si>
+    <t>注在类上
+约束注解 JSR-303数据校验
+注在方法形参上
+@Validated User user</t>
+  </si>
+  <si>
+    <t>@NotBlank(message = "用户名不能为空！")
+@Length(message = "名称不能超过个 {max} 字符", max = 10)
+private String username;</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>@Min(value = 1, message = "年龄有误！")
+@Max(value = 120, message = "年龄有误！")
+private int age;
+或
+@Range(message = "年龄范围为 {min} 到 {max} 之间", min = 1, max = 100)</t>
+  </si>
+  <si>
+    <t>手机号</t>
+  </si>
+  <si>
+    <t>@Pattern(regexp = "^(13[0-9]|14[579]|15[0-3,5-9]|16[6]|17[0135678]|18[0-9]|19[89])\\d{8}$",message = "手机号码有误！")
+private String mobile;</t>
+  </si>
+  <si>
+    <t>@Valid验证对象</t>
+  </si>
+  <si>
     <t>注在属性上
-日期格式化</t>
-  </si>
-  <si>
-    <t>@JsonInclude(JsonInclude.Include.NON_NULL)</t>
-  </si>
-  <si>
-    <t>注在属性上
-null时，不包含这属性</t>
-  </si>
-  <si>
-    <t>Spring Boot 使用 JSR303 实现参数验证</t>
-  </si>
-  <si>
-    <t>https://baijiahao.baidu.com/s?id=1667085036607407293&amp;wfr=spider&amp;for=pc</t>
+@NotNull(message = "队伍人员不能为空！")
+@Valid
+private List&lt;User1Dto&gt; userList;
+注在方法形参上
+@Valid User user</t>
   </si>
   <si>
     <t>JDBC操作Mysql</t>
@@ -1065,6 +1147,13 @@
     <t>@Delete("delete from sys_user_role where role_id = #{roleId}")</t>
   </si>
   <si>
+    <t>@DS("account")</t>
+  </si>
+  <si>
+    <t>注在service层类或方法上
+切换数据源</t>
+  </si>
+  <si>
     <t>JAVA项目上线发布步骤流程</t>
   </si>
   <si>
@@ -1095,9 +1184,6 @@
     <t>Lu123789</t>
   </si>
   <si>
-    <t>手机号</t>
-  </si>
-  <si>
     <t>实名认证</t>
   </si>
   <si>
@@ -1177,9 +1263,6 @@
   </si>
   <si>
     <t>可以用简单的注解形式来简化代码，提高开发效率</t>
-  </si>
-  <si>
-    <t>pom.xml</t>
   </si>
   <si>
     <t>&lt;dependency&gt;
@@ -1950,15 +2033,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1973,9 +2059,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2520,6 +2603,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2578100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>128905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="ali36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620" y="4953000"/>
+          <a:ext cx="6052820" cy="5965825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -2809,7 +2935,7 @@
   <sheetPr/>
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
+    <sheetView topLeftCell="A68" workbookViewId="0">
       <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
@@ -2873,7 +2999,7 @@
     </row>
     <row r="9" ht="43.2" spans="1:2">
       <c r="A9" s="5"/>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3070,7 +3196,7 @@
       <c r="A72" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3135,18 +3261,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -3176,88 +3302,88 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="B2" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" ht="86.4" spans="1:2">
       <c r="A4" t="s">
-        <v>287</v>
+        <v>230</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="B9" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:2">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="B11" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="B12" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="B13" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="B14" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="B15" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="B16" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -3274,7 +3400,7 @@
   <sheetPr/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
@@ -3412,7 +3538,7 @@
       <c r="A19" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3621,8 +3747,8 @@
   <sheetPr/>
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3681,110 +3807,118 @@
         <v>120</v>
       </c>
     </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+    </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" s="11"/>
+      <c r="A16" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="12"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="8"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="22" ht="72" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5"/>
       <c r="B23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B26" s="12"/>
+      <c r="A26" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="13"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" ht="43.2" spans="1:2">
       <c r="A32" t="s">
-        <v>143</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="2:2">
@@ -3792,51 +3926,51 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="5"/>
-      <c r="B35" s="8" t="s">
-        <v>147</v>
+      <c r="B35" s="9" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="36" ht="86.4" spans="1:2">
-      <c r="A36" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>149</v>
+      <c r="A36" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="37" ht="28.8" spans="1:2">
-      <c r="A37" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>151</v>
+      <c r="A37" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B38" s="6"/>
     </row>
     <row r="39" ht="28.8" spans="1:2">
-      <c r="A39" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>154</v>
+      <c r="A39" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3869,10 +4003,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3883,289 +4017,305 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" ht="43.2" spans="1:2">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" ht="100.8" spans="1:2">
-      <c r="A3" s="9" t="s">
-        <v>159</v>
+      <c r="A3" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:2">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" ht="43.2" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:2">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:2">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:2">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" ht="28.8" spans="1:2">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" ht="43.2" spans="1:2">
-      <c r="A10" s="9" t="s">
-        <v>173</v>
+      <c r="A10" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" ht="28.8" spans="1:2">
-      <c r="A11" s="9" t="s">
-        <v>175</v>
+      <c r="A11" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13" ht="43.2" spans="1:2">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" ht="57.6" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" ht="28.8" spans="1:2">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:2">
       <c r="A16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" ht="28.8" spans="1:2">
-      <c r="A18" t="s">
         <v>187</v>
       </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="17" ht="28.8" spans="1:2">
+      <c r="A17" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" ht="43.2" spans="1:2">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" ht="28.8" spans="1:2">
+      <c r="A19" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="21" ht="28.8" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B19" s="1" t="s">
         <v>192</v>
       </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" ht="43.2" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="B21" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" ht="28.8" spans="1:2">
       <c r="A22" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" ht="43.2" spans="1:2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" ht="28.8" spans="1:2">
       <c r="A23" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" ht="43.2" spans="1:2">
       <c r="A24" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="25" ht="28.8" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" ht="43.2" spans="1:2">
+      <c r="A25" t="s">
+        <v>202</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" ht="28.8" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" ht="43.2" spans="1:2">
-      <c r="A27" t="s">
-        <v>204</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" ht="28.8" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="28" ht="28.8" spans="1:2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" ht="43.2" spans="1:2">
       <c r="A28" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" ht="28.8" spans="1:2">
       <c r="A29" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" ht="28.8" spans="1:2">
-      <c r="A31" t="s">
         <v>211</v>
       </c>
-      <c r="B31" s="1" t="s">
+    </row>
+    <row r="30" ht="28.8" spans="1:2">
+      <c r="A30" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="32" ht="100.8" spans="1:2">
-      <c r="A32" s="9" t="s">
+      <c r="B30" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B32" s="9" t="s">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="33" ht="72" spans="1:2">
-      <c r="A33" s="9" t="s">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" ht="28.8" spans="1:2">
+      <c r="A32" t="s">
         <v>215</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B32" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="34" ht="57.6" spans="1:2">
-      <c r="A34" t="s">
+    <row r="33" ht="100.8" spans="1:2">
+      <c r="A33" s="1" t="s">
         <v>217</v>
       </c>
+      <c r="B33" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" ht="72" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="B34" s="10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="35" ht="28.8" spans="1:2">
-      <c r="A35" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="B35" s="9" t="s">
         <v>220</v>
       </c>
     </row>
+    <row r="35" ht="57.6" spans="1:2">
+      <c r="A35" t="s">
+        <v>221</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
     <row r="36" ht="28.8" spans="1:2">
-      <c r="A36" t="s">
-        <v>221</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>222</v>
+      <c r="A36" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" ht="28.8" spans="1:2">
+      <c r="A37" t="s">
+        <v>225</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" ht="43.2" spans="1:2">
+      <c r="A38" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A31:B31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4175,32 +4325,77 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="50.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" ht="57.6" spans="1:2">
       <c r="A2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" ht="57.6" spans="1:2">
+      <c r="A3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" ht="43.2" spans="1:2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" ht="72" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8" spans="1:2">
+      <c r="A6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" ht="86.4" spans="1:2">
+      <c r="A7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://baijiahao.baidu.com/s?id=1667085036607407293&amp;wfr=spider&amp;for=pc" tooltip="https://baijiahao.baidu.com/s?id=1667085036607407293&amp;wfr=spider&amp;for=pc"/>
-  </hyperlinks>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4221,24 +4416,24 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>227</v>
+        <v>242</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4262,10 +4457,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B21" sqref="B20:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -4276,90 +4471,98 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" ht="115.2" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" ht="57.6" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" ht="28.8" spans="1:2">
       <c r="A14" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="B15" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:2">
       <c r="A16" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" ht="28.8" spans="1:2">
       <c r="A17" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>247</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" ht="28.8" spans="1:2">
+      <c r="A18" t="s">
+        <v>265</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -4394,48 +4597,48 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="B7" s="7">
         <v>17817836856</v>
@@ -4443,18 +4646,18 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="B9" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -4487,56 +4690,56 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="B5" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="B7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="B8" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5"/>
       <c r="B9" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -4544,18 +4747,18 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/java/SpringBoot.xlsx
+++ b/java/SpringBoot.xlsx
@@ -925,6 +925,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">注在实体类-属性上
 映射的属性的名字  字段别名
 </t>
@@ -956,6 +963,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">注在实体类-属性上
 快照属性字段
 返回的json数据没有该字段
@@ -993,6 +1007,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">是 java 在生成文档，注解显示在文档中
 注解不仅被保存到class文件中，jvm加载class文件之后，仍然存在
 </t>
@@ -2008,7 +2029,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2033,14 +2054,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2954,10 +2969,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="16"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
@@ -2999,7 +3014,7 @@
     </row>
     <row r="9" ht="43.2" spans="1:2">
       <c r="A9" s="5"/>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3018,10 +3033,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="16"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
@@ -3043,22 +3058,22 @@
       <c r="A15" s="4"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="22"/>
+      <c r="A16" s="20"/>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="4"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="17"/>
+      <c r="B18" s="15"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="20" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3106,34 +3121,34 @@
       <c r="A43" s="4"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="23"/>
+      <c r="A44" s="21"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="23"/>
+      <c r="A45" s="21"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="23"/>
+      <c r="A46" s="21"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="23"/>
+      <c r="A47" s="21"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="23"/>
+      <c r="A48" s="21"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="23"/>
+      <c r="A49" s="21"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="23"/>
+      <c r="A50" s="21"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="23"/>
+      <c r="A51" s="21"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="23"/>
+      <c r="A52" s="21"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B53" t="s">
@@ -3141,16 +3156,16 @@
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="23"/>
+      <c r="A54" s="21"/>
       <c r="B54" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B66" s="18"/>
+      <c r="B66" s="16"/>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
@@ -3412,10 +3427,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -3513,10 +3528,10 @@
       <c r="A15" s="5"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="16"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
@@ -3538,7 +3553,7 @@
       <c r="A19" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3623,66 +3638,66 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="18" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="18" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="18" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="18" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="18" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3696,10 +3711,10 @@
       <c r="B38" s="1"/>
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:2">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="18"/>
+      <c r="B40" s="16"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
@@ -3840,10 +3855,10 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="10"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
@@ -3862,7 +3877,7 @@
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="9"/>
+      <c r="B19" s="8"/>
     </row>
     <row r="22" ht="72" spans="1:2">
       <c r="A22" s="5" t="s">
@@ -3887,10 +3902,10 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="13"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
@@ -3917,7 +3932,7 @@
       <c r="A32" t="s">
         <v>145</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="12" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3934,23 +3949,23 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="5"/>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="36" ht="86.4" spans="1:2">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="14" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="37" ht="28.8" spans="1:2">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="12" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3961,10 +3976,10 @@
       <c r="B38" s="6"/>
     </row>
     <row r="39" ht="28.8" spans="1:2">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="12" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4005,8 +4020,8 @@
   <sheetPr/>
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -4273,7 +4288,7 @@
       <c r="A34" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4281,7 +4296,7 @@
       <c r="A35" t="s">
         <v>221</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4302,10 +4317,10 @@
       </c>
     </row>
     <row r="38" ht="43.2" spans="1:2">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="9" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4424,7 +4439,7 @@
       <c r="A2" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>243</v>
       </c>
     </row>
@@ -4561,7 +4576,7 @@
       <c r="A18" t="s">
         <v>265</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="1" t="s">
         <v>266</v>
       </c>
     </row>

--- a/java/SpringBoot.xlsx
+++ b/java/SpringBoot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="8820" tabRatio="689" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="323">
   <si>
     <t>全栈技术</t>
   </si>
@@ -660,6 +660,12 @@
   <si>
     <t>https://github.com/jeecgboot/jeecg-boot
 http://doc.jeecg.com/2043868</t>
+  </si>
+  <si>
+    <t>Java 面试</t>
+  </si>
+  <si>
+    <t>https://github.com/Snailclimb/JavaGuide</t>
   </si>
   <si>
     <t>jar包下载</t>
@@ -2029,7 +2035,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2074,6 +2080,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2969,10 +2978,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="17"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
@@ -3033,10 +3042,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="17"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
@@ -3058,22 +3067,22 @@
       <c r="A15" s="4"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="4"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="16"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="21" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3121,34 +3130,34 @@
       <c r="A43" s="4"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="21"/>
+      <c r="A44" s="22"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="21"/>
+      <c r="A45" s="22"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="21"/>
+      <c r="A46" s="22"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="21"/>
+      <c r="A47" s="22"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="21"/>
+      <c r="A48" s="22"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="21"/>
+      <c r="A49" s="22"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="21"/>
+      <c r="A50" s="22"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="21"/>
+      <c r="A51" s="22"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="21"/>
+      <c r="A52" s="22"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B53" t="s">
@@ -3156,16 +3165,16 @@
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="21"/>
+      <c r="A54" s="22"/>
       <c r="B54" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B66" s="16"/>
+      <c r="B66" s="17"/>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
@@ -3276,18 +3285,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -3317,88 +3326,88 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" ht="86.4" spans="1:2">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B9" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:2">
       <c r="A10" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B11" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B12" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B13" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B14" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B15" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B16" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -3427,10 +3436,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -3528,10 +3537,10 @@
       <c r="A15" s="5"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="17"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
@@ -3638,66 +3647,66 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19" t="s">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="19" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="19" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="19" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="19" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3711,10 +3720,10 @@
       <c r="B38" s="1"/>
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:2">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="16"/>
+      <c r="B40" s="17"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
@@ -3760,10 +3769,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3970,29 +3979,37 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B38" s="6"/>
-    </row>
-    <row r="39" ht="28.8" spans="1:2">
-      <c r="A39" s="13" t="s">
+      <c r="B38" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="B39" s="12" t="s">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="6" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" ht="28.8" spans="1:2">
+      <c r="A40" s="13" t="s">
         <v>157</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A34:A35"/>
@@ -4004,11 +4021,12 @@
     <hyperlink ref="B28" r:id="rId4" display="https://github.com/Heeexy/SpringBoot-Shiro-Vue"/>
     <hyperlink ref="B30" r:id="rId5" display="https://github.com/Haigehit/springboot-vue-shiro"/>
     <hyperlink ref="B32" r:id="rId6" display="https://github.com/macrozheng/mall&#10;账号：admin&#10;密码：macro123"/>
-    <hyperlink ref="B39" r:id="rId7" display="https://mvnrepository.com/" tooltip="https://mvnrepository.com/"/>
+    <hyperlink ref="B40" r:id="rId7" display="https://mvnrepository.com/" tooltip="https://mvnrepository.com/"/>
     <hyperlink ref="B24" r:id="rId8" display="https://www.apipost.cn/"/>
     <hyperlink ref="B34" r:id="rId9" display="https://github.com/jiadabin/tuling-single-mall"/>
     <hyperlink ref="B35" r:id="rId10" display="https://github.com/AitKen-maoer/tuling_mall_web_admin"/>
     <hyperlink ref="B37" r:id="rId11" display="https://github.com/jeecgboot/jeecg-boot&#10;http://doc.jeecg.com/2043868" tooltip="http://doc.jeecg.com/2043868"/>
+    <hyperlink ref="B38" r:id="rId12" display="https://github.com/Snailclimb/JavaGuide"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4020,7 +4038,7 @@
   <sheetPr/>
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -4032,296 +4050,296 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" ht="43.2" spans="1:2">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" ht="100.8" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:2">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" ht="43.2" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:2">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:2">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:2">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" ht="28.8" spans="1:2">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" ht="43.2" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" ht="28.8" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13" ht="43.2" spans="1:2">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" ht="57.6" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" ht="28.8" spans="1:2">
       <c r="A15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:2">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" ht="28.8" spans="1:2">
       <c r="A17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19" ht="28.8" spans="1:2">
       <c r="A19" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21" ht="43.2" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" ht="28.8" spans="1:2">
       <c r="A22" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" ht="28.8" spans="1:2">
       <c r="A23" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" ht="43.2" spans="1:2">
       <c r="A24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" ht="43.2" spans="1:2">
       <c r="A25" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" ht="28.8" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" ht="28.8" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" ht="43.2" spans="1:2">
       <c r="A28" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" ht="28.8" spans="1:2">
       <c r="A29" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" ht="28.8" spans="1:2">
       <c r="A30" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B31" s="2"/>
     </row>
     <row r="32" ht="28.8" spans="1:2">
       <c r="A32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" ht="100.8" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" ht="72" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" ht="57.6" spans="1:2">
       <c r="A35" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" ht="28.8" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" ht="28.8" spans="1:2">
       <c r="A37" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" ht="43.2" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4354,54 +4372,54 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" ht="57.6" spans="1:2">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" ht="57.6" spans="1:2">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="1:2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" ht="72" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:2">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" ht="86.4" spans="1:2">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -4431,24 +4449,24 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4486,98 +4504,98 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" ht="115.2" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" ht="57.6" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" ht="28.8" spans="1:2">
       <c r="A14" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B15" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:2">
       <c r="A16" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" ht="28.8" spans="1:2">
       <c r="A17" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" ht="28.8" spans="1:2">
       <c r="A18" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -4612,48 +4630,48 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B7" s="7">
         <v>17817836856</v>
@@ -4661,18 +4679,18 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -4705,56 +4723,56 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5"/>
       <c r="B9" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -4762,18 +4780,18 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/java/SpringBoot.xlsx
+++ b/java/SpringBoot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820" tabRatio="689" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="327">
   <si>
     <t>全栈技术</t>
   </si>
@@ -1289,7 +1289,19 @@
     <t>lombok工具类库</t>
   </si>
   <si>
-    <t>可以用简单的注解形式来简化代码，提高开发效率</t>
+    <r>
+      <t>可以用简单的注解形式来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>简化代码，提高开发效率</t>
+    </r>
   </si>
   <si>
     <t>&lt;dependency&gt;
@@ -1300,6 +1312,25 @@
   &lt;/dependency&gt;</t>
   </si>
   <si>
+    <t>实体类生成构造器或get set或toString</t>
+  </si>
+  <si>
+    <r>
+      <t>方式1：鼠标右击---Generate     ----手动不方便，加个字段就得再次手动
+方式2：在类上@Setter、@Getter、@ToString   ----自动，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>推荐</t>
+    </r>
+  </si>
+  <si>
     <t>@EqualsAndHashCode</t>
   </si>
   <si>
@@ -1334,13 +1365,85 @@
     <t>@Setter</t>
   </si>
   <si>
-    <t>注在属性上，提供 set 方法</t>
+    <r>
+      <t>注在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或属性上，提供 set 方法</t>
+    </r>
   </si>
   <si>
     <t>@Getter</t>
   </si>
   <si>
-    <t>注在属性上，提供 get 方法</t>
+    <r>
+      <t>注在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或属性上，提供 get 方法</t>
+    </r>
+  </si>
+  <si>
+    <t>@ToString</t>
+  </si>
+  <si>
+    <r>
+      <t>注在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或属性上，提供 ToString 方法</t>
+    </r>
   </si>
   <si>
     <t>@Log4j/@Slf4j</t>
@@ -1368,18 +1471,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1917,7 +2020,7 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2035,20 +2138,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2075,13 +2184,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2099,10 +2208,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2978,16 +3084,16 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="19"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3008,7 +3114,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
@@ -3016,19 +3122,19 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" ht="43.2" spans="1:2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="7"/>
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -3042,10 +3148,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="19"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
@@ -3064,30 +3170,30 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="4"/>
+      <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="21"/>
+      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="4"/>
+      <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="16"/>
+      <c r="B18" s="18"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="4"/>
+      <c r="A21" s="3"/>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
@@ -3095,69 +3201,69 @@
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="4"/>
+      <c r="A33" s="3"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="4"/>
+      <c r="A34" s="3"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="4"/>
+      <c r="A35" s="3"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="4"/>
+      <c r="A36" s="3"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="4"/>
+      <c r="A37" s="3"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="4"/>
+      <c r="A38" s="3"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="4"/>
+      <c r="A39" s="3"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="4"/>
+      <c r="A40" s="3"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="4"/>
+      <c r="A41" s="3"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="4"/>
+      <c r="A43" s="3"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="22"/>
+      <c r="A44" s="23"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="22"/>
+      <c r="A45" s="23"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="22"/>
+      <c r="A46" s="23"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="22"/>
+      <c r="A47" s="23"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="22"/>
+      <c r="A48" s="23"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="22"/>
+      <c r="A49" s="23"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="22"/>
+      <c r="A50" s="23"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="22"/>
+      <c r="A51" s="23"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="22"/>
+      <c r="A52" s="23"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B53" t="s">
@@ -3165,19 +3271,19 @@
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="22"/>
+      <c r="A54" s="23"/>
       <c r="B54" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B66" s="17"/>
+      <c r="B66" s="19"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B67" t="s">
@@ -3201,34 +3307,34 @@
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="72" ht="28.8" spans="1:2">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B78" s="5"/>
+      <c r="B78" s="7"/>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
@@ -3287,7 +3393,7 @@
       <c r="A1" t="s">
         <v>300</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>301</v>
       </c>
     </row>
@@ -3295,7 +3401,7 @@
       <c r="A2" t="s">
         <v>302</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3312,10 +3418,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B16"/>
+  <dimension ref="A2:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3328,7 +3434,7 @@
       <c r="A2" t="s">
         <v>304</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>305</v>
       </c>
     </row>
@@ -3336,78 +3442,94 @@
       <c r="A4" t="s">
         <v>232</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>306</v>
       </c>
     </row>
+    <row r="6" ht="28.8" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B9" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:2">
       <c r="A10" t="s">
-        <v>309</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B11" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B12" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B13" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>317</v>
-      </c>
-      <c r="B14" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>319</v>
-      </c>
-      <c r="B15" t="s">
-        <v>320</v>
+        <v>321</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>321</v>
-      </c>
-      <c r="B16" t="s">
-        <v>322</v>
+        <v>323</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>325</v>
+      </c>
+      <c r="B17" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -3436,10 +3558,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -3466,15 +3588,15 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B6" t="s">
@@ -3482,13 +3604,13 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B8" t="s">
@@ -3496,7 +3618,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B9" t="s">
@@ -3504,7 +3626,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B10" t="s">
@@ -3512,7 +3634,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B11" t="s">
@@ -3520,7 +3642,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B12" t="s">
@@ -3528,19 +3650,19 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="5"/>
+      <c r="A13" s="7"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="5"/>
+      <c r="A14" s="7"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="5"/>
+      <c r="A15" s="7"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="17"/>
+      <c r="B16" s="19"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
@@ -3562,7 +3684,7 @@
       <c r="A19" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="10" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3578,7 +3700,7 @@
       <c r="A21" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3586,7 +3708,7 @@
       <c r="A22" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3594,7 +3716,7 @@
       <c r="A23" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3602,7 +3724,7 @@
       <c r="A24" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3610,7 +3732,7 @@
       <c r="A25" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3618,7 +3740,7 @@
       <c r="A26" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3626,7 +3748,7 @@
       <c r="A27" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3634,96 +3756,96 @@
       <c r="A28" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="29" ht="150" customHeight="1" spans="1:2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="21" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="21" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="21" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="21" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="21" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="21" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="1"/>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="1"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="1"/>
+      <c r="B38" s="2"/>
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:2">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="17"/>
+      <c r="B40" s="19"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
@@ -3737,7 +3859,7 @@
       <c r="A42" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="6" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3771,7 +3893,7 @@
   <sheetPr/>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -3782,15 +3904,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B2" t="s">
@@ -3798,19 +3920,19 @@
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>116</v>
       </c>
@@ -3827,7 +3949,7 @@
       <c r="A8" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3864,10 +3986,10 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="12"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
@@ -3886,18 +4008,18 @@
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="8"/>
+      <c r="B19" s="10"/>
     </row>
     <row r="22" ht="72" spans="1:2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="5"/>
+      <c r="A23" s="7"/>
       <c r="B23" t="s">
         <v>136</v>
       </c>
@@ -3906,26 +4028,26 @@
       <c r="A24" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="6" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="13"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="6" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3933,7 +4055,7 @@
       <c r="A30" t="s">
         <v>143</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="6" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3941,62 +4063,62 @@
       <c r="A32" t="s">
         <v>145</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="14" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="3"/>
+      <c r="B33" s="6"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="8" t="s">
+      <c r="A35" s="7"/>
+      <c r="B35" s="10" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="36" ht="86.4" spans="1:2">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="16" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="37" ht="28.8" spans="1:2">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="14" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="17" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B39" s="6"/>
+      <c r="B39" s="8"/>
     </row>
     <row r="40" ht="28.8" spans="1:2">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="14" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4038,7 +4160,7 @@
   <sheetPr/>
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -4049,24 +4171,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" ht="43.2" spans="1:2">
       <c r="A2" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="3" ht="100.8" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4074,15 +4196,15 @@
       <c r="A4" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="5" ht="43.2" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4090,7 +4212,7 @@
       <c r="A6" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4098,7 +4220,7 @@
       <c r="A7" t="s">
         <v>171</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4106,7 +4228,7 @@
       <c r="A8" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4114,45 +4236,45 @@
       <c r="A9" t="s">
         <v>175</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="10" ht="43.2" spans="1:2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="11" ht="28.8" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" ht="43.2" spans="1:2">
       <c r="A13" t="s">
         <v>182</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="14" ht="57.6" spans="1:2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4160,7 +4282,7 @@
       <c r="A15" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4168,7 +4290,7 @@
       <c r="A16" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4176,35 +4298,35 @@
       <c r="A17" t="s">
         <v>190</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" ht="28.8" spans="1:2">
       <c r="A19" t="s">
         <v>193</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" ht="43.2" spans="1:2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4212,7 +4334,7 @@
       <c r="A22" t="s">
         <v>198</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4220,7 +4342,7 @@
       <c r="A23" t="s">
         <v>200</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>201</v>
       </c>
     </row>
@@ -4228,7 +4350,7 @@
       <c r="A24" t="s">
         <v>202</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4236,23 +4358,23 @@
       <c r="A25" t="s">
         <v>204</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="26" ht="28.8" spans="1:2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="27" ht="28.8" spans="1:2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4260,7 +4382,7 @@
       <c r="A28" t="s">
         <v>210</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4268,7 +4390,7 @@
       <c r="A29" t="s">
         <v>212</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4276,37 +4398,37 @@
       <c r="A30" t="s">
         <v>214</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="5"/>
     </row>
     <row r="32" ht="28.8" spans="1:2">
       <c r="A32" t="s">
         <v>217</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="33" ht="100.8" spans="1:2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="34" ht="72" spans="1:2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="11" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4314,15 +4436,15 @@
       <c r="A35" t="s">
         <v>223</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="11" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="36" ht="28.8" spans="1:2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4330,15 +4452,15 @@
       <c r="A37" t="s">
         <v>227</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="38" ht="43.2" spans="1:2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="11" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4371,16 +4493,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" ht="57.6" spans="1:2">
       <c r="A2" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4388,21 +4510,21 @@
       <c r="A3" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="5" ht="72" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4410,7 +4532,7 @@
       <c r="A6" t="s">
         <v>239</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4418,7 +4540,7 @@
       <c r="A7" t="s">
         <v>241</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4448,16 +4570,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>244</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4465,7 +4587,7 @@
       <c r="A3" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4503,16 +4625,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>249</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4528,12 +4650,12 @@
       <c r="A6" t="s">
         <v>253</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="9" ht="115.2" spans="2:2">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4543,7 +4665,7 @@
       </c>
     </row>
     <row r="11" ht="57.6" spans="2:2">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>257</v>
       </c>
     </row>
@@ -4553,16 +4675,16 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" ht="28.8" spans="1:2">
       <c r="A14" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4578,7 +4700,7 @@
       <c r="A16" t="s">
         <v>264</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4586,7 +4708,7 @@
       <c r="A17" t="s">
         <v>266</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4594,7 +4716,7 @@
       <c r="A18" t="s">
         <v>267</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>268</v>
       </c>
     </row>
@@ -4632,7 +4754,7 @@
       <c r="A1" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4640,7 +4762,7 @@
       <c r="A2" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>272</v>
       </c>
       <c r="C2" t="s">
@@ -4648,10 +4770,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="8"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
@@ -4673,7 +4795,7 @@
       <c r="A7" t="s">
         <v>239</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="9">
         <v>17817836856</v>
       </c>
     </row>
@@ -4725,12 +4847,12 @@
       <c r="A2" t="s">
         <v>283</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>285</v>
       </c>
       <c r="B4" t="s">
@@ -4762,7 +4884,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>293</v>
       </c>
       <c r="B8" t="s">
@@ -4770,19 +4892,19 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="7"/>
       <c r="B9" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="5"/>
+      <c r="A11" s="7"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>296</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>297</v>
       </c>
     </row>
@@ -4790,7 +4912,7 @@
       <c r="A14" t="s">
         <v>298</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>299</v>
       </c>
     </row>

--- a/java/SpringBoot.xlsx
+++ b/java/SpringBoot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689" firstSheet="2" activeTab="10"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="341">
   <si>
     <t>全栈技术</t>
   </si>
@@ -212,6 +212,9 @@
     <t>idea中文简体版</t>
   </si>
   <si>
+    <t>idea安装maven helper插件：maven报错指引</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -804,7 +807,14 @@
 该存储库执行与数据库有关的所有操作</t>
   </si>
   <si>
-    <t>@Transactional(rollbackFor = Exception.class)</t>
+    <t>@Transactional(rollbackFor = Exception.class)
+public void testTran() {
+  // sql操作
+  // sql操作
+  Integer.parseInt("hello");//自定义异常
+  // sql操作
+  return;
+ }</t>
   </si>
   <si>
     <t>注在service层方法上
@@ -1036,6 +1046,97 @@
     </r>
   </si>
   <si>
+    <t>数据脱敏</t>
+  </si>
+  <si>
+    <t>将一些敏感信息通过加密、格式化等方式处理，展示给用户一个新的或是格式化后的信息，避免了敏感信息的暴露</t>
+  </si>
+  <si>
+    <t>/**
+ * 登录人密码
+ */
+@SensitiveField(type = SensitiveEnum.ENCODE)
+private String password;
+/**
+ * 电子邮件
+ */
+@SensitiveField(type = SensitiveEnum.EMAIL)
+private String email;
+/**
+ * 电话
+ */
+@SensitiveField(type = SensitiveEnum.MOBILE_PHONE)
+private String phone;</t>
+  </si>
+  <si>
+    <t>注在实体类-属性上
+表示该字段需要脱敏处理</t>
+  </si>
+  <si>
+    <t>@SensitiveEncode
+public LoginUser getEncodeUserInfo(String username){
+   LoginUser loginUser = new LoginUser();
+   SysUser sysUser = userMapper.getUserByName(username);
+   if(sysUser==null) {
+      return null;
+   }
+   BeanUtils.copyProperties(sysUser, loginUser);
+   return loginUser;
+}</t>
+  </si>
+  <si>
+    <t>注在方法上
+脱敏加密注解
+表示该方法的返回值需要脱敏加密</t>
+  </si>
+  <si>
+    <t>@SensitiveDecode
+public LoginUser getEncodeUserInfo(String username){
+   LoginUser loginUser = new LoginUser();
+   SysUser sysUser = userMapper.getUserByName(username);
+   if(sysUser==null) {
+      return null;
+   }
+   BeanUtils.copyProperties(sysUser, loginUser);
+   return loginUser;
+}</t>
+  </si>
+  <si>
+    <t>注在方法上
+脱敏解密注解
+表示该方法的返回值需要解密</t>
+  </si>
+  <si>
+    <t>动态数据源使用</t>
+  </si>
+  <si>
+    <t>application.yml
+master 为主数据源，系统默认数据源
+swan：自定义的第三方数据源，swan名称随便定义</t>
+  </si>
+  <si>
+    <t>datasource:
+   datasource: 
+          master: 
+            url: jdbc:mysql://127.0.0.1:3306/jeecg-boot?**=**
+            username: root
+            password: root
+            driver-class-name: com.mysql.jdbc.Driver   
+          swan: 
+            url: jdbc:mysql://localhost:3306/jeecg-boot2?**=**
+            username: root
+            password: root
+            driver-class-name: com.mysql.jdbc.Driver</t>
+  </si>
+  <si>
+    <t>@DS("swan")</t>
+  </si>
+  <si>
+    <t>注在类或方法上   注解在service实现或mapper接口方法上,二选一
+切换数据源
+没有@DS   默认数据源</t>
+  </si>
+  <si>
     <t>Spring Boot 使用 JSR303 实现参数验证</t>
   </si>
   <si>
@@ -1290,6 +1391,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>可以用简单的注解形式来</t>
     </r>
     <r>
@@ -1316,6 +1424,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>方式1：鼠标右击---Generate     ----手动不方便，加个字段就得再次手动
 方式2：在类上@Setter、@Getter、@ToString   ----自动，</t>
     </r>
@@ -1366,6 +1481,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>注在</t>
     </r>
     <r>
@@ -1394,6 +1516,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>注在</t>
     </r>
     <r>
@@ -1422,6 +1551,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>注在</t>
     </r>
     <r>
@@ -1658,6 +1794,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="1" tint="0.35"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1773,12 +1915,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1996,10 +2132,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2008,16 +2144,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2029,10 +2165,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2053,28 +2189,28 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2083,16 +2219,16 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2138,7 +2274,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2172,13 +2308,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
@@ -2193,19 +2332,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2730,6 +2869,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>995045</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8" descr="ali37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620" y="18844260"/>
+          <a:ext cx="4469765" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3828415</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>29210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9" descr="ali38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4930140" y="18829020"/>
+          <a:ext cx="2380615" cy="2048510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3063,10 +3278,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -3084,10 +3299,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="20"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
@@ -3129,7 +3344,7 @@
     </row>
     <row r="9" ht="43.2" spans="1:2">
       <c r="A9" s="7"/>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3148,10 +3363,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="20"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
@@ -3179,10 +3394,10 @@
       <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="19"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
@@ -3236,34 +3451,34 @@
       <c r="A43" s="3"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="23"/>
+      <c r="A44" s="24"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="23"/>
+      <c r="A45" s="24"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="23"/>
+      <c r="A46" s="24"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="23"/>
+      <c r="A47" s="24"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="23"/>
+      <c r="A48" s="24"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="23"/>
+      <c r="A49" s="24"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="23"/>
+      <c r="A50" s="24"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="23"/>
+      <c r="A51" s="24"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="23"/>
+      <c r="A52" s="24"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="24" t="s">
         <v>24</v>
       </c>
       <c r="B53" t="s">
@@ -3271,16 +3486,16 @@
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="23"/>
+      <c r="A54" s="24"/>
       <c r="B54" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B66" s="19"/>
+      <c r="B66" s="20"/>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="3" t="s">
@@ -3352,6 +3567,11 @@
     <row r="90" spans="1:1">
       <c r="A90" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3391,18 +3611,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3420,7 +3640,7 @@
   <sheetPr/>
   <dimension ref="A2:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -3432,104 +3652,104 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" ht="86.4" spans="1:2">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="B9" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:2">
       <c r="A10" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="B11" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="B12" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="B13" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="B17" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -3558,95 +3778,95 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A1" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="19"/>
+      <c r="A1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7"/>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -3659,177 +3879,177 @@
       <c r="A15" s="7"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:2">
-      <c r="A16" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="19"/>
+      <c r="A16" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="20"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" ht="28.8" spans="1:2">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" ht="28.8" spans="1:2">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" ht="57.6" spans="1:2">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="150" customHeight="1" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="21" t="s">
+      <c r="A30" s="22"/>
+      <c r="B30" s="23" t="s">
         <v>93</v>
       </c>
+      <c r="C30" s="22" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="22" t="s">
+      <c r="A31" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="B31" s="23" t="s">
         <v>96</v>
       </c>
+      <c r="C31" s="22" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="22" t="s">
+      <c r="A32" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="B32" s="23" t="s">
         <v>99</v>
       </c>
+      <c r="C32" s="22" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="C33" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="21" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="21" t="s">
+      <c r="A34" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="23" t="s">
         <v>99</v>
       </c>
+      <c r="C34" s="22" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="21" t="s">
+      <c r="A35" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="23" t="s">
         <v>99</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -3842,33 +4062,33 @@
       <c r="B38" s="2"/>
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:2">
-      <c r="A40" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B40" s="19"/>
+      <c r="A40" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="20"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3905,106 +4125,106 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7"/>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7"/>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="12"/>
+      <c r="A16" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="13"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="2:2">
@@ -4012,59 +4232,59 @@
     </row>
     <row r="22" ht="72" spans="1:2">
       <c r="A22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="7"/>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" s="13"/>
+      <c r="A26" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="14"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" ht="43.2" spans="1:2">
       <c r="A32" t="s">
-        <v>145</v>
-      </c>
-      <c r="B32" s="14" t="s">
         <v>146</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="2:2">
@@ -4072,59 +4292,59 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="7"/>
       <c r="B35" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" ht="86.4" spans="1:2">
-      <c r="A36" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="B36" s="16" t="s">
+      <c r="A36" s="16" t="s">
         <v>151</v>
       </c>
+      <c r="B36" s="17" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="37" ht="28.8" spans="1:2">
-      <c r="A37" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B37" s="14" t="s">
+      <c r="A37" s="4" t="s">
         <v>153</v>
       </c>
+      <c r="B37" s="15" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B38" s="17" t="s">
+      <c r="A38" s="4" t="s">
         <v>155</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B39" s="8"/>
     </row>
     <row r="40" ht="28.8" spans="1:2">
-      <c r="A40" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B40" s="14" t="s">
+      <c r="A40" s="16" t="s">
         <v>158</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4158,10 +4378,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -4172,305 +4392,367 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B1" s="5"/>
     </row>
     <row r="2" ht="43.2" spans="1:2">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" ht="100.8" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:2">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" ht="43.2" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:2">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:2">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:2">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" ht="28.8" spans="1:2">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" ht="43.2" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" ht="28.8" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B12" s="5"/>
     </row>
     <row r="13" ht="43.2" spans="1:2">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" ht="57.6" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" ht="28.8" spans="1:2">
       <c r="A15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:2">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" ht="28.8" spans="1:2">
-      <c r="A17" t="s">
         <v>190</v>
       </c>
+    </row>
+    <row r="17" ht="158.4" spans="1:2">
+      <c r="A17" s="11" t="s">
+        <v>191</v>
+      </c>
       <c r="B17" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B18" s="5"/>
     </row>
     <row r="19" ht="28.8" spans="1:2">
       <c r="A19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B20" s="5"/>
     </row>
     <row r="21" ht="43.2" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" ht="28.8" spans="1:2">
       <c r="A22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" ht="28.8" spans="1:2">
       <c r="A23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" ht="43.2" spans="1:2">
       <c r="A24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" ht="43.2" spans="1:2">
       <c r="A25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" ht="28.8" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" ht="28.8" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" ht="43.2" spans="1:2">
       <c r="A28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" ht="28.8" spans="1:2">
       <c r="A29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" ht="28.8" spans="1:2">
       <c r="A30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B31" s="5"/>
     </row>
     <row r="32" ht="28.8" spans="1:2">
       <c r="A32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" ht="100.8" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" ht="72" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B34" s="11" t="s">
         <v>222</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="35" ht="57.6" spans="1:2">
       <c r="A35" t="s">
-        <v>223</v>
-      </c>
-      <c r="B35" s="11" t="s">
         <v>224</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="36" ht="28.8" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" ht="28.8" spans="1:2">
       <c r="A37" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" ht="43.2" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B38" s="11" t="s">
         <v>230</v>
       </c>
+      <c r="B38" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B39" s="12"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>232</v>
+      </c>
+      <c r="B40" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" ht="244.8" spans="1:2">
+      <c r="A41" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" ht="144" spans="1:2">
+      <c r="A42" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" ht="144" spans="1:2">
+      <c r="A43" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B44" s="12"/>
+    </row>
+    <row r="45" ht="172.8" spans="1:2">
+      <c r="A45" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" ht="43.2" spans="1:2">
+      <c r="A46" t="s">
+        <v>243</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>244</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4494,54 +4776,54 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="B1" s="8"/>
     </row>
     <row r="2" ht="57.6" spans="1:2">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" ht="57.6" spans="1:2">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="1:2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" ht="72" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:2">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" ht="86.4" spans="1:2">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -4571,24 +4853,24 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -4626,98 +4908,98 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" ht="115.2" spans="2:2">
       <c r="B9" s="2" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" ht="57.6" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B13" s="5"/>
     </row>
     <row r="14" ht="28.8" spans="1:2">
       <c r="A14" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="B15" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:2">
       <c r="A16" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" ht="28.8" spans="1:2">
       <c r="A17" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" ht="28.8" spans="1:2">
       <c r="A18" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -4752,48 +5034,48 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="B4" s="8"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="B6" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="B7" s="9">
         <v>17817836856</v>
@@ -4801,18 +5083,18 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="B9" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="B10" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -4845,56 +5127,56 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="B4" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="B5" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="B6" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="B7" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7"/>
       <c r="B9" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -4902,18 +5184,18 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/java/SpringBoot.xlsx
+++ b/java/SpringBoot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="689" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="689"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,29 @@
     <t>前端，java，运维，架构</t>
   </si>
   <si>
-    <t>下载Spring Initializr项目方式一：</t>
+    <r>
+      <t>下载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spring Initializr项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方式一：</t>
+    </r>
   </si>
   <si>
     <t>Spring官网</t>
@@ -105,7 +127,29 @@
     <t>.mvn、 mvnw、 mvnw.cmd、 HELP.md</t>
   </si>
   <si>
-    <t>下载Spring Initializr项目方式二：</t>
+    <r>
+      <t>下载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spring Initializr项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方式二：</t>
+    </r>
   </si>
   <si>
     <t>idea新建Spring Initializr项目</t>
@@ -2274,7 +2318,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2307,9 +2351,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2441,8 +2482,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30480" y="13761720"/>
-          <a:ext cx="4848860" cy="795020"/>
+          <a:off x="30480" y="12904470"/>
+          <a:ext cx="5235575" cy="749300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2479,8 +2520,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="123190" y="15270480"/>
-          <a:ext cx="3048000" cy="838200"/>
+          <a:off x="123190" y="14321790"/>
+          <a:ext cx="3048000" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2517,8 +2558,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3444240" y="15247620"/>
-          <a:ext cx="4533265" cy="1424940"/>
+          <a:off x="3444240" y="14298930"/>
+          <a:ext cx="4919980" cy="1333500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2555,8 +2596,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8169910" y="15262860"/>
-          <a:ext cx="3633470" cy="1120775"/>
+          <a:off x="8556625" y="14314170"/>
+          <a:ext cx="4553585" cy="1052195"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2593,8 +2634,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3101340" y="10393680"/>
-          <a:ext cx="2325370" cy="1588770"/>
+          <a:off x="3101340" y="9753600"/>
+          <a:ext cx="2712085" cy="1485900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2631,8 +2672,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="220980" y="10584180"/>
-          <a:ext cx="2642235" cy="663575"/>
+          <a:off x="220980" y="9932670"/>
+          <a:ext cx="2642235" cy="617855"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2669,8 +2710,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="8161020"/>
-          <a:ext cx="3703320" cy="1600200"/>
+          <a:off x="2430780" y="7658100"/>
+          <a:ext cx="4090035" cy="1497330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2707,8 +2748,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="53340" y="8161020"/>
-          <a:ext cx="1816735" cy="1579880"/>
+          <a:off x="53340" y="7658100"/>
+          <a:ext cx="1816735" cy="1477010"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2745,8 +2786,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6621780" y="8153400"/>
-          <a:ext cx="3157855" cy="1670050"/>
+          <a:off x="7008495" y="7650480"/>
+          <a:ext cx="3157855" cy="1567180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2783,8 +2824,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="144780" y="4137660"/>
-          <a:ext cx="2767330" cy="1557020"/>
+          <a:off x="144780" y="3886200"/>
+          <a:ext cx="2767330" cy="1454150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2821,8 +2862,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="17015460"/>
-          <a:ext cx="4798695" cy="1440180"/>
+          <a:off x="7620" y="15952470"/>
+          <a:ext cx="5185410" cy="1360170"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2859,8 +2900,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30480" y="6065520"/>
-          <a:ext cx="2971800" cy="1600200"/>
+          <a:off x="30480" y="5688330"/>
+          <a:ext cx="2971800" cy="1508760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2897,8 +2938,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="18844260"/>
-          <a:ext cx="4469765" cy="1981200"/>
+          <a:off x="7620" y="17666970"/>
+          <a:ext cx="4856480" cy="1866900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2935,8 +2976,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4930140" y="18829020"/>
-          <a:ext cx="2380615" cy="2048510"/>
+          <a:off x="5316855" y="17659350"/>
+          <a:ext cx="2380615" cy="1915160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2978,8 +3019,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="4953000"/>
-          <a:ext cx="6052820" cy="5965825"/>
+          <a:off x="7620" y="4644390"/>
+          <a:ext cx="6439535" cy="5600065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3280,14 +3321,14 @@
   <sheetPr/>
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="50.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+    <col min="1" max="1" width="50.775" customWidth="1"/>
+    <col min="2" max="2" width="120.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3299,10 +3340,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="19"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
@@ -3342,7 +3383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="43.2" spans="1:2">
+    <row r="9" ht="40.5" spans="1:2">
       <c r="A9" s="7"/>
       <c r="B9" s="4" t="s">
         <v>12</v>
@@ -3363,10 +3404,10 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="19"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
@@ -3394,10 +3435,10 @@
       <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="18"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
@@ -3451,34 +3492,34 @@
       <c r="A43" s="3"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="24"/>
+      <c r="A44" s="23"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="24"/>
+      <c r="A45" s="23"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="24"/>
+      <c r="A46" s="23"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="24"/>
+      <c r="A47" s="23"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="24"/>
+      <c r="A48" s="23"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="24"/>
+      <c r="A49" s="23"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="24"/>
+      <c r="A50" s="23"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="24"/>
+      <c r="A51" s="23"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="24"/>
+      <c r="A52" s="23"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B53" t="s">
@@ -3486,16 +3527,16 @@
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="24"/>
+      <c r="A54" s="23"/>
       <c r="B54" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="20" t="s">
+      <c r="A66" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B66" s="20"/>
+      <c r="B66" s="19"/>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="3" t="s">
@@ -3537,7 +3578,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" ht="28.8" spans="1:2">
+    <row r="72" ht="27" spans="1:2">
       <c r="A72" s="7" t="s">
         <v>38</v>
       </c>
@@ -3603,10 +3644,10 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="30.775" customWidth="1"/>
+    <col min="2" max="2" width="80.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3644,10 +3685,10 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.775" customWidth="1"/>
+    <col min="2" max="2" width="120.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -3658,7 +3699,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="4" ht="86.4" spans="1:2">
+    <row r="4" ht="81" spans="1:2">
       <c r="A4" t="s">
         <v>246</v>
       </c>
@@ -3666,7 +3707,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" ht="28.8" spans="1:2">
+    <row r="6" ht="27" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>321</v>
       </c>
@@ -3688,7 +3729,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="10" ht="28.8" spans="1:2">
+    <row r="10" ht="27" spans="1:2">
       <c r="A10" t="s">
         <v>325</v>
       </c>
@@ -3770,18 +3811,18 @@
       <selection activeCell="A16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="60.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="30.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.775" customWidth="1"/>
+    <col min="2" max="2" width="60.775" customWidth="1"/>
+    <col min="3" max="3" width="30.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -3879,10 +3920,10 @@
       <c r="A15" s="7"/>
     </row>
     <row r="16" ht="50" customHeight="1" spans="1:2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="20"/>
+      <c r="B16" s="19"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
@@ -3916,7 +3957,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" ht="28.8" spans="1:2">
+    <row r="21" ht="27" spans="1:2">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -3924,7 +3965,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" ht="28.8" spans="1:2">
+    <row r="22" ht="27" spans="1:2">
       <c r="A22" t="s">
         <v>78</v>
       </c>
@@ -3948,7 +3989,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" ht="57.6" spans="1:2">
+    <row r="25" ht="54" spans="1:2">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -3989,66 +4030,66 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="21" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="21" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="21" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="21" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="21" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="21" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4062,10 +4103,10 @@
       <c r="B38" s="2"/>
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:2">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="20"/>
+      <c r="B40" s="19"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
@@ -4117,10 +4158,10 @@
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.775" customWidth="1"/>
+    <col min="2" max="2" width="80.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4139,7 +4180,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" ht="28.8" spans="1:2">
+    <row r="3" ht="27" spans="1:2">
       <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>115</v>
@@ -4206,10 +4247,10 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="13"/>
+      <c r="B16" s="12"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
@@ -4230,7 +4271,7 @@
     <row r="19" spans="2:2">
       <c r="B19" s="10"/>
     </row>
-    <row r="22" ht="72" spans="1:2">
+    <row r="22" ht="67.5" spans="1:2">
       <c r="A22" s="7" t="s">
         <v>135</v>
       </c>
@@ -4253,10 +4294,10 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B26" s="14"/>
+      <c r="B26" s="13"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
@@ -4279,11 +4320,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" ht="43.2" spans="1:2">
+    <row r="32" ht="40.5" spans="1:2">
       <c r="A32" t="s">
         <v>146</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4304,19 +4345,19 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" ht="86.4" spans="1:2">
-      <c r="A36" s="16" t="s">
+    <row r="36" ht="81" spans="1:2">
+      <c r="A36" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="37" ht="28.8" spans="1:2">
+    <row r="37" ht="27" spans="1:2">
       <c r="A37" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="14" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4324,7 +4365,7 @@
       <c r="A38" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="17" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4334,11 +4375,11 @@
       </c>
       <c r="B39" s="8"/>
     </row>
-    <row r="40" ht="28.8" spans="1:2">
-      <c r="A40" s="16" t="s">
+    <row r="40" ht="27" spans="1:2">
+      <c r="A40" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4380,14 +4421,14 @@
   <sheetPr/>
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="70.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+    <col min="1" max="1" width="70.775" customWidth="1"/>
+    <col min="2" max="2" width="120.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4396,7 +4437,7 @@
       </c>
       <c r="B1" s="5"/>
     </row>
-    <row r="2" ht="43.2" spans="1:2">
+    <row r="2" ht="40.5" spans="1:2">
       <c r="A2" t="s">
         <v>162</v>
       </c>
@@ -4404,7 +4445,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" ht="100.8" spans="1:2">
+    <row r="3" ht="94.5" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>164</v>
       </c>
@@ -4412,7 +4453,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:2">
+    <row r="4" ht="27" spans="1:2">
       <c r="A4" t="s">
         <v>166</v>
       </c>
@@ -4420,7 +4461,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" ht="43.2" spans="1:2">
+    <row r="5" ht="40.5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>168</v>
       </c>
@@ -4428,7 +4469,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" ht="43.2" spans="1:2">
+    <row r="6" ht="40.5" spans="1:2">
       <c r="A6" t="s">
         <v>170</v>
       </c>
@@ -4436,7 +4477,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" ht="28.8" spans="1:2">
+    <row r="7" ht="27" spans="1:2">
       <c r="A7" t="s">
         <v>172</v>
       </c>
@@ -4444,7 +4485,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" ht="28.8" spans="1:2">
+    <row r="8" ht="27" spans="1:2">
       <c r="A8" t="s">
         <v>174</v>
       </c>
@@ -4452,7 +4493,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" ht="28.8" spans="1:2">
+    <row r="9" ht="27" spans="1:2">
       <c r="A9" t="s">
         <v>176</v>
       </c>
@@ -4460,7 +4501,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" ht="43.2" spans="1:2">
+    <row r="10" ht="40.5" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>178</v>
       </c>
@@ -4468,7 +4509,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" ht="28.8" spans="1:2">
+    <row r="11" ht="27" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>180</v>
       </c>
@@ -4482,7 +4523,7 @@
       </c>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" ht="43.2" spans="1:2">
+    <row r="13" ht="40.5" spans="1:2">
       <c r="A13" t="s">
         <v>183</v>
       </c>
@@ -4490,7 +4531,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" ht="57.6" spans="1:2">
+    <row r="14" ht="54" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>185</v>
       </c>
@@ -4498,7 +4539,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" ht="28.8" spans="1:2">
+    <row r="15" ht="27" spans="1:2">
       <c r="A15" t="s">
         <v>187</v>
       </c>
@@ -4506,7 +4547,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" ht="28.8" spans="1:2">
+    <row r="16" ht="27" spans="1:2">
       <c r="A16" t="s">
         <v>189</v>
       </c>
@@ -4514,8 +4555,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" ht="158.4" spans="1:2">
-      <c r="A17" s="11" t="s">
+    <row r="17" ht="148.5" spans="1:2">
+      <c r="A17" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -4528,7 +4569,7 @@
       </c>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" ht="28.8" spans="1:2">
+    <row r="19" ht="27" spans="1:2">
       <c r="A19" t="s">
         <v>194</v>
       </c>
@@ -4542,7 +4583,7 @@
       </c>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" ht="43.2" spans="1:2">
+    <row r="21" ht="40.5" spans="1:2">
       <c r="A21" s="2" t="s">
         <v>197</v>
       </c>
@@ -4550,7 +4591,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="22" ht="28.8" spans="1:2">
+    <row r="22" ht="27" spans="1:2">
       <c r="A22" t="s">
         <v>199</v>
       </c>
@@ -4558,7 +4599,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" ht="28.8" spans="1:2">
+    <row r="23" ht="27" spans="1:2">
       <c r="A23" t="s">
         <v>201</v>
       </c>
@@ -4566,7 +4607,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="24" ht="43.2" spans="1:2">
+    <row r="24" ht="40.5" spans="1:2">
       <c r="A24" t="s">
         <v>203</v>
       </c>
@@ -4574,7 +4615,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" ht="43.2" spans="1:2">
+    <row r="25" ht="40.5" spans="1:2">
       <c r="A25" t="s">
         <v>205</v>
       </c>
@@ -4582,7 +4623,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" ht="28.8" spans="1:2">
+    <row r="26" ht="27" spans="1:2">
       <c r="A26" s="2" t="s">
         <v>207</v>
       </c>
@@ -4590,7 +4631,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" ht="28.8" spans="1:2">
+    <row r="27" ht="27" spans="1:2">
       <c r="A27" s="2" t="s">
         <v>209</v>
       </c>
@@ -4598,7 +4639,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" ht="43.2" spans="1:2">
+    <row r="28" ht="40.5" spans="1:2">
       <c r="A28" t="s">
         <v>211</v>
       </c>
@@ -4606,7 +4647,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" ht="28.8" spans="1:2">
+    <row r="29" ht="27" spans="1:2">
       <c r="A29" t="s">
         <v>213</v>
       </c>
@@ -4614,7 +4655,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="30" ht="28.8" spans="1:2">
+    <row r="30" ht="27" spans="1:2">
       <c r="A30" t="s">
         <v>215</v>
       </c>
@@ -4628,7 +4669,7 @@
       </c>
       <c r="B31" s="5"/>
     </row>
-    <row r="32" ht="28.8" spans="1:2">
+    <row r="32" ht="27" spans="1:2">
       <c r="A32" t="s">
         <v>218</v>
       </c>
@@ -4636,7 +4677,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="33" ht="100.8" spans="1:2">
+    <row r="33" ht="94.5" spans="1:2">
       <c r="A33" s="2" t="s">
         <v>220</v>
       </c>
@@ -4644,7 +4685,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" ht="72" spans="1:2">
+    <row r="34" ht="67.5" spans="1:2">
       <c r="A34" s="2" t="s">
         <v>222</v>
       </c>
@@ -4652,7 +4693,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" ht="57.6" spans="1:2">
+    <row r="35" ht="54" spans="1:2">
       <c r="A35" t="s">
         <v>224</v>
       </c>
@@ -4660,7 +4701,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="36" ht="28.8" spans="1:2">
+    <row r="36" ht="27" spans="1:2">
       <c r="A36" s="2" t="s">
         <v>226</v>
       </c>
@@ -4668,7 +4709,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="37" ht="28.8" spans="1:2">
+    <row r="37" ht="27" spans="1:2">
       <c r="A37" t="s">
         <v>228</v>
       </c>
@@ -4676,7 +4717,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="38" ht="43.2" spans="1:2">
+    <row r="38" ht="40.5" spans="1:2">
       <c r="A38" s="2" t="s">
         <v>230</v>
       </c>
@@ -4685,10 +4726,10 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="B39" s="12"/>
+      <c r="B39" s="11"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
@@ -4698,49 +4739,49 @@
         <v>233</v>
       </c>
     </row>
-    <row r="41" ht="244.8" spans="1:2">
-      <c r="A41" s="11" t="s">
+    <row r="41" ht="229.5" spans="1:2">
+      <c r="A41" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="42" ht="144" spans="1:2">
-      <c r="A42" s="11" t="s">
+    <row r="42" ht="135" spans="1:2">
+      <c r="A42" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="43" ht="144" spans="1:2">
-      <c r="A43" s="11" t="s">
+    <row r="43" ht="135" spans="1:2">
+      <c r="A43" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="B44" s="12"/>
-    </row>
-    <row r="45" ht="172.8" spans="1:2">
-      <c r="A45" s="11" t="s">
+      <c r="B44" s="11"/>
+    </row>
+    <row r="45" ht="162" spans="1:2">
+      <c r="A45" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="46" ht="43.2" spans="1:2">
+    <row r="46" ht="40.5" spans="1:2">
       <c r="A46" t="s">
         <v>243</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="2" t="s">
         <v>244</v>
       </c>
     </row>
@@ -4768,10 +4809,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="50.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+    <col min="1" max="1" width="50.775" customWidth="1"/>
+    <col min="2" max="2" width="120.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4780,7 +4821,7 @@
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" ht="57.6" spans="1:2">
+    <row r="2" ht="54" spans="1:2">
       <c r="A2" t="s">
         <v>246</v>
       </c>
@@ -4788,7 +4829,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" ht="57.6" spans="1:2">
+    <row r="3" ht="54" spans="1:2">
       <c r="A3" t="s">
         <v>248</v>
       </c>
@@ -4796,13 +4837,13 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" ht="43.2" spans="1:2">
+    <row r="4" ht="40.5" spans="1:2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="5" ht="72" spans="1:2">
+    <row r="5" ht="67.5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>251</v>
       </c>
@@ -4810,7 +4851,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" ht="28.8" spans="1:2">
+    <row r="6" ht="27" spans="1:2">
       <c r="A6" t="s">
         <v>253</v>
       </c>
@@ -4818,7 +4859,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="7" ht="86.4" spans="1:2">
+    <row r="7" ht="81" spans="1:2">
       <c r="A7" t="s">
         <v>255</v>
       </c>
@@ -4845,10 +4886,10 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.775" customWidth="1"/>
+    <col min="2" max="2" width="120.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
@@ -4900,10 +4941,10 @@
       <selection activeCell="B21" sqref="B20:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="70.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+    <col min="1" max="1" width="70.775" customWidth="1"/>
+    <col min="2" max="2" width="120.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
@@ -4936,7 +4977,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" ht="115.2" spans="2:2">
+    <row r="9" ht="108" spans="2:2">
       <c r="B9" s="2" t="s">
         <v>269</v>
       </c>
@@ -4946,7 +4987,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" ht="57.6" spans="2:2">
+    <row r="11" ht="54" spans="2:2">
       <c r="B11" s="2" t="s">
         <v>271</v>
       </c>
@@ -4962,7 +5003,7 @@
       </c>
       <c r="B13" s="5"/>
     </row>
-    <row r="14" ht="28.8" spans="1:2">
+    <row r="14" ht="27" spans="1:2">
       <c r="A14" t="s">
         <v>274</v>
       </c>
@@ -4978,7 +5019,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="16" ht="28.8" spans="1:2">
+    <row r="16" ht="27" spans="1:2">
       <c r="A16" t="s">
         <v>278</v>
       </c>
@@ -4986,7 +5027,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="17" ht="28.8" spans="1:2">
+    <row r="17" ht="27" spans="1:2">
       <c r="A17" t="s">
         <v>280</v>
       </c>
@@ -4994,7 +5035,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="18" ht="28.8" spans="1:2">
+    <row r="18" ht="27" spans="1:2">
       <c r="A18" t="s">
         <v>281</v>
       </c>
@@ -5025,11 +5066,11 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="60.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="30.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="30.775" customWidth="1"/>
+    <col min="2" max="2" width="60.775" customWidth="1"/>
+    <col min="3" max="3" width="30.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5119,10 +5160,10 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="30.775" customWidth="1"/>
+    <col min="2" max="2" width="80.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
